--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/CHỊ TUYẾT SÀI GÒN/công nợ chị tuyết TPHCM.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/CHỊ TUYẾT SÀI GÒN/công nợ chị tuyết TPHCM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="hàng nhập" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="52">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -138,9 +138,6 @@
     <t>Tổng cộng nhập hàng đợt 3</t>
   </si>
   <si>
-    <t>Tổng sau 3 đợt nhập hàng</t>
-  </si>
-  <si>
     <t xml:space="preserve">HÀNG CHỊ TUYẾT TRẢ LẠI </t>
   </si>
   <si>
@@ -150,13 +147,31 @@
     <t>Như vậy:</t>
   </si>
   <si>
-    <t>Tổng 3 lần nhập hàng (1)</t>
-  </si>
-  <si>
-    <t>Công nợ (2)-(3)</t>
-  </si>
-  <si>
     <t>Hàng trả lại  (2)</t>
+  </si>
+  <si>
+    <t>Tổng sau 4 đợt nhập hàng</t>
+  </si>
+  <si>
+    <t>Đợt 4</t>
+  </si>
+  <si>
+    <t>Tổng cộng nhập hàng đợt 4</t>
+  </si>
+  <si>
+    <t>Tổng 4 lần nhập hàng (1)</t>
+  </si>
+  <si>
+    <t>Chiết khấu 50%</t>
+  </si>
+  <si>
+    <t>Tổng doanh thu  (3) =  (1)-(2)</t>
+  </si>
+  <si>
+    <t>Đã thanh toán</t>
+  </si>
+  <si>
+    <t>Công nợ</t>
   </si>
 </sst>
 </file>
@@ -164,12 +179,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,14 +265,21 @@
     </font>
     <font>
       <b/>
-      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,8 +298,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -421,13 +449,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -442,13 +494,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -461,7 +513,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -477,138 +529,128 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -651,28 +693,131 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -976,16 +1121,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:V44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="S43" sqref="S43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="82" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="76" customWidth="1"/>
     <col min="3" max="3" width="7" style="4" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" style="4" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" style="4" customWidth="1"/>
@@ -993,16 +1138,18 @@
     <col min="7" max="7" width="7.42578125" style="4" customWidth="1"/>
     <col min="8" max="8" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" style="80" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" style="74" customWidth="1"/>
     <col min="12" max="12" width="16" style="8" customWidth="1"/>
     <col min="13" max="13" width="5.5703125" style="8" customWidth="1"/>
     <col min="14" max="14" width="5.42578125" style="8" customWidth="1"/>
     <col min="15" max="15" width="16.7109375" style="8" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="4"/>
+    <col min="16" max="21" width="9.140625" style="4"/>
+    <col min="22" max="22" width="19" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1018,7 +1165,7 @@
       <c r="M1" s="6"/>
       <c r="O1" s="6"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1034,81 +1181,81 @@
       <c r="M2" s="13"/>
       <c r="O2" s="13"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="92" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="93"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="93"/>
-    </row>
-    <row r="5" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="95" t="s">
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="86"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+    </row>
+    <row r="5" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="95" t="s">
+      <c r="C5" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="95" t="s">
+      <c r="D5" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="97" t="s">
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="99" t="s">
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="100" t="s">
+      <c r="M5" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="101" t="s">
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="95" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="15" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="95"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="95"/>
+    <row r="6" spans="1:22" s="15" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="89"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="89"/>
       <c r="D6" s="16" t="s">
         <v>11</v>
       </c>
@@ -1133,7 +1280,7 @@
       <c r="K6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="99"/>
+      <c r="L6" s="93"/>
       <c r="M6" s="19" t="s">
         <v>19</v>
       </c>
@@ -1143,252 +1290,252 @@
       <c r="O6" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="101"/>
-    </row>
-    <row r="7" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="P6" s="95"/>
+    </row>
+    <row r="7" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="106">
         <v>43881</v>
       </c>
-      <c r="C7" s="24"/>
+      <c r="C7" s="109"/>
       <c r="D7" s="22" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="24"/>
+      <c r="F7" s="23"/>
       <c r="G7" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="24">
         <f>12*(8+4)</f>
         <v>144</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="25">
         <v>485000</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="26">
         <f>H7*I7</f>
         <v>69840000</v>
       </c>
-      <c r="K7" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="L7" s="27">
+      <c r="K7" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="26">
         <f>J7*(1-K7)</f>
         <v>34920000</v>
       </c>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="30">
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="29">
         <f t="shared" ref="O7:O21" si="0">L7</f>
         <v>34920000</v>
       </c>
-      <c r="P7" s="25"/>
-    </row>
-    <row r="8" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="24"/>
+      <c r="P7" s="24"/>
+    </row>
+    <row r="8" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="103"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="110"/>
       <c r="D8" s="22" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="32" t="s">
+      <c r="F8" s="23"/>
+      <c r="G8" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="24">
         <f>12*12</f>
         <v>144</v>
       </c>
-      <c r="I8" s="33">
+      <c r="I8" s="31">
         <v>465000</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="26">
         <f>H8*I8</f>
         <v>66960000</v>
       </c>
-      <c r="K8" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="L8" s="27">
+      <c r="K8" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="26">
         <f>J8*(1-K8)</f>
         <v>33480000</v>
       </c>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="30">
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="29">
         <f t="shared" si="0"/>
         <v>33480000</v>
       </c>
-      <c r="P8" s="25"/>
-    </row>
-    <row r="9" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="24"/>
+      <c r="P8" s="24"/>
+    </row>
+    <row r="9" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="103"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="110"/>
       <c r="D9" s="22" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="32" t="s">
+      <c r="F9" s="23"/>
+      <c r="G9" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="24">
         <f>12*12</f>
         <v>144</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="31">
         <v>475000</v>
       </c>
-      <c r="J9" s="27">
+      <c r="J9" s="26">
         <f>H9*I9</f>
         <v>68400000</v>
       </c>
-      <c r="K9" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="L9" s="27">
+      <c r="K9" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="L9" s="26">
         <f>J9*(1-K9)</f>
         <v>34200000</v>
       </c>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="30">
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="29">
         <f t="shared" si="0"/>
         <v>34200000</v>
       </c>
-      <c r="P9" s="25"/>
-    </row>
-    <row r="10" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="24"/>
+      <c r="P9" s="24"/>
+    </row>
+    <row r="10" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="103"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="110"/>
       <c r="D10" s="22" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="32" t="s">
+      <c r="F10" s="23"/>
+      <c r="G10" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="24">
         <f>12*12</f>
         <v>144</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="31">
         <v>455000</v>
       </c>
-      <c r="J10" s="27">
+      <c r="J10" s="26">
         <f>H10*I10</f>
         <v>65520000</v>
       </c>
-      <c r="K10" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="L10" s="27">
+      <c r="K10" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="L10" s="26">
         <f>J10*(1-K10)</f>
         <v>32760000</v>
       </c>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="30">
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="29">
         <f t="shared" si="0"/>
         <v>32760000</v>
       </c>
-      <c r="P10" s="25"/>
-    </row>
-    <row r="11" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="24"/>
+      <c r="P10" s="24"/>
+    </row>
+    <row r="11" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="104"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="111"/>
       <c r="D11" s="22" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="34" t="s">
+      <c r="F11" s="23"/>
+      <c r="G11" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="24">
         <f>12*12</f>
         <v>144</v>
       </c>
-      <c r="I11" s="35">
+      <c r="I11" s="33">
         <v>455000</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="26">
         <f>H11*I11</f>
         <v>65520000</v>
       </c>
-      <c r="K11" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="L11" s="27">
+      <c r="K11" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="L11" s="26">
         <f>J11*(1-K11)</f>
         <v>32760000</v>
       </c>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="30">
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="29">
         <f t="shared" si="0"/>
         <v>32760000</v>
       </c>
-      <c r="P11" s="25"/>
-    </row>
-    <row r="12" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="85" t="s">
+      <c r="P11" s="24"/>
+    </row>
+    <row r="12" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="36">
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="34">
         <f>SUM(H7:H11)</f>
         <v>720</v>
       </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="37">
+      <c r="I12" s="28"/>
+      <c r="J12" s="35">
         <f>SUM(J7:J11)</f>
         <v>336240000</v>
       </c>
-      <c r="K12" s="38"/>
-      <c r="L12" s="37">
+      <c r="K12" s="36"/>
+      <c r="L12" s="35">
         <f>SUM(L7:L11)</f>
         <v>168120000</v>
       </c>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29">
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28">
         <f t="shared" si="0"/>
         <v>168120000</v>
       </c>
-      <c r="P12" s="25"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="P12" s="24"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="106">
         <v>43915</v>
       </c>
-      <c r="C13" s="22"/>
+      <c r="C13" s="99"/>
       <c r="D13" s="22" t="s">
         <v>23</v>
       </c>
@@ -1402,382 +1549,382 @@
       <c r="H13" s="22">
         <v>24</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="25">
         <v>265000</v>
       </c>
-      <c r="J13" s="26">
+      <c r="J13" s="25">
         <f t="shared" ref="J13:J21" si="1">H13*I13</f>
         <v>6360000</v>
       </c>
-      <c r="K13" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="L13" s="26">
+      <c r="K13" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="25">
         <f t="shared" ref="L13:L21" si="2">J13*(1-K13)</f>
         <v>3180000</v>
       </c>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26">
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25">
         <f t="shared" si="0"/>
         <v>3180000</v>
       </c>
       <c r="P13" s="22"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32" t="s">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="103"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32" t="s">
+      <c r="F14" s="30"/>
+      <c r="G14" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="32">
+      <c r="H14" s="30">
         <v>12</v>
       </c>
-      <c r="I14" s="33">
+      <c r="I14" s="31">
         <v>465000</v>
       </c>
-      <c r="J14" s="33">
+      <c r="J14" s="31">
         <f t="shared" si="1"/>
         <v>5580000</v>
       </c>
-      <c r="K14" s="41">
-        <v>0.5</v>
-      </c>
-      <c r="L14" s="42">
+      <c r="K14" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="L14" s="39">
         <f t="shared" si="2"/>
         <v>2790000</v>
       </c>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33">
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31">
         <f t="shared" si="0"/>
         <v>2790000</v>
       </c>
-      <c r="P14" s="32"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32" t="s">
+      <c r="P14" s="30"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="103"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32" t="s">
+      <c r="F15" s="30"/>
+      <c r="G15" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="32">
+      <c r="H15" s="30">
         <v>36</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="31">
         <v>475000</v>
       </c>
-      <c r="J15" s="33">
+      <c r="J15" s="31">
         <f t="shared" si="1"/>
         <v>17100000</v>
       </c>
-      <c r="K15" s="43">
-        <v>0.5</v>
-      </c>
-      <c r="L15" s="33">
+      <c r="K15" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="L15" s="31">
         <f t="shared" si="2"/>
         <v>8550000</v>
       </c>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33">
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31">
         <f t="shared" si="0"/>
         <v>8550000</v>
       </c>
-      <c r="P15" s="32"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32" t="s">
+      <c r="P15" s="30"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="103"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32" t="s">
+      <c r="F16" s="30"/>
+      <c r="G16" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="30">
         <v>34</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="31">
         <v>485000</v>
       </c>
-      <c r="J16" s="33">
+      <c r="J16" s="31">
         <f t="shared" si="1"/>
         <v>16490000</v>
       </c>
-      <c r="K16" s="43">
-        <v>0.5</v>
-      </c>
-      <c r="L16" s="33">
+      <c r="K16" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="L16" s="31">
         <f t="shared" si="2"/>
         <v>8245000</v>
       </c>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33">
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31">
         <f t="shared" si="0"/>
         <v>8245000</v>
       </c>
-      <c r="P16" s="32"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32" t="s">
+      <c r="P16" s="30"/>
+      <c r="V16" s="78"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="103"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32" t="s">
+      <c r="F17" s="30"/>
+      <c r="G17" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="30">
         <v>24</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="31">
         <v>485000</v>
       </c>
-      <c r="J17" s="33">
+      <c r="J17" s="31">
         <f t="shared" si="1"/>
         <v>11640000</v>
       </c>
-      <c r="K17" s="43">
-        <v>0.5</v>
-      </c>
-      <c r="L17" s="33">
+      <c r="K17" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="L17" s="31">
         <f t="shared" si="2"/>
         <v>5820000</v>
       </c>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33">
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31">
         <f t="shared" si="0"/>
         <v>5820000</v>
       </c>
-      <c r="P17" s="32"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32" t="s">
+      <c r="P17" s="30"/>
+      <c r="V17" s="8"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="103"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32" t="s">
+      <c r="F18" s="30"/>
+      <c r="G18" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="30">
         <v>72</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="31">
         <v>550000</v>
       </c>
-      <c r="J18" s="33">
+      <c r="J18" s="31">
         <f t="shared" si="1"/>
         <v>39600000</v>
       </c>
-      <c r="K18" s="43">
-        <v>0.5</v>
-      </c>
-      <c r="L18" s="33">
+      <c r="K18" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="L18" s="31">
         <f t="shared" si="2"/>
         <v>19800000</v>
       </c>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33">
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31">
         <f t="shared" si="0"/>
         <v>19800000</v>
       </c>
-      <c r="P18" s="32"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32" t="s">
+      <c r="P18" s="30"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="103"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32" t="s">
+      <c r="F19" s="30"/>
+      <c r="G19" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H19" s="30">
         <v>56</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I19" s="31">
         <v>450000</v>
       </c>
-      <c r="J19" s="33">
+      <c r="J19" s="31">
         <f t="shared" si="1"/>
         <v>25200000</v>
       </c>
-      <c r="K19" s="43">
-        <v>0.5</v>
-      </c>
-      <c r="L19" s="33">
+      <c r="K19" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="L19" s="31">
         <f t="shared" si="2"/>
         <v>12600000</v>
       </c>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33">
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31">
         <f t="shared" si="0"/>
         <v>12600000</v>
       </c>
-      <c r="P19" s="32"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32" t="s">
+      <c r="P19" s="30"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="103"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32" t="s">
+      <c r="F20" s="30"/>
+      <c r="G20" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="32">
+      <c r="H20" s="30">
         <v>36</v>
       </c>
-      <c r="I20" s="33">
+      <c r="I20" s="31">
         <v>455000</v>
       </c>
-      <c r="J20" s="33">
+      <c r="J20" s="31">
         <f t="shared" si="1"/>
         <v>16380000</v>
       </c>
-      <c r="K20" s="43">
-        <v>0.5</v>
-      </c>
-      <c r="L20" s="33">
+      <c r="K20" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="L20" s="31">
         <f t="shared" si="2"/>
         <v>8190000</v>
       </c>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33">
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31">
         <f t="shared" si="0"/>
         <v>8190000</v>
       </c>
-      <c r="P20" s="32"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44" t="s">
+      <c r="P20" s="30"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="104"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="44" t="s">
+      <c r="E21" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44" t="s">
+      <c r="F21" s="41"/>
+      <c r="G21" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="44">
+      <c r="H21" s="41">
         <v>12</v>
       </c>
-      <c r="I21" s="46">
+      <c r="I21" s="42">
         <v>455000</v>
       </c>
-      <c r="J21" s="46">
+      <c r="J21" s="42">
         <f t="shared" si="1"/>
         <v>5460000</v>
       </c>
-      <c r="K21" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="L21" s="46">
+      <c r="K21" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="L21" s="42">
         <f t="shared" si="2"/>
         <v>2730000</v>
       </c>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46">
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42">
         <f t="shared" si="0"/>
         <v>2730000</v>
       </c>
-      <c r="P21" s="44"/>
-    </row>
-    <row r="22" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="85" t="s">
+      <c r="P21" s="41"/>
+    </row>
+    <row r="22" spans="1:22" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="48">
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="44">
         <f>SUM(H13:H21)</f>
         <v>306</v>
       </c>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49">
+      <c r="I22" s="45"/>
+      <c r="J22" s="45">
         <f>SUM(J13:J21)</f>
         <v>143810000</v>
       </c>
-      <c r="K22" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="L22" s="49">
+      <c r="K22" s="46"/>
+      <c r="L22" s="45">
         <f>SUM(L13:L21)</f>
         <v>71905000</v>
       </c>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49">
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45">
         <f>SUM(O13:O21)</f>
         <v>71905000</v>
       </c>
-      <c r="P22" s="48"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+      <c r="P22" s="44"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="115">
         <v>43916</v>
       </c>
-      <c r="C23" s="22"/>
+      <c r="C23" s="102"/>
       <c r="D23" s="22" t="s">
         <v>23</v>
       </c>
@@ -1791,334 +1938,694 @@
       <c r="H23" s="22">
         <v>36</v>
       </c>
-      <c r="I23" s="26">
+      <c r="I23" s="25">
         <v>455000</v>
       </c>
-      <c r="J23" s="26">
+      <c r="J23" s="25">
         <f t="shared" ref="J23:J29" si="3">I23*H23</f>
         <v>16380000</v>
       </c>
-      <c r="K23" s="41">
-        <v>0.5</v>
-      </c>
-      <c r="L23" s="42">
+      <c r="K23" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="L23" s="39">
         <f t="shared" ref="L23:L29" si="4">J23*(1-K23)</f>
         <v>8190000</v>
       </c>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26">
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25">
         <f t="shared" ref="O23:O29" si="5">L23</f>
         <v>8190000</v>
       </c>
       <c r="P23" s="22"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32" t="s">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="113"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32" t="s">
+      <c r="F24" s="30"/>
+      <c r="G24" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="32">
+      <c r="H24" s="30">
         <v>36</v>
       </c>
-      <c r="I24" s="33">
+      <c r="I24" s="31">
         <v>475000</v>
       </c>
-      <c r="J24" s="33">
+      <c r="J24" s="31">
         <f t="shared" si="3"/>
         <v>17100000</v>
       </c>
-      <c r="K24" s="43">
-        <v>0.5</v>
-      </c>
-      <c r="L24" s="33">
+      <c r="K24" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="L24" s="31">
         <f t="shared" si="4"/>
         <v>8550000</v>
       </c>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33">
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31">
         <f t="shared" si="5"/>
         <v>8550000</v>
       </c>
-      <c r="P24" s="32"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32" t="s">
+      <c r="P24" s="30"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="113"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="32" t="s">
+      <c r="E25" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32" t="s">
+      <c r="F25" s="30"/>
+      <c r="G25" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H25" s="32">
+      <c r="H25" s="30">
         <v>36</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="31">
         <v>485000</v>
       </c>
-      <c r="J25" s="33">
+      <c r="J25" s="31">
         <f t="shared" si="3"/>
         <v>17460000</v>
       </c>
-      <c r="K25" s="43">
-        <v>0.5</v>
-      </c>
-      <c r="L25" s="33">
+      <c r="K25" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="L25" s="31">
         <f t="shared" si="4"/>
         <v>8730000</v>
       </c>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33">
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31">
         <f t="shared" si="5"/>
         <v>8730000</v>
       </c>
-      <c r="P25" s="32"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32" t="s">
+      <c r="P25" s="30"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="113"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="32" t="s">
+      <c r="E26" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32" t="s">
+      <c r="F26" s="30"/>
+      <c r="G26" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="32">
+      <c r="H26" s="30">
         <v>36</v>
       </c>
-      <c r="I26" s="33">
+      <c r="I26" s="31">
         <v>485000</v>
       </c>
-      <c r="J26" s="33">
+      <c r="J26" s="31">
         <f t="shared" si="3"/>
         <v>17460000</v>
       </c>
-      <c r="K26" s="43">
-        <v>0.5</v>
-      </c>
-      <c r="L26" s="33">
+      <c r="K26" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="L26" s="31">
         <f t="shared" si="4"/>
         <v>8730000</v>
       </c>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33">
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31">
         <f t="shared" si="5"/>
         <v>8730000</v>
       </c>
-      <c r="P26" s="32"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32" t="s">
+      <c r="P26" s="30"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="113"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="32" t="s">
+      <c r="E27" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32" t="s">
+      <c r="F27" s="30"/>
+      <c r="G27" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="32">
+      <c r="H27" s="30">
         <v>72</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="31">
         <v>550000</v>
       </c>
-      <c r="J27" s="33">
+      <c r="J27" s="31">
         <f t="shared" si="3"/>
         <v>39600000</v>
       </c>
-      <c r="K27" s="43">
-        <v>0.5</v>
-      </c>
-      <c r="L27" s="33">
+      <c r="K27" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="L27" s="31">
         <f t="shared" si="4"/>
         <v>19800000</v>
       </c>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33">
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31">
         <f t="shared" si="5"/>
         <v>19800000</v>
       </c>
-      <c r="P27" s="32"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32" t="s">
+      <c r="P27" s="30"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="113"/>
+      <c r="B28" s="116"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="32" t="s">
+      <c r="E28" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32" t="s">
+      <c r="F28" s="30"/>
+      <c r="G28" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="H28" s="32">
+      <c r="H28" s="30">
         <v>36</v>
       </c>
-      <c r="I28" s="33">
+      <c r="I28" s="31">
         <v>455000</v>
       </c>
-      <c r="J28" s="33">
+      <c r="J28" s="31">
         <f t="shared" si="3"/>
         <v>16380000</v>
       </c>
-      <c r="K28" s="43">
-        <v>0.5</v>
-      </c>
-      <c r="L28" s="33">
+      <c r="K28" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="L28" s="31">
         <f t="shared" si="4"/>
         <v>8190000</v>
       </c>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33">
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31">
         <f t="shared" si="5"/>
         <v>8190000</v>
       </c>
-      <c r="P28" s="32"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34" t="s">
+      <c r="P28" s="30"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="114"/>
+      <c r="B29" s="117"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="34" t="s">
+      <c r="E29" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34" t="s">
+      <c r="F29" s="32"/>
+      <c r="G29" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="H29" s="34">
+      <c r="H29" s="32">
         <v>36</v>
       </c>
-      <c r="I29" s="35">
+      <c r="I29" s="33">
         <v>455000</v>
       </c>
-      <c r="J29" s="35">
+      <c r="J29" s="33">
         <f t="shared" si="3"/>
         <v>16380000</v>
       </c>
-      <c r="K29" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="L29" s="46">
+      <c r="K29" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="L29" s="42">
         <f t="shared" si="4"/>
         <v>8190000</v>
       </c>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35">
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33">
         <f t="shared" si="5"/>
         <v>8190000</v>
       </c>
-      <c r="P29" s="34"/>
-    </row>
-    <row r="30" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="88" t="s">
+      <c r="P29" s="32"/>
+    </row>
+    <row r="30" spans="1:22" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="88"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="48">
+      <c r="B30" s="82"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="44">
         <f>SUM(H23:H29)</f>
         <v>288</v>
       </c>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49">
+      <c r="I30" s="45"/>
+      <c r="J30" s="45">
         <f>SUM(J23:J29)</f>
         <v>140760000</v>
       </c>
-      <c r="K30" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="L30" s="49">
+      <c r="K30" s="46"/>
+      <c r="L30" s="45">
         <f>SUM(L23:L29)</f>
         <v>70380000</v>
       </c>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="49">
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45">
         <f>SUM(O23:O29)</f>
         <v>70380000</v>
       </c>
-      <c r="P30" s="48"/>
-    </row>
-    <row r="31" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="89" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="90"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="53">
-        <f>H30+H22+H12</f>
-        <v>1314</v>
-      </c>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54">
-        <f>J30+J22+J12</f>
-        <v>620810000</v>
-      </c>
-      <c r="K31" s="55"/>
-      <c r="L31" s="54">
-        <f>L30+L22+L12</f>
-        <v>310405000</v>
-      </c>
-      <c r="M31" s="54"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54">
-        <f>O30+O22+O12</f>
-        <v>310405000</v>
-      </c>
-      <c r="P31" s="53"/>
+      <c r="P30" s="44"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="102" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="106">
+        <v>44032</v>
+      </c>
+      <c r="C31" s="99"/>
+      <c r="D31" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" s="22">
+        <v>300</v>
+      </c>
+      <c r="I31" s="25">
+        <v>455000</v>
+      </c>
+      <c r="J31" s="25">
+        <f>H31*I31</f>
+        <v>136500000</v>
+      </c>
+      <c r="K31" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="L31" s="25">
+        <f>J31*(1-K31)</f>
+        <v>68250000</v>
+      </c>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25">
+        <f>L31</f>
+        <v>68250000</v>
+      </c>
+      <c r="P31" s="22"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="103"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="30">
+        <v>180</v>
+      </c>
+      <c r="I32" s="31">
+        <v>465000</v>
+      </c>
+      <c r="J32" s="31">
+        <f t="shared" ref="J32:J38" si="6">H32*I32</f>
+        <v>83700000</v>
+      </c>
+      <c r="K32" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="L32" s="31">
+        <f t="shared" ref="L32:L38" si="7">J32*(1-K32)</f>
+        <v>41850000</v>
+      </c>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31">
+        <f t="shared" ref="O32:O39" si="8">L32</f>
+        <v>41850000</v>
+      </c>
+      <c r="P32" s="30"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" s="103"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="30">
+        <v>120</v>
+      </c>
+      <c r="I33" s="31">
+        <v>475000</v>
+      </c>
+      <c r="J33" s="31">
+        <f t="shared" si="6"/>
+        <v>57000000</v>
+      </c>
+      <c r="K33" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="L33" s="31">
+        <f t="shared" si="7"/>
+        <v>28500000</v>
+      </c>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31">
+        <f t="shared" si="8"/>
+        <v>28500000</v>
+      </c>
+      <c r="P33" s="30"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34" s="103"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="30">
+        <v>240</v>
+      </c>
+      <c r="I34" s="31">
+        <v>485000</v>
+      </c>
+      <c r="J34" s="31">
+        <f t="shared" si="6"/>
+        <v>116400000</v>
+      </c>
+      <c r="K34" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="L34" s="31">
+        <f t="shared" si="7"/>
+        <v>58200000</v>
+      </c>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31">
+        <f t="shared" si="8"/>
+        <v>58200000</v>
+      </c>
+      <c r="P34" s="30"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35" s="103"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" s="30">
+        <v>60</v>
+      </c>
+      <c r="I35" s="31">
+        <v>485000</v>
+      </c>
+      <c r="J35" s="31">
+        <f t="shared" si="6"/>
+        <v>29100000</v>
+      </c>
+      <c r="K35" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="L35" s="31">
+        <f t="shared" si="7"/>
+        <v>14550000</v>
+      </c>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31">
+        <f t="shared" si="8"/>
+        <v>14550000</v>
+      </c>
+      <c r="P35" s="30"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36" s="103"/>
+      <c r="B36" s="107"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H36" s="30">
+        <v>240</v>
+      </c>
+      <c r="I36" s="31">
+        <v>550000</v>
+      </c>
+      <c r="J36" s="31">
+        <f t="shared" si="6"/>
+        <v>132000000</v>
+      </c>
+      <c r="K36" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="L36" s="31">
+        <f t="shared" si="7"/>
+        <v>66000000</v>
+      </c>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31">
+        <f t="shared" si="8"/>
+        <v>66000000</v>
+      </c>
+      <c r="P36" s="30"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" s="103"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" s="30">
+        <v>84</v>
+      </c>
+      <c r="I37" s="31">
+        <v>455000</v>
+      </c>
+      <c r="J37" s="31">
+        <f t="shared" si="6"/>
+        <v>38220000</v>
+      </c>
+      <c r="K37" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="L37" s="31">
+        <f t="shared" si="7"/>
+        <v>19110000</v>
+      </c>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31">
+        <f t="shared" si="8"/>
+        <v>19110000</v>
+      </c>
+      <c r="P37" s="30"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38" s="104"/>
+      <c r="B38" s="108"/>
+      <c r="C38" s="101"/>
+      <c r="D38" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" s="32">
+        <v>240</v>
+      </c>
+      <c r="I38" s="33">
+        <v>455000</v>
+      </c>
+      <c r="J38" s="33">
+        <f t="shared" si="6"/>
+        <v>109200000</v>
+      </c>
+      <c r="K38" s="118">
+        <v>0.5</v>
+      </c>
+      <c r="L38" s="33">
+        <f t="shared" si="7"/>
+        <v>54600000</v>
+      </c>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33">
+        <f t="shared" si="8"/>
+        <v>54600000</v>
+      </c>
+      <c r="P38" s="32"/>
+    </row>
+    <row r="39" spans="1:22" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="82"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="44">
+        <f>SUM(H31:H38)</f>
+        <v>1464</v>
+      </c>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45">
+        <f>SUM(J31:J38)</f>
+        <v>702120000</v>
+      </c>
+      <c r="K39" s="46"/>
+      <c r="L39" s="45">
+        <f>SUM(L31:L38)</f>
+        <v>351060000</v>
+      </c>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="45">
+        <f t="shared" si="8"/>
+        <v>351060000</v>
+      </c>
+      <c r="P39" s="44"/>
+    </row>
+    <row r="40" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="84"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="48">
+        <f>H30+H22+H12+H39</f>
+        <v>2778</v>
+      </c>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49">
+        <f>J30+J22+J12+J39</f>
+        <v>1322930000</v>
+      </c>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49">
+        <f>L30+L22+L12+L39</f>
+        <v>661465000</v>
+      </c>
+      <c r="M40" s="49"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="49">
+        <f>O30+O22+O12+O39</f>
+        <v>661465000</v>
+      </c>
+      <c r="P40" s="48"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V44" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="27">
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A31:A38"/>
+    <mergeCell ref="B31:B38"/>
+    <mergeCell ref="C31:C38"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="B13:B21"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="C13:C21"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="C23:C29"/>
     <mergeCell ref="A12:G12"/>
     <mergeCell ref="A22:G22"/>
     <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A40:G40"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="A4:O4"/>
     <mergeCell ref="A5:A6"/>
@@ -2129,116 +2636,125 @@
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:O5"/>
     <mergeCell ref="P5:P6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
   </mergeCells>
   <pageMargins left="0.17" right="0.2" top="0.45" bottom="0.32" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.42578125" customWidth="1"/>
     <col min="11" max="11" width="6" customWidth="1"/>
     <col min="12" max="12" width="14.42578125" customWidth="1"/>
     <col min="13" max="13" width="5.28515625" customWidth="1"/>
     <col min="14" max="14" width="5" customWidth="1"/>
     <col min="15" max="15" width="14.5703125" customWidth="1"/>
-    <col min="19" max="19" width="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" style="132" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:21" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="I1" s="59"/>
-    </row>
-    <row r="2" spans="1:19" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="B1" s="51"/>
+      <c r="I1" s="53"/>
+      <c r="S1" s="129"/>
+    </row>
+    <row r="2" spans="1:21" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="I2" s="59"/>
-    </row>
-    <row r="3" spans="1:19" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="102"/>
-      <c r="O3" s="102"/>
-      <c r="P3" s="102"/>
-    </row>
-    <row r="4" spans="1:19" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="82"/>
+      <c r="B2" s="51"/>
+      <c r="I2" s="53"/>
+      <c r="S2" s="129"/>
+    </row>
+    <row r="3" spans="1:21" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="S3" s="129"/>
+    </row>
+    <row r="4" spans="1:21" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="76"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="80"/>
+      <c r="K4" s="74"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
-    </row>
-    <row r="5" spans="1:19" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="95" t="s">
+      <c r="S4" s="76"/>
+    </row>
+    <row r="5" spans="1:21" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="95" t="s">
+      <c r="C5" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="95" t="s">
+      <c r="D5" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="97" t="s">
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="99" t="s">
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="100" t="s">
+      <c r="M5" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="101" t="s">
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="95" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" s="15" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="95"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="95"/>
+      <c r="S5" s="130"/>
+    </row>
+    <row r="6" spans="1:21" s="15" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="89"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="89"/>
       <c r="D6" s="16" t="s">
         <v>11</v>
       </c>
@@ -2263,7 +2779,7 @@
       <c r="K6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="99"/>
+      <c r="L6" s="93"/>
       <c r="M6" s="19" t="s">
         <v>19</v>
       </c>
@@ -2273,328 +2789,473 @@
       <c r="O6" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="101"/>
-    </row>
-    <row r="7" spans="1:19" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23">
+      <c r="P6" s="95"/>
+      <c r="S6" s="130"/>
+      <c r="U6" s="4"/>
+    </row>
+    <row r="7" spans="1:21" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="102"/>
+      <c r="B7" s="106">
         <v>43881</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22" t="s">
+      <c r="C7" s="102"/>
+      <c r="D7" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="F7" s="102"/>
       <c r="G7" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="61">
+      <c r="H7" s="55">
         <f>8*12</f>
         <v>96</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="25">
         <v>485000</v>
       </c>
-      <c r="J7" s="62">
+      <c r="J7" s="56">
         <f>H7*I7</f>
         <v>46560000</v>
       </c>
-      <c r="K7" s="63">
-        <v>0.5</v>
-      </c>
-      <c r="L7" s="62">
+      <c r="K7" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="56">
         <f>J7*(1-K7)</f>
         <v>23280000</v>
       </c>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="65">
-        <f t="shared" ref="O7:O12" si="0">L7</f>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="59">
+        <f t="shared" ref="O7:O13" si="0">L7</f>
         <v>23280000</v>
       </c>
       <c r="P7" s="22"/>
-    </row>
-    <row r="8" spans="1:19" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32" t="s">
+      <c r="S7" s="76"/>
+    </row>
+    <row r="8" spans="1:21" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="103"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="66">
+      <c r="H8" s="60">
         <f>8*12</f>
         <v>96</v>
       </c>
-      <c r="I8" s="33">
+      <c r="I8" s="31">
         <v>465000</v>
       </c>
-      <c r="J8" s="67">
+      <c r="J8" s="61">
         <f>H8*I8</f>
         <v>44640000</v>
       </c>
-      <c r="K8" s="68">
-        <v>0.5</v>
-      </c>
-      <c r="L8" s="67">
+      <c r="K8" s="62">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="61">
         <f>J8*(1-K8)</f>
         <v>22320000</v>
       </c>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="70">
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="64">
         <f t="shared" si="0"/>
         <v>22320000</v>
       </c>
-      <c r="P8" s="32"/>
-    </row>
-    <row r="9" spans="1:19" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32" t="s">
+      <c r="P8" s="30"/>
+      <c r="S8" s="76"/>
+    </row>
+    <row r="9" spans="1:21" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="103"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="66">
+      <c r="H9" s="60">
         <f>11*12</f>
         <v>132</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="31">
         <v>475000</v>
       </c>
-      <c r="J9" s="67">
+      <c r="J9" s="61">
         <f>H9*I9</f>
         <v>62700000</v>
       </c>
-      <c r="K9" s="68">
-        <v>0.5</v>
-      </c>
-      <c r="L9" s="67">
+      <c r="K9" s="62">
+        <v>0.5</v>
+      </c>
+      <c r="L9" s="61">
         <f>J9*(1-K9)</f>
         <v>31350000</v>
       </c>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="70">
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="64">
         <f t="shared" si="0"/>
         <v>31350000</v>
       </c>
-      <c r="P9" s="32"/>
-    </row>
-    <row r="10" spans="1:19" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32" t="s">
+      <c r="P9" s="30"/>
+      <c r="S9" s="76"/>
+    </row>
+    <row r="10" spans="1:21" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="103"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="66">
+      <c r="H10" s="60">
         <f>9*12</f>
         <v>108</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="31">
         <v>455000</v>
       </c>
-      <c r="J10" s="67">
+      <c r="J10" s="61">
         <f>H10*I10</f>
         <v>49140000</v>
       </c>
-      <c r="K10" s="68">
-        <v>0.5</v>
-      </c>
-      <c r="L10" s="67">
+      <c r="K10" s="62">
+        <v>0.5</v>
+      </c>
+      <c r="L10" s="61">
         <f>J10*(1-K10)</f>
         <v>24570000</v>
       </c>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="70">
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="64">
         <f t="shared" si="0"/>
         <v>24570000</v>
       </c>
-      <c r="P10" s="32"/>
-      <c r="S10" s="106"/>
-    </row>
-    <row r="11" spans="1:19" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44" t="s">
+      <c r="P10" s="30"/>
+      <c r="S10" s="76"/>
+    </row>
+    <row r="11" spans="1:21" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="103"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="71">
+      <c r="H11" s="65">
         <f>7*12</f>
         <v>84</v>
       </c>
-      <c r="I11" s="46">
+      <c r="I11" s="42">
         <v>455000</v>
       </c>
-      <c r="J11" s="72">
+      <c r="J11" s="66">
         <f>H11*I11</f>
         <v>38220000</v>
       </c>
-      <c r="K11" s="73">
-        <v>0.5</v>
-      </c>
-      <c r="L11" s="72">
+      <c r="K11" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="L11" s="66">
         <f>J11*(1-K11)</f>
         <v>19110000</v>
       </c>
-      <c r="M11" s="74"/>
-      <c r="N11" s="74"/>
-      <c r="O11" s="75">
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="69">
         <f t="shared" si="0"/>
         <v>19110000</v>
       </c>
-      <c r="P11" s="44"/>
-    </row>
-    <row r="12" spans="1:19" s="51" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="48">
-        <f>SUM(H7:H11)</f>
-        <v>516</v>
-      </c>
-      <c r="I12" s="49"/>
-      <c r="J12" s="20">
-        <f>SUM(J7:J11)</f>
-        <v>241260000</v>
-      </c>
-      <c r="K12" s="76"/>
-      <c r="L12" s="20">
-        <f>SUM(L7:L11)</f>
-        <v>120630000</v>
-      </c>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="20">
+      <c r="P11" s="41"/>
+      <c r="S11" s="76"/>
+    </row>
+    <row r="12" spans="1:21" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="98"/>
+      <c r="B12" s="105">
+        <v>44051</v>
+      </c>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="98" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="98"/>
+      <c r="G12" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="55">
+        <v>12</v>
+      </c>
+      <c r="I12" s="25">
+        <v>455000</v>
+      </c>
+      <c r="J12" s="56">
+        <f t="shared" ref="J12:J13" si="1">H12*I12</f>
+        <v>5460000</v>
+      </c>
+      <c r="K12" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="L12" s="56">
+        <f t="shared" ref="L12:L13" si="2">J12*(1-K12)</f>
+        <v>2730000</v>
+      </c>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="59">
         <f t="shared" si="0"/>
-        <v>120630000</v>
-      </c>
-      <c r="P12" s="48"/>
-    </row>
-    <row r="13" spans="1:19" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="82"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-    </row>
-    <row r="14" spans="1:19" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>2730000</v>
+      </c>
+      <c r="P12" s="22"/>
+      <c r="S12" s="76"/>
+    </row>
+    <row r="13" spans="1:21" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="119"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="121">
+        <v>12</v>
+      </c>
+      <c r="I13" s="33">
+        <v>455000</v>
+      </c>
+      <c r="J13" s="122">
+        <f t="shared" si="1"/>
+        <v>5460000</v>
+      </c>
+      <c r="K13" s="123">
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="122">
+        <f t="shared" si="2"/>
+        <v>2730000</v>
+      </c>
+      <c r="M13" s="124"/>
+      <c r="N13" s="124"/>
+      <c r="O13" s="125">
+        <f t="shared" si="0"/>
+        <v>2730000</v>
+      </c>
+      <c r="P13" s="32"/>
+      <c r="S13" s="76"/>
+    </row>
+    <row r="14" spans="1:21" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="82" t="s">
+        <v>41</v>
+      </c>
       <c r="B14" s="82"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="S14" s="106"/>
-    </row>
-    <row r="15" spans="1:19" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="77" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="103">
-        <f>'hàng nhập'!J31</f>
-        <v>620810000</v>
-      </c>
-      <c r="I15" s="103"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="44">
+        <f>SUM(H7:H13)</f>
+        <v>540</v>
+      </c>
+      <c r="I14" s="45"/>
+      <c r="J14" s="20">
+        <f>SUM(J7:J13)</f>
+        <v>252180000</v>
+      </c>
+      <c r="K14" s="70"/>
+      <c r="L14" s="20">
+        <f>SUM(L7:L13)</f>
+        <v>126090000</v>
+      </c>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="20">
+        <f>L14</f>
+        <v>126090000</v>
+      </c>
+      <c r="P14" s="44"/>
+      <c r="S14" s="131"/>
+    </row>
+    <row r="15" spans="1:21" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="76"/>
+      <c r="I15" s="8"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="80"/>
+      <c r="K15" s="74"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
-    </row>
-    <row r="16" spans="1:19" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="82"/>
-      <c r="C16" s="83" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="81"/>
-      <c r="H16" s="103">
-        <f>J12</f>
-        <v>241260000</v>
-      </c>
-      <c r="I16" s="103"/>
+      <c r="S15" s="76"/>
+    </row>
+    <row r="16" spans="1:21" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="76"/>
+      <c r="I16" s="8"/>
       <c r="J16" s="8"/>
-      <c r="K16" s="80"/>
+      <c r="K16" s="74"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
-    </row>
-    <row r="17" spans="2:15" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B17" s="82"/>
-      <c r="C17" s="104" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="105">
-        <f>(H15-H16)*0.5</f>
-        <v>189775000</v>
-      </c>
-      <c r="I17" s="105"/>
+      <c r="S16" s="76"/>
+    </row>
+    <row r="17" spans="2:20" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B17" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="96">
+        <f>'hàng nhập'!J40</f>
+        <v>1322930000</v>
+      </c>
+      <c r="I17" s="96"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="80"/>
+      <c r="K17" s="74"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
-    </row>
-    <row r="18" spans="2:15" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="82"/>
-      <c r="I18" s="8"/>
+      <c r="S17" s="136" t="s">
+        <v>50</v>
+      </c>
+      <c r="T17" s="136"/>
+    </row>
+    <row r="18" spans="2:20" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B18" s="76"/>
+      <c r="C18" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="75"/>
+      <c r="H18" s="96">
+        <f>J14</f>
+        <v>252180000</v>
+      </c>
+      <c r="I18" s="96"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="80"/>
+      <c r="K18" s="74"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
+      <c r="S18" s="134">
+        <v>43659</v>
+      </c>
+      <c r="T18" s="135">
+        <v>150000000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B19" s="76"/>
+      <c r="C19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="126">
+        <f>H17-H18</f>
+        <v>1070750000</v>
+      </c>
+      <c r="I19" s="126"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="S19" s="134">
+        <v>43675</v>
+      </c>
+      <c r="T19" s="135">
+        <v>67000000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="128">
+        <f>H19*(1-50%)</f>
+        <v>535375000</v>
+      </c>
+      <c r="I20" s="127"/>
+      <c r="S20" s="134">
+        <v>44046</v>
+      </c>
+      <c r="T20" s="135">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="133">
+        <f>T18+T19+T20+T21</f>
+        <v>367000000</v>
+      </c>
+      <c r="I21" s="133"/>
+      <c r="S21" s="134">
+        <v>44053</v>
+      </c>
+      <c r="T21" s="135">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="137"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="137"/>
+      <c r="G22" s="137"/>
+      <c r="H22" s="138">
+        <f>H20-H21</f>
+        <v>168375000</v>
+      </c>
+      <c r="I22" s="139"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C23" s="137"/>
+      <c r="D23" s="137"/>
+      <c r="E23" s="137"/>
+      <c r="F23" s="137"/>
+      <c r="G23" s="137"/>
+      <c r="H23" s="137"/>
+      <c r="I23" s="137"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="H15:I15"/>
+  <mergeCells count="29">
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -2602,6 +3263,20 @@
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:K5"/>
     <mergeCell ref="P5:P6"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2612,7 +3287,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K27" sqref="K27:K28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/CHỊ TUYẾT SÀI GÒN/công nợ chị tuyết TPHCM.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/CHỊ TUYẾT SÀI GÒN/công nợ chị tuyết TPHCM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="hàng nhập" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="53">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -24,9 +24,6 @@
     <t xml:space="preserve"> Số:………./PKD. MST: 0108806878</t>
   </si>
   <si>
-    <t>BẢNG TỔNG HỢP CÔNG NỢ CHỊ TUYẾT</t>
-  </si>
-  <si>
     <t>STT</t>
   </si>
   <si>
@@ -171,7 +168,13 @@
     <t>Đã thanh toán</t>
   </si>
   <si>
-    <t>Công nợ</t>
+    <t>Công nợ (Còn nợ công ty Nanomilk)</t>
+  </si>
+  <si>
+    <t>BẢNG TỔNG HỢP CHỊ TUYẾT NHẬP HÀNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tổng </t>
   </si>
 </sst>
 </file>
@@ -184,7 +187,7 @@
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,6 +281,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -651,130 +663,7 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -789,35 +678,154 @@
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1123,24 +1131,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="S43" sqref="S43"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="76" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="76" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="4" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" style="4" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" style="4" customWidth="1"/>
     <col min="6" max="6" width="6.85546875" style="4" customWidth="1"/>
     <col min="7" max="7" width="7.42578125" style="4" customWidth="1"/>
     <col min="8" max="8" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.5703125" style="74" customWidth="1"/>
-    <col min="12" max="12" width="16" style="8" customWidth="1"/>
+    <col min="12" max="12" width="28.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.5703125" style="8" customWidth="1"/>
     <col min="14" max="14" width="5.42578125" style="8" customWidth="1"/>
     <col min="15" max="15" width="16.7109375" style="8" customWidth="1"/>
@@ -1182,133 +1190,133 @@
       <c r="O2" s="13"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="96" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="97"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+    </row>
+    <row r="5" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="87"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-    </row>
-    <row r="5" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89" t="s">
+      <c r="B5" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="90" t="s">
+      <c r="C5" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="D5" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="89" t="s">
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="91" t="s">
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="93" t="s">
+      <c r="M5" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="94" t="s">
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="95" t="s">
+    </row>
+    <row r="6" spans="1:22" s="15" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" s="15" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="89"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="16" t="s">
+      <c r="E6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="F6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="G6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="H6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="I6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="J6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="K6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="L6" s="103"/>
+      <c r="M6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="93"/>
-      <c r="M6" s="19" t="s">
+      <c r="N6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="O6" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="19" t="s">
+      <c r="P6" s="105"/>
+    </row>
+    <row r="7" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="95"/>
-    </row>
-    <row r="7" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="102" t="s">
+      <c r="B7" s="109">
+        <v>43881</v>
+      </c>
+      <c r="C7" s="112"/>
+      <c r="D7" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="106">
-        <v>43881</v>
-      </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="22" t="s">
+      <c r="E7" s="22" t="s">
         <v>23</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>24</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="24">
         <f>12*(8+4)</f>
@@ -1337,18 +1345,18 @@
       <c r="P7" s="24"/>
     </row>
     <row r="8" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="103"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="110"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="113"/>
       <c r="D8" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>23</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>24</v>
       </c>
       <c r="F8" s="23"/>
       <c r="G8" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H8" s="24">
         <f>12*12</f>
@@ -1377,18 +1385,18 @@
       <c r="P8" s="24"/>
     </row>
     <row r="9" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="103"/>
-      <c r="B9" s="107"/>
-      <c r="C9" s="110"/>
+      <c r="A9" s="107"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="113"/>
       <c r="D9" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="22" t="s">
         <v>23</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>24</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H9" s="24">
         <f>12*12</f>
@@ -1417,18 +1425,18 @@
       <c r="P9" s="24"/>
     </row>
     <row r="10" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="103"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="110"/>
+      <c r="A10" s="107"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="113"/>
       <c r="D10" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>23</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>24</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H10" s="24">
         <f>12*12</f>
@@ -1457,18 +1465,18 @@
       <c r="P10" s="24"/>
     </row>
     <row r="11" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="104"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="111"/>
+      <c r="A11" s="108"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="114"/>
       <c r="D11" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>23</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>24</v>
       </c>
       <c r="F11" s="23"/>
       <c r="G11" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H11" s="24">
         <f>12*12</f>
@@ -1497,15 +1505,15 @@
       <c r="P11" s="24"/>
     </row>
     <row r="12" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="79" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="81"/>
+      <c r="A12" s="124" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="125"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="126"/>
       <c r="H12" s="34">
         <f>SUM(H7:H11)</f>
         <v>720</v>
@@ -1529,22 +1537,22 @@
       <c r="P12" s="24"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="102" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="106">
+      <c r="A13" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="109">
         <v>43915</v>
       </c>
-      <c r="C13" s="99"/>
+      <c r="C13" s="115"/>
       <c r="D13" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="22" t="s">
         <v>23</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>24</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13" s="22">
         <v>24</v>
@@ -1572,18 +1580,18 @@
       <c r="P13" s="22"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="103"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="100"/>
+      <c r="A14" s="107"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="116"/>
       <c r="D14" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="30" t="s">
         <v>23</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>24</v>
       </c>
       <c r="F14" s="30"/>
       <c r="G14" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H14" s="30">
         <v>12</v>
@@ -1611,18 +1619,18 @@
       <c r="P14" s="30"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="103"/>
-      <c r="B15" s="107"/>
-      <c r="C15" s="100"/>
+      <c r="A15" s="107"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="116"/>
       <c r="D15" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="30" t="s">
         <v>23</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>24</v>
       </c>
       <c r="F15" s="30"/>
       <c r="G15" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H15" s="30">
         <v>36</v>
@@ -1650,18 +1658,18 @@
       <c r="P15" s="30"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="103"/>
-      <c r="B16" s="107"/>
-      <c r="C16" s="100"/>
+      <c r="A16" s="107"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="116"/>
       <c r="D16" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="30" t="s">
         <v>23</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>24</v>
       </c>
       <c r="F16" s="30"/>
       <c r="G16" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H16" s="30">
         <v>34</v>
@@ -1690,18 +1698,18 @@
       <c r="V16" s="78"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="103"/>
-      <c r="B17" s="107"/>
-      <c r="C17" s="100"/>
+      <c r="A17" s="107"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="116"/>
       <c r="D17" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="30" t="s">
         <v>23</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>24</v>
       </c>
       <c r="F17" s="30"/>
       <c r="G17" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H17" s="30">
         <v>24</v>
@@ -1730,18 +1738,18 @@
       <c r="V17" s="8"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="103"/>
-      <c r="B18" s="107"/>
-      <c r="C18" s="100"/>
+      <c r="A18" s="107"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="116"/>
       <c r="D18" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="30" t="s">
         <v>23</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>24</v>
       </c>
       <c r="F18" s="30"/>
       <c r="G18" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H18" s="30">
         <v>72</v>
@@ -1769,18 +1777,18 @@
       <c r="P18" s="30"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="103"/>
-      <c r="B19" s="107"/>
-      <c r="C19" s="100"/>
+      <c r="A19" s="107"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="116"/>
       <c r="D19" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="30" t="s">
         <v>23</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>24</v>
       </c>
       <c r="F19" s="30"/>
       <c r="G19" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H19" s="30">
         <v>56</v>
@@ -1808,18 +1816,18 @@
       <c r="P19" s="30"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="103"/>
-      <c r="B20" s="107"/>
-      <c r="C20" s="100"/>
+      <c r="A20" s="107"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="116"/>
       <c r="D20" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="30" t="s">
         <v>23</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>24</v>
       </c>
       <c r="F20" s="30"/>
       <c r="G20" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H20" s="30">
         <v>36</v>
@@ -1847,18 +1855,18 @@
       <c r="P20" s="30"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="104"/>
-      <c r="B21" s="108"/>
-      <c r="C21" s="101"/>
+      <c r="A21" s="108"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="117"/>
       <c r="D21" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="41" t="s">
         <v>23</v>
-      </c>
-      <c r="E21" s="41" t="s">
-        <v>24</v>
       </c>
       <c r="F21" s="41"/>
       <c r="G21" s="41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H21" s="41">
         <v>12</v>
@@ -1886,15 +1894,15 @@
       <c r="P21" s="41"/>
     </row>
     <row r="22" spans="1:22" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="79" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="80"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="81"/>
+      <c r="A22" s="124" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="125"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="126"/>
       <c r="H22" s="44">
         <f>SUM(H13:H21)</f>
         <v>306</v>
@@ -1918,22 +1926,22 @@
       <c r="P22" s="44"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="112" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="115">
+      <c r="A23" s="118" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="121">
         <v>43916</v>
       </c>
-      <c r="C23" s="102"/>
+      <c r="C23" s="106"/>
       <c r="D23" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="22" t="s">
         <v>23</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>24</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H23" s="22">
         <v>36</v>
@@ -1961,18 +1969,18 @@
       <c r="P23" s="22"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="113"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="103"/>
+      <c r="A24" s="119"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="107"/>
       <c r="D24" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="30" t="s">
         <v>23</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>24</v>
       </c>
       <c r="F24" s="30"/>
       <c r="G24" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H24" s="30">
         <v>36</v>
@@ -2000,18 +2008,18 @@
       <c r="P24" s="30"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="113"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="103"/>
+      <c r="A25" s="119"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="107"/>
       <c r="D25" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="30" t="s">
         <v>23</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>24</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H25" s="30">
         <v>36</v>
@@ -2039,18 +2047,18 @@
       <c r="P25" s="30"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="113"/>
-      <c r="B26" s="116"/>
-      <c r="C26" s="103"/>
+      <c r="A26" s="119"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="107"/>
       <c r="D26" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="30" t="s">
         <v>23</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>24</v>
       </c>
       <c r="F26" s="30"/>
       <c r="G26" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H26" s="30">
         <v>36</v>
@@ -2078,18 +2086,18 @@
       <c r="P26" s="30"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="113"/>
-      <c r="B27" s="116"/>
-      <c r="C27" s="103"/>
+      <c r="A27" s="119"/>
+      <c r="B27" s="122"/>
+      <c r="C27" s="107"/>
       <c r="D27" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="30" t="s">
         <v>23</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>24</v>
       </c>
       <c r="F27" s="30"/>
       <c r="G27" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H27" s="30">
         <v>72</v>
@@ -2117,18 +2125,18 @@
       <c r="P27" s="30"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="113"/>
-      <c r="B28" s="116"/>
-      <c r="C28" s="103"/>
+      <c r="A28" s="119"/>
+      <c r="B28" s="122"/>
+      <c r="C28" s="107"/>
       <c r="D28" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="30" t="s">
         <v>23</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>24</v>
       </c>
       <c r="F28" s="30"/>
       <c r="G28" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H28" s="30">
         <v>36</v>
@@ -2156,18 +2164,18 @@
       <c r="P28" s="30"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="114"/>
-      <c r="B29" s="117"/>
-      <c r="C29" s="104"/>
+      <c r="A29" s="120"/>
+      <c r="B29" s="123"/>
+      <c r="C29" s="108"/>
       <c r="D29" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="32" t="s">
         <v>23</v>
-      </c>
-      <c r="E29" s="32" t="s">
-        <v>24</v>
       </c>
       <c r="F29" s="32"/>
       <c r="G29" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H29" s="32">
         <v>36</v>
@@ -2195,15 +2203,15 @@
       <c r="P29" s="32"/>
     </row>
     <row r="30" spans="1:22" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="82" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="82"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
+      <c r="A30" s="127" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="127"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="127"/>
+      <c r="G30" s="127"/>
       <c r="H30" s="44">
         <f>SUM(H23:H29)</f>
         <v>288</v>
@@ -2227,22 +2235,22 @@
       <c r="P30" s="44"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="102" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="106">
+      <c r="A31" s="106" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="109">
         <v>44032</v>
       </c>
-      <c r="C31" s="99"/>
+      <c r="C31" s="115"/>
       <c r="D31" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="22" t="s">
         <v>23</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>24</v>
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H31" s="22">
         <v>300</v>
@@ -2270,18 +2278,18 @@
       <c r="P31" s="22"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="103"/>
-      <c r="B32" s="107"/>
-      <c r="C32" s="100"/>
+      <c r="A32" s="107"/>
+      <c r="B32" s="110"/>
+      <c r="C32" s="116"/>
       <c r="D32" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="30" t="s">
         <v>23</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>24</v>
       </c>
       <c r="F32" s="30"/>
       <c r="G32" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H32" s="30">
         <v>180</v>
@@ -2309,18 +2317,18 @@
       <c r="P32" s="30"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="103"/>
-      <c r="B33" s="107"/>
-      <c r="C33" s="100"/>
+      <c r="A33" s="107"/>
+      <c r="B33" s="110"/>
+      <c r="C33" s="116"/>
       <c r="D33" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="30" t="s">
         <v>23</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>24</v>
       </c>
       <c r="F33" s="30"/>
       <c r="G33" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H33" s="30">
         <v>120</v>
@@ -2348,18 +2356,18 @@
       <c r="P33" s="30"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" s="103"/>
-      <c r="B34" s="107"/>
-      <c r="C34" s="100"/>
+      <c r="A34" s="107"/>
+      <c r="B34" s="110"/>
+      <c r="C34" s="116"/>
       <c r="D34" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="30" t="s">
         <v>23</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>24</v>
       </c>
       <c r="F34" s="30"/>
       <c r="G34" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H34" s="30">
         <v>240</v>
@@ -2387,18 +2395,18 @@
       <c r="P34" s="30"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="103"/>
-      <c r="B35" s="107"/>
-      <c r="C35" s="100"/>
+      <c r="A35" s="107"/>
+      <c r="B35" s="110"/>
+      <c r="C35" s="116"/>
       <c r="D35" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="30" t="s">
         <v>23</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>24</v>
       </c>
       <c r="F35" s="30"/>
       <c r="G35" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H35" s="30">
         <v>60</v>
@@ -2426,18 +2434,18 @@
       <c r="P35" s="30"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="103"/>
-      <c r="B36" s="107"/>
-      <c r="C36" s="100"/>
+      <c r="A36" s="107"/>
+      <c r="B36" s="110"/>
+      <c r="C36" s="116"/>
       <c r="D36" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="30" t="s">
         <v>23</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>24</v>
       </c>
       <c r="F36" s="30"/>
       <c r="G36" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H36" s="30">
         <v>240</v>
@@ -2465,18 +2473,18 @@
       <c r="P36" s="30"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37" s="103"/>
-      <c r="B37" s="107"/>
-      <c r="C37" s="100"/>
+      <c r="A37" s="107"/>
+      <c r="B37" s="110"/>
+      <c r="C37" s="116"/>
       <c r="D37" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="30" t="s">
         <v>23</v>
-      </c>
-      <c r="E37" s="30" t="s">
-        <v>24</v>
       </c>
       <c r="F37" s="30"/>
       <c r="G37" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H37" s="30">
         <v>84</v>
@@ -2504,18 +2512,18 @@
       <c r="P37" s="30"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="104"/>
-      <c r="B38" s="108"/>
-      <c r="C38" s="101"/>
+      <c r="A38" s="108"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="117"/>
       <c r="D38" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="32" t="s">
         <v>23</v>
-      </c>
-      <c r="E38" s="32" t="s">
-        <v>24</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H38" s="32">
         <v>240</v>
@@ -2527,7 +2535,7 @@
         <f t="shared" si="6"/>
         <v>109200000</v>
       </c>
-      <c r="K38" s="118">
+      <c r="K38" s="79">
         <v>0.5</v>
       </c>
       <c r="L38" s="33">
@@ -2543,15 +2551,15 @@
       <c r="P38" s="32"/>
     </row>
     <row r="39" spans="1:22" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="82" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="82"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="82"/>
+      <c r="A39" s="127" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="127"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="127"/>
+      <c r="F39" s="127"/>
+      <c r="G39" s="127"/>
       <c r="H39" s="44">
         <f>SUM(H31:H38)</f>
         <v>1464</v>
@@ -2575,15 +2583,15 @@
       <c r="P39" s="44"/>
     </row>
     <row r="40" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="84"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="84"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="85"/>
+      <c r="A40" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="94"/>
+      <c r="C40" s="94"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="94"/>
+      <c r="G40" s="95"/>
       <c r="H40" s="48">
         <f>H30+H22+H12+H39</f>
         <v>2778</v>
@@ -2611,19 +2619,16 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="C23:C29"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A22:G22"/>
     <mergeCell ref="A39:G39"/>
     <mergeCell ref="A31:A38"/>
     <mergeCell ref="B31:B38"/>
     <mergeCell ref="C31:C38"/>
     <mergeCell ref="A13:A21"/>
     <mergeCell ref="B13:B21"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="C13:C21"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="C23:C29"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A22:G22"/>
     <mergeCell ref="A30:G30"/>
     <mergeCell ref="A40:G40"/>
     <mergeCell ref="A3:P3"/>
@@ -2638,6 +2643,9 @@
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="C13:C21"/>
+    <mergeCell ref="A23:A29"/>
   </mergeCells>
   <pageMargins left="0.17" right="0.2" top="0.45" bottom="0.32" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -2646,10 +2654,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2663,8 +2671,10 @@
     <col min="12" max="12" width="14.42578125" customWidth="1"/>
     <col min="13" max="13" width="5.28515625" customWidth="1"/>
     <col min="14" max="14" width="5" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" customWidth="1"/>
-    <col min="19" max="19" width="16.140625" style="132" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" style="88" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2674,7 +2684,7 @@
       </c>
       <c r="B1" s="51"/>
       <c r="I1" s="53"/>
-      <c r="S1" s="129"/>
+      <c r="S1" s="85"/>
     </row>
     <row r="2" spans="1:21" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
@@ -2682,28 +2692,28 @@
       </c>
       <c r="B2" s="51"/>
       <c r="I2" s="53"/>
-      <c r="S2" s="129"/>
+      <c r="S2" s="85"/>
     </row>
     <row r="3" spans="1:21" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="97"/>
-      <c r="S3" s="129"/>
+      <c r="A3" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="132"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="132"/>
+      <c r="P3" s="132"/>
+      <c r="S3" s="85"/>
     </row>
     <row r="4" spans="1:21" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="76"/>
@@ -2717,97 +2727,97 @@
       <c r="S4" s="76"/>
     </row>
     <row r="5" spans="1:21" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="99" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="90" t="s">
+      <c r="C5" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="D5" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="89" t="s">
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="91" t="s">
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="93" t="s">
+      <c r="M5" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="94" t="s">
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="95" t="s">
+      <c r="S5" s="86"/>
+    </row>
+    <row r="6" spans="1:21" s="15" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="S5" s="130"/>
-    </row>
-    <row r="6" spans="1:21" s="15" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="89"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="16" t="s">
+      <c r="E6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="F6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="G6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="H6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="I6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="J6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="K6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="L6" s="103"/>
+      <c r="M6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="93"/>
-      <c r="M6" s="19" t="s">
+      <c r="N6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="O6" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="P6" s="95"/>
-      <c r="S6" s="130"/>
+      <c r="P6" s="105"/>
+      <c r="S6" s="86"/>
       <c r="U6" s="4"/>
     </row>
     <row r="7" spans="1:21" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="102"/>
-      <c r="B7" s="106">
+      <c r="A7" s="106"/>
+      <c r="B7" s="109">
         <v>43881</v>
       </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102" t="s">
+      <c r="C7" s="106"/>
+      <c r="D7" s="106" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="102" t="s">
+      <c r="F7" s="106"/>
+      <c r="G7" s="22" t="s">
         <v>24</v>
-      </c>
-      <c r="F7" s="102"/>
-      <c r="G7" s="22" t="s">
-        <v>25</v>
       </c>
       <c r="H7" s="55">
         <f>8*12</f>
@@ -2837,14 +2847,14 @@
       <c r="S7" s="76"/>
     </row>
     <row r="8" spans="1:21" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="103"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
       <c r="G8" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H8" s="60">
         <f>8*12</f>
@@ -2874,14 +2884,14 @@
       <c r="S8" s="76"/>
     </row>
     <row r="9" spans="1:21" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="103"/>
-      <c r="B9" s="107"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
+      <c r="A9" s="107"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
       <c r="G9" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H9" s="60">
         <f>11*12</f>
@@ -2911,14 +2921,14 @@
       <c r="S9" s="76"/>
     </row>
     <row r="10" spans="1:21" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="103"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
+      <c r="A10" s="107"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
       <c r="G10" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H10" s="60">
         <f>9*12</f>
@@ -2948,14 +2958,14 @@
       <c r="S10" s="76"/>
     </row>
     <row r="11" spans="1:21" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="103"/>
-      <c r="B11" s="107"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
+      <c r="A11" s="107"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
       <c r="G11" s="41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H11" s="65">
         <f>7*12</f>
@@ -2985,20 +2995,20 @@
       <c r="S11" s="76"/>
     </row>
     <row r="12" spans="1:21" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="98"/>
-      <c r="B12" s="105">
+      <c r="A12" s="128"/>
+      <c r="B12" s="130">
         <v>44051</v>
       </c>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98" t="s">
+      <c r="C12" s="128"/>
+      <c r="D12" s="128" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="98" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="98"/>
+      <c r="F12" s="128"/>
       <c r="G12" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H12" s="55">
         <v>12</v>
@@ -3027,35 +3037,35 @@
       <c r="S12" s="76"/>
     </row>
     <row r="13" spans="1:21" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="119"/>
-      <c r="B13" s="120"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
+      <c r="A13" s="129"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
       <c r="G13" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="121">
+        <v>27</v>
+      </c>
+      <c r="H13" s="80">
         <v>12</v>
       </c>
       <c r="I13" s="33">
         <v>455000</v>
       </c>
-      <c r="J13" s="122">
+      <c r="J13" s="81">
         <f t="shared" si="1"/>
         <v>5460000</v>
       </c>
-      <c r="K13" s="123">
-        <v>0.5</v>
-      </c>
-      <c r="L13" s="122">
+      <c r="K13" s="82">
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="81">
         <f t="shared" si="2"/>
         <v>2730000</v>
       </c>
-      <c r="M13" s="124"/>
-      <c r="N13" s="124"/>
-      <c r="O13" s="125">
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="84">
         <f t="shared" si="0"/>
         <v>2730000</v>
       </c>
@@ -3063,15 +3073,15 @@
       <c r="S13" s="76"/>
     </row>
     <row r="14" spans="1:21" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
+      <c r="A14" s="127" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="127"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="127"/>
+      <c r="G14" s="127"/>
       <c r="H14" s="44">
         <f>SUM(H7:H13)</f>
         <v>540</v>
@@ -3093,7 +3103,7 @@
         <v>126090000</v>
       </c>
       <c r="P14" s="44"/>
-      <c r="S14" s="131"/>
+      <c r="S14" s="87"/>
     </row>
     <row r="15" spans="1:21" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="76"/>
@@ -3117,145 +3127,169 @@
       <c r="O16" s="8"/>
       <c r="S16" s="76"/>
     </row>
-    <row r="17" spans="2:20" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="72"/>
       <c r="E17" s="72"/>
       <c r="F17" s="72"/>
       <c r="G17" s="73"/>
-      <c r="H17" s="96">
+      <c r="H17" s="137">
         <f>'hàng nhập'!J40</f>
         <v>1322930000</v>
       </c>
-      <c r="I17" s="96"/>
+      <c r="I17" s="137"/>
       <c r="J17" s="8"/>
       <c r="K17" s="74"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
-      <c r="S17" s="136" t="s">
-        <v>50</v>
-      </c>
-      <c r="T17" s="136"/>
-    </row>
-    <row r="18" spans="2:20" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:18" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="76"/>
       <c r="C18" s="77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G18" s="75"/>
-      <c r="H18" s="96">
+      <c r="H18" s="137">
         <f>J14</f>
         <v>252180000</v>
       </c>
-      <c r="I18" s="96"/>
+      <c r="I18" s="137"/>
       <c r="J18" s="8"/>
       <c r="K18" s="74"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
-      <c r="S18" s="134">
-        <v>43659</v>
-      </c>
-      <c r="T18" s="135">
-        <v>150000000</v>
-      </c>
-    </row>
-    <row r="19" spans="2:20" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:18" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B19" s="76"/>
-      <c r="C19" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="126">
+      <c r="C19" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="137">
         <f>H17-H18</f>
         <v>1070750000</v>
       </c>
-      <c r="I19" s="126"/>
+      <c r="I19" s="137"/>
       <c r="J19" s="8"/>
       <c r="K19" s="74"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
-      <c r="S19" s="134">
-        <v>43675</v>
-      </c>
-      <c r="T19" s="135">
-        <v>67000000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C20" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="128">
+      <c r="Q19" s="136" t="s">
+        <v>49</v>
+      </c>
+      <c r="R19" s="136"/>
+    </row>
+    <row r="20" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C20" s="77" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="134">
         <f>H19*(1-50%)</f>
         <v>535375000</v>
       </c>
-      <c r="I20" s="127"/>
-      <c r="S20" s="134">
-        <v>44046</v>
-      </c>
-      <c r="T20" s="135">
-        <v>50000000</v>
-      </c>
-    </row>
-    <row r="21" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C21" s="4" t="s">
+      <c r="I20" s="135"/>
+      <c r="Q20" s="89">
+        <v>43659</v>
+      </c>
+      <c r="R20" s="90">
+        <v>150000000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C21" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="133">
+        <f>R20+R21+R22+R23</f>
+        <v>367000000</v>
+      </c>
+      <c r="I21" s="133"/>
+      <c r="Q21" s="89">
+        <v>43675</v>
+      </c>
+      <c r="R21" s="90">
+        <v>67000000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C22" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="133">
-        <f>T18+T19+T20+T21</f>
-        <v>367000000</v>
-      </c>
-      <c r="I21" s="133"/>
-      <c r="S21" s="134">
-        <v>44053</v>
-      </c>
-      <c r="T21" s="135">
-        <v>100000000</v>
-      </c>
-    </row>
-    <row r="22" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="137"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="137"/>
-      <c r="G22" s="137"/>
-      <c r="H22" s="138">
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="134">
         <f>H20-H21</f>
         <v>168375000</v>
       </c>
-      <c r="I22" s="139"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C23" s="137"/>
-      <c r="D23" s="137"/>
-      <c r="E23" s="137"/>
-      <c r="F23" s="137"/>
-      <c r="G23" s="137"/>
-      <c r="H23" s="137"/>
-      <c r="I23" s="137"/>
+      <c r="I22" s="135"/>
+      <c r="Q22" s="89">
+        <v>44046</v>
+      </c>
+      <c r="R22" s="90">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="91"/>
+      <c r="Q23" s="89">
+        <v>44053</v>
+      </c>
+      <c r="R23" s="90">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q24" s="138" t="s">
+        <v>52</v>
+      </c>
+      <c r="R24" s="139">
+        <f>SUM(R20:R23)</f>
+        <v>367000000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="29">
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="H22:I22"/>
-    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="Q19:R19"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="H17:I17"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -3263,23 +3297,20 @@
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:K5"/>
     <mergeCell ref="P5:P6"/>
-    <mergeCell ref="H18:I18"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:O5"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="B7:B11"/>
     <mergeCell ref="C7:C11"/>
     <mergeCell ref="D7:D11"/>
     <mergeCell ref="E7:E11"/>
-    <mergeCell ref="F7:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/CHỊ TUYẾT SÀI GÒN/công nợ chị tuyết TPHCM.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/CHỊ TUYẾT SÀI GÒN/công nợ chị tuyết TPHCM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
@@ -11,12 +11,12 @@
     <sheet name="hàng trả về" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="62">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -144,9 +144,6 @@
     <t>Như vậy:</t>
   </si>
   <si>
-    <t>Hàng trả lại  (2)</t>
-  </si>
-  <si>
     <t>Tổng sau 4 đợt nhập hàng</t>
   </si>
   <si>
@@ -156,15 +153,9 @@
     <t>Tổng cộng nhập hàng đợt 4</t>
   </si>
   <si>
-    <t>Tổng 4 lần nhập hàng (1)</t>
-  </si>
-  <si>
     <t>Chiết khấu 50%</t>
   </si>
   <si>
-    <t>Tổng doanh thu  (3) =  (1)-(2)</t>
-  </si>
-  <si>
     <t>Đã thanh toán</t>
   </si>
   <si>
@@ -174,20 +165,56 @@
     <t>BẢNG TỔNG HỢP CHỊ TUYẾT NHẬP HÀNG</t>
   </si>
   <si>
-    <t xml:space="preserve">Tổng </t>
+    <t>Đã chi Biển bảng kệ</t>
+  </si>
+  <si>
+    <t>Trước ngày 25/7 (chị Tuyết và anh Lâm đã thống nhất với nhau)</t>
+  </si>
+  <si>
+    <t>Tổng  nhập hàng</t>
+  </si>
+  <si>
+    <t>Đã thanh toán 13/7: 150 triệu</t>
+  </si>
+  <si>
+    <t>Đã thống nhất ký xác nhận</t>
+  </si>
+  <si>
+    <t>Ngày 25/7 nhập thêm đơn hàng hóa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tổng nhập hàng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nợ cũ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Như vậy, Chị Tuyết còn nợ công ty Nanomilk </t>
+  </si>
+  <si>
+    <t>Trả hàng (hàng chuyểnlinna)1 già, 1 tiểu đường</t>
+  </si>
+  <si>
+    <t>Trước 25/7</t>
+  </si>
+  <si>
+    <t>Sau 25/7</t>
+  </si>
+  <si>
+    <t>Tổng sau 25/7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,14 +295,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -289,6 +308,38 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -317,7 +368,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -485,13 +536,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -656,12 +769,8 @@
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -683,10 +792,57 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -726,71 +882,23 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -798,34 +906,107 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -837,6 +1018,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -885,7 +1069,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -920,7 +1104,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1131,14 +1315,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V44"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="76" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="73" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="4" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" style="4" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" style="4" customWidth="1"/>
@@ -1147,12 +1331,14 @@
     <col min="8" max="8" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" style="74" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" style="72" customWidth="1"/>
     <col min="12" max="12" width="28.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.5703125" style="8" customWidth="1"/>
     <col min="14" max="14" width="5.42578125" style="8" customWidth="1"/>
     <col min="15" max="15" width="16.7109375" style="8" customWidth="1"/>
-    <col min="16" max="21" width="9.140625" style="4"/>
+    <col min="16" max="18" width="9.140625" style="4"/>
+    <col min="19" max="19" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9.140625" style="4"/>
     <col min="22" max="22" width="19" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="9.140625" style="4"/>
   </cols>
@@ -1190,80 +1376,80 @@
       <c r="O2" s="13"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="96" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
+      <c r="A3" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="97"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
+      <c r="A4" s="108"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="108"/>
     </row>
     <row r="5" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="99" t="s">
+      <c r="D5" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="101" t="s">
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="103" t="s">
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="104" t="s">
+      <c r="M5" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="105" t="s">
+      <c r="N5" s="115"/>
+      <c r="O5" s="115"/>
+      <c r="P5" s="116" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:22" s="15" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="99"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="99"/>
+      <c r="A6" s="110"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="110"/>
       <c r="D6" s="16" t="s">
         <v>10</v>
       </c>
@@ -1288,7 +1474,7 @@
       <c r="K6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="103"/>
+      <c r="L6" s="114"/>
       <c r="M6" s="19" t="s">
         <v>18</v>
       </c>
@@ -1298,16 +1484,16 @@
       <c r="O6" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="105"/>
+      <c r="P6" s="116"/>
     </row>
     <row r="7" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="109">
+      <c r="B7" s="98">
         <v>43881</v>
       </c>
-      <c r="C7" s="112"/>
+      <c r="C7" s="117"/>
       <c r="D7" s="22" t="s">
         <v>22</v>
       </c>
@@ -1345,9 +1531,9 @@
       <c r="P7" s="24"/>
     </row>
     <row r="8" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="107"/>
-      <c r="B8" s="110"/>
-      <c r="C8" s="113"/>
+      <c r="A8" s="92"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="118"/>
       <c r="D8" s="22" t="s">
         <v>22</v>
       </c>
@@ -1385,9 +1571,9 @@
       <c r="P8" s="24"/>
     </row>
     <row r="9" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="107"/>
-      <c r="B9" s="110"/>
-      <c r="C9" s="113"/>
+      <c r="A9" s="92"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="118"/>
       <c r="D9" s="22" t="s">
         <v>22</v>
       </c>
@@ -1425,9 +1611,9 @@
       <c r="P9" s="24"/>
     </row>
     <row r="10" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="107"/>
-      <c r="B10" s="110"/>
-      <c r="C10" s="113"/>
+      <c r="A10" s="92"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="118"/>
       <c r="D10" s="22" t="s">
         <v>22</v>
       </c>
@@ -1465,9 +1651,9 @@
       <c r="P10" s="24"/>
     </row>
     <row r="11" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="108"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="114"/>
+      <c r="A11" s="93"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="119"/>
       <c r="D11" s="22" t="s">
         <v>22</v>
       </c>
@@ -1505,15 +1691,15 @@
       <c r="P11" s="24"/>
     </row>
     <row r="12" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="124" t="s">
+      <c r="A12" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="125"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="126"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="96"/>
       <c r="H12" s="34">
         <f>SUM(H7:H11)</f>
         <v>720</v>
@@ -1537,13 +1723,13 @@
       <c r="P12" s="24"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="109">
+      <c r="B13" s="98">
         <v>43915</v>
       </c>
-      <c r="C13" s="115"/>
+      <c r="C13" s="101"/>
       <c r="D13" s="22" t="s">
         <v>22</v>
       </c>
@@ -1580,9 +1766,9 @@
       <c r="P13" s="22"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="107"/>
-      <c r="B14" s="110"/>
-      <c r="C14" s="116"/>
+      <c r="A14" s="92"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="102"/>
       <c r="D14" s="30" t="s">
         <v>22</v>
       </c>
@@ -1619,9 +1805,9 @@
       <c r="P14" s="30"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="107"/>
-      <c r="B15" s="110"/>
-      <c r="C15" s="116"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="102"/>
       <c r="D15" s="30" t="s">
         <v>22</v>
       </c>
@@ -1658,9 +1844,9 @@
       <c r="P15" s="30"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="107"/>
-      <c r="B16" s="110"/>
-      <c r="C16" s="116"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="102"/>
       <c r="D16" s="30" t="s">
         <v>22</v>
       </c>
@@ -1695,12 +1881,12 @@
         <v>8245000</v>
       </c>
       <c r="P16" s="30"/>
-      <c r="V16" s="78"/>
+      <c r="V16" s="74"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="107"/>
-      <c r="B17" s="110"/>
-      <c r="C17" s="116"/>
+      <c r="A17" s="92"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="102"/>
       <c r="D17" s="30" t="s">
         <v>22</v>
       </c>
@@ -1738,9 +1924,9 @@
       <c r="V17" s="8"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="107"/>
-      <c r="B18" s="110"/>
-      <c r="C18" s="116"/>
+      <c r="A18" s="92"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="102"/>
       <c r="D18" s="30" t="s">
         <v>22</v>
       </c>
@@ -1777,9 +1963,9 @@
       <c r="P18" s="30"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="107"/>
-      <c r="B19" s="110"/>
-      <c r="C19" s="116"/>
+      <c r="A19" s="92"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="102"/>
       <c r="D19" s="30" t="s">
         <v>22</v>
       </c>
@@ -1816,9 +2002,9 @@
       <c r="P19" s="30"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="107"/>
-      <c r="B20" s="110"/>
-      <c r="C20" s="116"/>
+      <c r="A20" s="92"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="102"/>
       <c r="D20" s="30" t="s">
         <v>22</v>
       </c>
@@ -1855,9 +2041,9 @@
       <c r="P20" s="30"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="108"/>
-      <c r="B21" s="111"/>
-      <c r="C21" s="117"/>
+      <c r="A21" s="93"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="103"/>
       <c r="D21" s="41" t="s">
         <v>22</v>
       </c>
@@ -1894,15 +2080,15 @@
       <c r="P21" s="41"/>
     </row>
     <row r="22" spans="1:22" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="124" t="s">
+      <c r="A22" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="125"/>
-      <c r="C22" s="125"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="126"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="96"/>
       <c r="H22" s="44">
         <f>SUM(H13:H21)</f>
         <v>306</v>
@@ -1926,13 +2112,13 @@
       <c r="P22" s="44"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="118" t="s">
+      <c r="A23" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="121">
+      <c r="B23" s="88">
         <v>43916</v>
       </c>
-      <c r="C23" s="106"/>
+      <c r="C23" s="91"/>
       <c r="D23" s="22" t="s">
         <v>22</v>
       </c>
@@ -1969,9 +2155,9 @@
       <c r="P23" s="22"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="119"/>
-      <c r="B24" s="122"/>
-      <c r="C24" s="107"/>
+      <c r="A24" s="121"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="92"/>
       <c r="D24" s="30" t="s">
         <v>22</v>
       </c>
@@ -2008,9 +2194,9 @@
       <c r="P24" s="30"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="119"/>
-      <c r="B25" s="122"/>
-      <c r="C25" s="107"/>
+      <c r="A25" s="121"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="92"/>
       <c r="D25" s="30" t="s">
         <v>22</v>
       </c>
@@ -2047,9 +2233,9 @@
       <c r="P25" s="30"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="119"/>
-      <c r="B26" s="122"/>
-      <c r="C26" s="107"/>
+      <c r="A26" s="121"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="92"/>
       <c r="D26" s="30" t="s">
         <v>22</v>
       </c>
@@ -2086,9 +2272,9 @@
       <c r="P26" s="30"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="119"/>
-      <c r="B27" s="122"/>
-      <c r="C27" s="107"/>
+      <c r="A27" s="121"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="92"/>
       <c r="D27" s="30" t="s">
         <v>22</v>
       </c>
@@ -2125,9 +2311,9 @@
       <c r="P27" s="30"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="119"/>
-      <c r="B28" s="122"/>
-      <c r="C28" s="107"/>
+      <c r="A28" s="121"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="92"/>
       <c r="D28" s="30" t="s">
         <v>22</v>
       </c>
@@ -2162,11 +2348,15 @@
         <v>8190000</v>
       </c>
       <c r="P28" s="30"/>
+      <c r="S28" s="74">
+        <f>J12+J22+J30</f>
+        <v>620810000</v>
+      </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="120"/>
-      <c r="B29" s="123"/>
-      <c r="C29" s="108"/>
+      <c r="A29" s="122"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="93"/>
       <c r="D29" s="32" t="s">
         <v>22</v>
       </c>
@@ -2201,17 +2391,21 @@
         <v>8190000</v>
       </c>
       <c r="P29" s="32"/>
+      <c r="S29" s="74">
+        <f>S28/2</f>
+        <v>310405000</v>
+      </c>
     </row>
     <row r="30" spans="1:22" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="127" t="s">
+      <c r="A30" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="127"/>
-      <c r="C30" s="127"/>
-      <c r="D30" s="127"/>
-      <c r="E30" s="127"/>
-      <c r="F30" s="127"/>
-      <c r="G30" s="127"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="97"/>
       <c r="H30" s="44">
         <f>SUM(H23:H29)</f>
         <v>288</v>
@@ -2235,13 +2429,13 @@
       <c r="P30" s="44"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="106" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="109">
+      <c r="A31" s="91" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="98">
         <v>44032</v>
       </c>
-      <c r="C31" s="115"/>
+      <c r="C31" s="101"/>
       <c r="D31" s="22" t="s">
         <v>22</v>
       </c>
@@ -2278,9 +2472,9 @@
       <c r="P31" s="22"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="107"/>
-      <c r="B32" s="110"/>
-      <c r="C32" s="116"/>
+      <c r="A32" s="92"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="102"/>
       <c r="D32" s="30" t="s">
         <v>22</v>
       </c>
@@ -2317,9 +2511,9 @@
       <c r="P32" s="30"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="107"/>
-      <c r="B33" s="110"/>
-      <c r="C33" s="116"/>
+      <c r="A33" s="92"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="102"/>
       <c r="D33" s="30" t="s">
         <v>22</v>
       </c>
@@ -2356,9 +2550,9 @@
       <c r="P33" s="30"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" s="107"/>
-      <c r="B34" s="110"/>
-      <c r="C34" s="116"/>
+      <c r="A34" s="92"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="102"/>
       <c r="D34" s="30" t="s">
         <v>22</v>
       </c>
@@ -2395,9 +2589,9 @@
       <c r="P34" s="30"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="107"/>
-      <c r="B35" s="110"/>
-      <c r="C35" s="116"/>
+      <c r="A35" s="92"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="102"/>
       <c r="D35" s="30" t="s">
         <v>22</v>
       </c>
@@ -2434,9 +2628,9 @@
       <c r="P35" s="30"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="107"/>
-      <c r="B36" s="110"/>
-      <c r="C36" s="116"/>
+      <c r="A36" s="92"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="102"/>
       <c r="D36" s="30" t="s">
         <v>22</v>
       </c>
@@ -2473,9 +2667,9 @@
       <c r="P36" s="30"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37" s="107"/>
-      <c r="B37" s="110"/>
-      <c r="C37" s="116"/>
+      <c r="A37" s="92"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="102"/>
       <c r="D37" s="30" t="s">
         <v>22</v>
       </c>
@@ -2512,9 +2706,9 @@
       <c r="P37" s="30"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="108"/>
-      <c r="B38" s="111"/>
-      <c r="C38" s="117"/>
+      <c r="A38" s="93"/>
+      <c r="B38" s="100"/>
+      <c r="C38" s="103"/>
       <c r="D38" s="32" t="s">
         <v>22</v>
       </c>
@@ -2535,7 +2729,7 @@
         <f t="shared" si="6"/>
         <v>109200000</v>
       </c>
-      <c r="K38" s="79">
+      <c r="K38" s="75">
         <v>0.5</v>
       </c>
       <c r="L38" s="33">
@@ -2551,15 +2745,15 @@
       <c r="P38" s="32"/>
     </row>
     <row r="39" spans="1:22" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="127" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="127"/>
-      <c r="C39" s="127"/>
-      <c r="D39" s="127"/>
-      <c r="E39" s="127"/>
-      <c r="F39" s="127"/>
-      <c r="G39" s="127"/>
+      <c r="A39" s="97" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="97"/>
+      <c r="C39" s="97"/>
+      <c r="D39" s="97"/>
+      <c r="E39" s="97"/>
+      <c r="F39" s="97"/>
+      <c r="G39" s="97"/>
       <c r="H39" s="44">
         <f>SUM(H31:H38)</f>
         <v>1464</v>
@@ -2583,15 +2777,15 @@
       <c r="P39" s="44"/>
     </row>
     <row r="40" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="94"/>
-      <c r="C40" s="94"/>
-      <c r="D40" s="94"/>
-      <c r="E40" s="94"/>
-      <c r="F40" s="94"/>
-      <c r="G40" s="95"/>
+      <c r="A40" s="104" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="105"/>
+      <c r="C40" s="105"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="106"/>
       <c r="H40" s="48">
         <f>H30+H22+H12+H39</f>
         <v>2778</v>
@@ -2619,17 +2813,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="C23:C29"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="A31:A38"/>
-    <mergeCell ref="B31:B38"/>
-    <mergeCell ref="C31:C38"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="B13:B21"/>
-    <mergeCell ref="A30:G30"/>
     <mergeCell ref="A40:G40"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="A4:O4"/>
@@ -2646,6 +2829,17 @@
     <mergeCell ref="C7:C11"/>
     <mergeCell ref="C13:C21"/>
     <mergeCell ref="A23:A29"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="C23:C29"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A31:A38"/>
+    <mergeCell ref="B31:B38"/>
+    <mergeCell ref="C31:C38"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="B13:B21"/>
+    <mergeCell ref="A30:G30"/>
   </mergeCells>
   <pageMargins left="0.17" right="0.2" top="0.45" bottom="0.32" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -2654,16 +2848,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U24"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.42578125" customWidth="1"/>
@@ -2674,7 +2870,7 @@
     <col min="15" max="15" width="17.7109375" customWidth="1"/>
     <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" style="84" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2684,7 +2880,7 @@
       </c>
       <c r="B1" s="51"/>
       <c r="I1" s="53"/>
-      <c r="S1" s="85"/>
+      <c r="S1" s="81"/>
     </row>
     <row r="2" spans="1:21" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
@@ -2692,79 +2888,79 @@
       </c>
       <c r="B2" s="51"/>
       <c r="I2" s="53"/>
-      <c r="S2" s="85"/>
+      <c r="S2" s="81"/>
     </row>
     <row r="3" spans="1:21" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="132"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="132"/>
-      <c r="M3" s="132"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="132"/>
-      <c r="P3" s="132"/>
-      <c r="S3" s="85"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="S3" s="81"/>
     </row>
     <row r="4" spans="1:21" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="76"/>
+      <c r="B4" s="73"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="74"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
-      <c r="S4" s="76"/>
+      <c r="S4" s="73"/>
     </row>
     <row r="5" spans="1:21" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="99" t="s">
+      <c r="D5" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="101" t="s">
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="103" t="s">
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="104" t="s">
+      <c r="M5" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="105" t="s">
+      <c r="N5" s="115"/>
+      <c r="O5" s="115"/>
+      <c r="P5" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="S5" s="86"/>
+      <c r="S5" s="82"/>
     </row>
     <row r="6" spans="1:21" s="15" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="99"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="99"/>
+      <c r="A6" s="110"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="110"/>
       <c r="D6" s="16" t="s">
         <v>10</v>
       </c>
@@ -2789,7 +2985,7 @@
       <c r="K6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="103"/>
+      <c r="L6" s="114"/>
       <c r="M6" s="19" t="s">
         <v>18</v>
       </c>
@@ -2799,23 +2995,23 @@
       <c r="O6" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="105"/>
-      <c r="S6" s="86"/>
+      <c r="P6" s="116"/>
+      <c r="S6" s="82"/>
       <c r="U6" s="4"/>
     </row>
-    <row r="7" spans="1:21" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="106"/>
-      <c r="B7" s="109">
+    <row r="7" spans="1:21" s="4" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="91"/>
+      <c r="B7" s="98">
         <v>43881</v>
       </c>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106" t="s">
+      <c r="C7" s="91"/>
+      <c r="D7" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="106" t="s">
+      <c r="E7" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="106"/>
+      <c r="F7" s="91"/>
       <c r="G7" s="22" t="s">
         <v>24</v>
       </c>
@@ -2844,15 +3040,15 @@
         <v>23280000</v>
       </c>
       <c r="P7" s="22"/>
-      <c r="S7" s="76"/>
-    </row>
-    <row r="8" spans="1:21" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="107"/>
-      <c r="B8" s="110"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
+      <c r="S7" s="73"/>
+    </row>
+    <row r="8" spans="1:21" s="4" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="92"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
       <c r="G8" s="30" t="s">
         <v>25</v>
       </c>
@@ -2881,15 +3077,15 @@
         <v>22320000</v>
       </c>
       <c r="P8" s="30"/>
-      <c r="S8" s="76"/>
-    </row>
-    <row r="9" spans="1:21" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="107"/>
-      <c r="B9" s="110"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
+      <c r="S8" s="73"/>
+    </row>
+    <row r="9" spans="1:21" s="4" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="92"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
       <c r="G9" s="30" t="s">
         <v>26</v>
       </c>
@@ -2918,15 +3114,15 @@
         <v>31350000</v>
       </c>
       <c r="P9" s="30"/>
-      <c r="S9" s="76"/>
-    </row>
-    <row r="10" spans="1:21" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="107"/>
-      <c r="B10" s="110"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
+      <c r="S9" s="73"/>
+    </row>
+    <row r="10" spans="1:21" s="4" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="92"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
       <c r="G10" s="30" t="s">
         <v>27</v>
       </c>
@@ -2955,15 +3151,15 @@
         <v>24570000</v>
       </c>
       <c r="P10" s="30"/>
-      <c r="S10" s="76"/>
-    </row>
-    <row r="11" spans="1:21" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="107"/>
-      <c r="B11" s="110"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
+      <c r="S10" s="73"/>
+    </row>
+    <row r="11" spans="1:21" s="4" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="92"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
       <c r="G11" s="41" t="s">
         <v>28</v>
       </c>
@@ -2992,21 +3188,21 @@
         <v>19110000</v>
       </c>
       <c r="P11" s="41"/>
-      <c r="S11" s="76"/>
+      <c r="S11" s="73"/>
     </row>
     <row r="12" spans="1:21" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="128"/>
-      <c r="B12" s="130">
+      <c r="A12" s="123"/>
+      <c r="B12" s="126">
         <v>44051</v>
       </c>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128" t="s">
+      <c r="C12" s="123"/>
+      <c r="D12" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="128" t="s">
+      <c r="E12" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="128"/>
+      <c r="F12" s="123"/>
       <c r="G12" s="22" t="s">
         <v>28</v>
       </c>
@@ -3034,54 +3230,54 @@
         <v>2730000</v>
       </c>
       <c r="P12" s="22"/>
-      <c r="S12" s="76"/>
+      <c r="S12" s="73"/>
     </row>
     <row r="13" spans="1:21" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="129"/>
-      <c r="B13" s="131"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
+      <c r="A13" s="124"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="124"/>
       <c r="G13" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="80">
+      <c r="H13" s="76">
         <v>12</v>
       </c>
       <c r="I13" s="33">
         <v>455000</v>
       </c>
-      <c r="J13" s="81">
+      <c r="J13" s="77">
         <f t="shared" si="1"/>
         <v>5460000</v>
       </c>
-      <c r="K13" s="82">
+      <c r="K13" s="78">
         <v>0.5</v>
       </c>
-      <c r="L13" s="81">
+      <c r="L13" s="77">
         <f t="shared" si="2"/>
         <v>2730000</v>
       </c>
-      <c r="M13" s="83"/>
-      <c r="N13" s="83"/>
-      <c r="O13" s="84">
+      <c r="M13" s="79"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="80">
         <f t="shared" si="0"/>
         <v>2730000</v>
       </c>
       <c r="P13" s="32"/>
-      <c r="S13" s="76"/>
+      <c r="S13" s="73"/>
     </row>
     <row r="14" spans="1:21" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="127" t="s">
+      <c r="A14" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="127"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="127"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="127"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
       <c r="H14" s="44">
         <f>SUM(H7:H13)</f>
         <v>540</v>
@@ -3103,193 +3299,342 @@
         <v>126090000</v>
       </c>
       <c r="P14" s="44"/>
-      <c r="S14" s="87"/>
+      <c r="S14" s="83"/>
     </row>
     <row r="15" spans="1:21" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="76"/>
+      <c r="B15" s="73"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="74"/>
+      <c r="K15" s="72"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
-      <c r="S15" s="76"/>
+      <c r="S15" s="73"/>
     </row>
     <row r="16" spans="1:21" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="76"/>
+      <c r="B16" s="71" t="s">
+        <v>41</v>
+      </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
-      <c r="K16" s="74"/>
+      <c r="K16" s="72"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
-      <c r="S16" s="76"/>
-    </row>
-    <row r="17" spans="2:18" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S16" s="73"/>
+    </row>
+    <row r="17" spans="2:19" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="72" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="137">
-        <f>'hàng nhập'!J40</f>
-        <v>1322930000</v>
-      </c>
-      <c r="I17" s="137"/>
+        <v>50</v>
+      </c>
+      <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="74"/>
+      <c r="K17" s="72"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
-    </row>
-    <row r="18" spans="2:18" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="76"/>
-      <c r="C18" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="75"/>
-      <c r="H18" s="137">
-        <f>J14</f>
-        <v>252180000</v>
-      </c>
-      <c r="I18" s="137"/>
+      <c r="S17" s="73"/>
+    </row>
+    <row r="18" spans="2:19" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C18" s="146" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="147"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="148"/>
+      <c r="H18" s="129">
+        <f>'hàng nhập'!J12+'hàng nhập'!J22+'hàng nhập'!J30</f>
+        <v>620810000</v>
+      </c>
+      <c r="I18" s="129"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="74"/>
+      <c r="K18" s="72"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
     </row>
-    <row r="19" spans="2:18" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B19" s="76"/>
-      <c r="C19" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="137">
-        <f>H17-H18</f>
-        <v>1070750000</v>
-      </c>
-      <c r="I19" s="137"/>
+    <row r="19" spans="2:19" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B19" s="73"/>
+      <c r="C19" s="142" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="143"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="144"/>
+      <c r="H19" s="130">
+        <f>H18/2</f>
+        <v>310405000</v>
+      </c>
+      <c r="I19" s="131"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="74"/>
+      <c r="K19" s="72"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
-      <c r="Q19" s="136" t="s">
+      <c r="Q19" s="160" t="s">
+        <v>46</v>
+      </c>
+      <c r="R19" s="160"/>
+    </row>
+    <row r="20" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C20" s="142" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="132">
+        <v>150000000</v>
+      </c>
+      <c r="I20" s="132"/>
+      <c r="P20" s="161" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q20" s="161"/>
+    </row>
+    <row r="21" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C21" s="142" t="s">
         <v>49</v>
       </c>
-      <c r="R19" s="136"/>
-    </row>
-    <row r="20" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C20" s="77" t="s">
+      <c r="D21" s="143"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="143"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="132">
+        <f>H19-H20-H22</f>
+        <v>62625000</v>
+      </c>
+      <c r="I21" s="132"/>
+      <c r="Q21" s="85">
+        <v>43659</v>
+      </c>
+      <c r="R21" s="86">
+        <v>150000000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="134">
-        <f>H19*(1-50%)</f>
-        <v>535375000</v>
-      </c>
-      <c r="I20" s="135"/>
-      <c r="Q20" s="89">
-        <v>43659</v>
-      </c>
-      <c r="R20" s="90">
-        <v>150000000</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C21" s="77" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="133">
-        <f>R20+R21+R22+R23</f>
-        <v>367000000</v>
-      </c>
-      <c r="I21" s="133"/>
-      <c r="Q21" s="89">
+      <c r="D22" s="143"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="143"/>
+      <c r="G22" s="144"/>
+      <c r="H22" s="130">
+        <v>97780000</v>
+      </c>
+      <c r="I22" s="131"/>
+      <c r="J22" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="K22" s="154"/>
+      <c r="L22" s="154"/>
+      <c r="P22" s="161" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q22" s="161"/>
+    </row>
+    <row r="23" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="Q23" s="85">
         <v>43675</v>
       </c>
-      <c r="R21" s="90">
+      <c r="R23" s="86">
         <v>67000000</v>
       </c>
     </row>
-    <row r="22" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C22" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="134">
-        <f>H20-H21</f>
-        <v>168375000</v>
-      </c>
-      <c r="I22" s="135"/>
-      <c r="Q22" s="89">
+    <row r="24" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q24" s="85">
         <v>44046</v>
       </c>
-      <c r="R22" s="90">
+      <c r="R24" s="86">
         <v>50000000</v>
       </c>
     </row>
-    <row r="23" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="91"/>
-      <c r="Q23" s="89">
+    <row r="25" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C25" s="142" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="143"/>
+      <c r="E25" s="143"/>
+      <c r="F25" s="143"/>
+      <c r="G25" s="144"/>
+      <c r="H25" s="129">
+        <f>'hàng nhập'!J39</f>
+        <v>702120000</v>
+      </c>
+      <c r="I25" s="129"/>
+      <c r="Q25" s="85">
         <v>44053</v>
       </c>
-      <c r="R23" s="90">
+      <c r="R25" s="86">
         <v>100000000</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="Q24" s="138" t="s">
-        <v>52</v>
-      </c>
-      <c r="R24" s="139">
-        <f>SUM(R20:R23)</f>
-        <v>367000000</v>
-      </c>
+    <row r="26" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C26" s="142" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="143"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="144"/>
+      <c r="H26" s="130">
+        <f>H25/2</f>
+        <v>351060000</v>
+      </c>
+      <c r="I26" s="131"/>
+      <c r="R26" s="86">
+        <v>200000000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C27" s="142" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="143"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="144"/>
+      <c r="H27" s="132">
+        <v>97780000</v>
+      </c>
+      <c r="I27" s="132"/>
+      <c r="Q27" s="158" t="s">
+        <v>61</v>
+      </c>
+      <c r="R27" s="159">
+        <f>R23+R24+R25+R26</f>
+        <v>417000000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="145" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="135">
+        <v>44041</v>
+      </c>
+      <c r="E28" s="133">
+        <v>67000000</v>
+      </c>
+      <c r="F28" s="134"/>
+      <c r="G28" s="128"/>
+      <c r="H28" s="136">
+        <f>E28+E29+E30+E31</f>
+        <v>417000000</v>
+      </c>
+      <c r="I28" s="137"/>
+    </row>
+    <row r="29" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="145"/>
+      <c r="D29" s="135">
+        <v>44015</v>
+      </c>
+      <c r="E29" s="133">
+        <v>50000000</v>
+      </c>
+      <c r="F29" s="134"/>
+      <c r="G29" s="128"/>
+      <c r="H29" s="138"/>
+      <c r="I29" s="139"/>
+    </row>
+    <row r="30" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="145"/>
+      <c r="D30" s="135">
+        <v>44053</v>
+      </c>
+      <c r="E30" s="133">
+        <v>100000000</v>
+      </c>
+      <c r="F30" s="134"/>
+      <c r="G30" s="128"/>
+      <c r="H30" s="138"/>
+      <c r="I30" s="139"/>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C31" s="145"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="133">
+        <v>200000000</v>
+      </c>
+      <c r="F31" s="134"/>
+      <c r="G31" s="128"/>
+      <c r="H31" s="140"/>
+      <c r="I31" s="141"/>
+    </row>
+    <row r="32" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C32" s="149" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="151"/>
+      <c r="H32" s="152">
+        <f>L12+L13</f>
+        <v>5460000</v>
+      </c>
+      <c r="I32" s="153"/>
+    </row>
+    <row r="33" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C33" s="155" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="156"/>
+      <c r="E33" s="156"/>
+      <c r="F33" s="156"/>
+      <c r="G33" s="156"/>
+      <c r="H33" s="157">
+        <f>H26+H27-H28-H32</f>
+        <v>26380000</v>
+      </c>
+      <c r="I33" s="157"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="H17:I17"/>
+  <mergeCells count="51">
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I31"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="E7:E11"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -3299,15 +3644,20 @@
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:O5"/>
-    <mergeCell ref="F7:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C20:G20"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/CHỊ TUYẾT SÀI GÒN/công nợ chị tuyết TPHCM.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/CHỊ TUYẾT SÀI GÒN/công nợ chị tuyết TPHCM.xlsx
@@ -795,13 +795,51 @@
     <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -813,6 +851,51 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -825,80 +908,83 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -906,105 +992,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1376,80 +1376,80 @@
       <c r="O2" s="13"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="107"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="108"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="109"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="108"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="108"/>
+      <c r="A4" s="98"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
     </row>
     <row r="5" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="110" t="s">
+      <c r="D5" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="112" t="s">
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="113"/>
-      <c r="L5" s="114" t="s">
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="115" t="s">
+      <c r="M5" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="116" t="s">
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="106" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:22" s="15" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="110"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="110"/>
+      <c r="A6" s="100"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="100"/>
       <c r="D6" s="16" t="s">
         <v>10</v>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="K6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="114"/>
+      <c r="L6" s="104"/>
       <c r="M6" s="19" t="s">
         <v>18</v>
       </c>
@@ -1484,16 +1484,16 @@
       <c r="O6" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="116"/>
+      <c r="P6" s="106"/>
     </row>
     <row r="7" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="98">
+      <c r="B7" s="110">
         <v>43881</v>
       </c>
-      <c r="C7" s="117"/>
+      <c r="C7" s="113"/>
       <c r="D7" s="22" t="s">
         <v>22</v>
       </c>
@@ -1531,9 +1531,9 @@
       <c r="P7" s="24"/>
     </row>
     <row r="8" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="92"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="118"/>
+      <c r="A8" s="108"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="114"/>
       <c r="D8" s="22" t="s">
         <v>22</v>
       </c>
@@ -1571,9 +1571,9 @@
       <c r="P8" s="24"/>
     </row>
     <row r="9" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="92"/>
-      <c r="B9" s="99"/>
-      <c r="C9" s="118"/>
+      <c r="A9" s="108"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="114"/>
       <c r="D9" s="22" t="s">
         <v>22</v>
       </c>
@@ -1611,9 +1611,9 @@
       <c r="P9" s="24"/>
     </row>
     <row r="10" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="92"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="118"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="114"/>
       <c r="D10" s="22" t="s">
         <v>22</v>
       </c>
@@ -1651,9 +1651,9 @@
       <c r="P10" s="24"/>
     </row>
     <row r="11" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="93"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="119"/>
+      <c r="A11" s="109"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="115"/>
       <c r="D11" s="22" t="s">
         <v>22</v>
       </c>
@@ -1691,15 +1691,15 @@
       <c r="P11" s="24"/>
     </row>
     <row r="12" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="94" t="s">
+      <c r="A12" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="96"/>
+      <c r="B12" s="126"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="127"/>
       <c r="H12" s="34">
         <f>SUM(H7:H11)</f>
         <v>720</v>
@@ -1723,13 +1723,13 @@
       <c r="P12" s="24"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="98">
+      <c r="B13" s="110">
         <v>43915</v>
       </c>
-      <c r="C13" s="101"/>
+      <c r="C13" s="116"/>
       <c r="D13" s="22" t="s">
         <v>22</v>
       </c>
@@ -1766,9 +1766,9 @@
       <c r="P13" s="22"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="92"/>
-      <c r="B14" s="99"/>
-      <c r="C14" s="102"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="117"/>
       <c r="D14" s="30" t="s">
         <v>22</v>
       </c>
@@ -1805,9 +1805,9 @@
       <c r="P14" s="30"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="92"/>
-      <c r="B15" s="99"/>
-      <c r="C15" s="102"/>
+      <c r="A15" s="108"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="117"/>
       <c r="D15" s="30" t="s">
         <v>22</v>
       </c>
@@ -1844,9 +1844,9 @@
       <c r="P15" s="30"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="92"/>
-      <c r="B16" s="99"/>
-      <c r="C16" s="102"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="117"/>
       <c r="D16" s="30" t="s">
         <v>22</v>
       </c>
@@ -1884,9 +1884,9 @@
       <c r="V16" s="74"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="92"/>
-      <c r="B17" s="99"/>
-      <c r="C17" s="102"/>
+      <c r="A17" s="108"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="117"/>
       <c r="D17" s="30" t="s">
         <v>22</v>
       </c>
@@ -1924,9 +1924,9 @@
       <c r="V17" s="8"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="92"/>
-      <c r="B18" s="99"/>
-      <c r="C18" s="102"/>
+      <c r="A18" s="108"/>
+      <c r="B18" s="111"/>
+      <c r="C18" s="117"/>
       <c r="D18" s="30" t="s">
         <v>22</v>
       </c>
@@ -1963,9 +1963,9 @@
       <c r="P18" s="30"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="92"/>
-      <c r="B19" s="99"/>
-      <c r="C19" s="102"/>
+      <c r="A19" s="108"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="117"/>
       <c r="D19" s="30" t="s">
         <v>22</v>
       </c>
@@ -2002,9 +2002,9 @@
       <c r="P19" s="30"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="92"/>
-      <c r="B20" s="99"/>
-      <c r="C20" s="102"/>
+      <c r="A20" s="108"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="117"/>
       <c r="D20" s="30" t="s">
         <v>22</v>
       </c>
@@ -2041,9 +2041,9 @@
       <c r="P20" s="30"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="93"/>
-      <c r="B21" s="100"/>
-      <c r="C21" s="103"/>
+      <c r="A21" s="109"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="118"/>
       <c r="D21" s="41" t="s">
         <v>22</v>
       </c>
@@ -2080,15 +2080,15 @@
       <c r="P21" s="41"/>
     </row>
     <row r="22" spans="1:22" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="94" t="s">
+      <c r="A22" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="96"/>
+      <c r="B22" s="126"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="127"/>
       <c r="H22" s="44">
         <f>SUM(H13:H21)</f>
         <v>306</v>
@@ -2112,13 +2112,13 @@
       <c r="P22" s="44"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="120" t="s">
+      <c r="A23" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="88">
+      <c r="B23" s="122">
         <v>43916</v>
       </c>
-      <c r="C23" s="91"/>
+      <c r="C23" s="107"/>
       <c r="D23" s="22" t="s">
         <v>22</v>
       </c>
@@ -2155,9 +2155,9 @@
       <c r="P23" s="22"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="121"/>
-      <c r="B24" s="89"/>
-      <c r="C24" s="92"/>
+      <c r="A24" s="120"/>
+      <c r="B24" s="123"/>
+      <c r="C24" s="108"/>
       <c r="D24" s="30" t="s">
         <v>22</v>
       </c>
@@ -2194,9 +2194,9 @@
       <c r="P24" s="30"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="121"/>
-      <c r="B25" s="89"/>
-      <c r="C25" s="92"/>
+      <c r="A25" s="120"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="108"/>
       <c r="D25" s="30" t="s">
         <v>22</v>
       </c>
@@ -2233,9 +2233,9 @@
       <c r="P25" s="30"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="121"/>
-      <c r="B26" s="89"/>
-      <c r="C26" s="92"/>
+      <c r="A26" s="120"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="108"/>
       <c r="D26" s="30" t="s">
         <v>22</v>
       </c>
@@ -2272,9 +2272,9 @@
       <c r="P26" s="30"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="121"/>
-      <c r="B27" s="89"/>
-      <c r="C27" s="92"/>
+      <c r="A27" s="120"/>
+      <c r="B27" s="123"/>
+      <c r="C27" s="108"/>
       <c r="D27" s="30" t="s">
         <v>22</v>
       </c>
@@ -2311,9 +2311,9 @@
       <c r="P27" s="30"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="121"/>
-      <c r="B28" s="89"/>
-      <c r="C28" s="92"/>
+      <c r="A28" s="120"/>
+      <c r="B28" s="123"/>
+      <c r="C28" s="108"/>
       <c r="D28" s="30" t="s">
         <v>22</v>
       </c>
@@ -2354,9 +2354,9 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="122"/>
-      <c r="B29" s="90"/>
-      <c r="C29" s="93"/>
+      <c r="A29" s="121"/>
+      <c r="B29" s="124"/>
+      <c r="C29" s="109"/>
       <c r="D29" s="32" t="s">
         <v>22</v>
       </c>
@@ -2397,15 +2397,15 @@
       </c>
     </row>
     <row r="30" spans="1:22" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="97" t="s">
+      <c r="A30" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="97"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="97"/>
-      <c r="G30" s="97"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="128"/>
+      <c r="G30" s="128"/>
       <c r="H30" s="44">
         <f>SUM(H23:H29)</f>
         <v>288</v>
@@ -2429,13 +2429,13 @@
       <c r="P30" s="44"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="91" t="s">
+      <c r="A31" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="98">
+      <c r="B31" s="110">
         <v>44032</v>
       </c>
-      <c r="C31" s="101"/>
+      <c r="C31" s="116"/>
       <c r="D31" s="22" t="s">
         <v>22</v>
       </c>
@@ -2472,9 +2472,9 @@
       <c r="P31" s="22"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="92"/>
-      <c r="B32" s="99"/>
-      <c r="C32" s="102"/>
+      <c r="A32" s="108"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="117"/>
       <c r="D32" s="30" t="s">
         <v>22</v>
       </c>
@@ -2511,9 +2511,9 @@
       <c r="P32" s="30"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="92"/>
-      <c r="B33" s="99"/>
-      <c r="C33" s="102"/>
+      <c r="A33" s="108"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="117"/>
       <c r="D33" s="30" t="s">
         <v>22</v>
       </c>
@@ -2550,9 +2550,9 @@
       <c r="P33" s="30"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" s="92"/>
-      <c r="B34" s="99"/>
-      <c r="C34" s="102"/>
+      <c r="A34" s="108"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="117"/>
       <c r="D34" s="30" t="s">
         <v>22</v>
       </c>
@@ -2589,9 +2589,9 @@
       <c r="P34" s="30"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="92"/>
-      <c r="B35" s="99"/>
-      <c r="C35" s="102"/>
+      <c r="A35" s="108"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="117"/>
       <c r="D35" s="30" t="s">
         <v>22</v>
       </c>
@@ -2628,9 +2628,9 @@
       <c r="P35" s="30"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="92"/>
-      <c r="B36" s="99"/>
-      <c r="C36" s="102"/>
+      <c r="A36" s="108"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="117"/>
       <c r="D36" s="30" t="s">
         <v>22</v>
       </c>
@@ -2667,9 +2667,9 @@
       <c r="P36" s="30"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37" s="92"/>
-      <c r="B37" s="99"/>
-      <c r="C37" s="102"/>
+      <c r="A37" s="108"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="117"/>
       <c r="D37" s="30" t="s">
         <v>22</v>
       </c>
@@ -2706,9 +2706,9 @@
       <c r="P37" s="30"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="93"/>
-      <c r="B38" s="100"/>
-      <c r="C38" s="103"/>
+      <c r="A38" s="109"/>
+      <c r="B38" s="112"/>
+      <c r="C38" s="118"/>
       <c r="D38" s="32" t="s">
         <v>22</v>
       </c>
@@ -2745,15 +2745,15 @@
       <c r="P38" s="32"/>
     </row>
     <row r="39" spans="1:22" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="97" t="s">
+      <c r="A39" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="97"/>
-      <c r="C39" s="97"/>
-      <c r="D39" s="97"/>
-      <c r="E39" s="97"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="97"/>
+      <c r="B39" s="128"/>
+      <c r="C39" s="128"/>
+      <c r="D39" s="128"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="128"/>
+      <c r="G39" s="128"/>
       <c r="H39" s="44">
         <f>SUM(H31:H38)</f>
         <v>1464</v>
@@ -2777,15 +2777,15 @@
       <c r="P39" s="44"/>
     </row>
     <row r="40" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="104" t="s">
+      <c r="A40" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="105"/>
-      <c r="C40" s="105"/>
-      <c r="D40" s="105"/>
-      <c r="E40" s="105"/>
-      <c r="F40" s="105"/>
-      <c r="G40" s="106"/>
+      <c r="B40" s="95"/>
+      <c r="C40" s="95"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="95"/>
+      <c r="F40" s="95"/>
+      <c r="G40" s="96"/>
       <c r="H40" s="48">
         <f>H30+H22+H12+H39</f>
         <v>2778</v>
@@ -2813,6 +2813,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="C23:C29"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A31:A38"/>
+    <mergeCell ref="B31:B38"/>
+    <mergeCell ref="C31:C38"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="B13:B21"/>
+    <mergeCell ref="A30:G30"/>
     <mergeCell ref="A40:G40"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="A4:O4"/>
@@ -2829,17 +2840,6 @@
     <mergeCell ref="C7:C11"/>
     <mergeCell ref="C13:C21"/>
     <mergeCell ref="A23:A29"/>
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="C23:C29"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="A31:A38"/>
-    <mergeCell ref="B31:B38"/>
-    <mergeCell ref="C31:C38"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="B13:B21"/>
-    <mergeCell ref="A30:G30"/>
   </mergeCells>
   <pageMargins left="0.17" right="0.2" top="0.45" bottom="0.32" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -2850,8 +2850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="C18" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2891,24 +2891,24 @@
       <c r="S2" s="81"/>
     </row>
     <row r="3" spans="1:21" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="125" t="s">
+      <c r="A3" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="159"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="159"/>
       <c r="S3" s="81"/>
     </row>
     <row r="4" spans="1:21" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2923,44 +2923,44 @@
       <c r="S4" s="73"/>
     </row>
     <row r="5" spans="1:21" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="110" t="s">
+      <c r="D5" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="112" t="s">
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="113"/>
-      <c r="L5" s="114" t="s">
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="115" t="s">
+      <c r="M5" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="116" t="s">
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="106" t="s">
         <v>9</v>
       </c>
       <c r="S5" s="82"/>
     </row>
     <row r="6" spans="1:21" s="15" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="110"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="110"/>
+      <c r="A6" s="100"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="100"/>
       <c r="D6" s="16" t="s">
         <v>10</v>
       </c>
@@ -2985,7 +2985,7 @@
       <c r="K6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="114"/>
+      <c r="L6" s="104"/>
       <c r="M6" s="19" t="s">
         <v>18</v>
       </c>
@@ -2995,23 +2995,23 @@
       <c r="O6" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="116"/>
+      <c r="P6" s="106"/>
       <c r="S6" s="82"/>
       <c r="U6" s="4"/>
     </row>
     <row r="7" spans="1:21" s="4" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="91"/>
-      <c r="B7" s="98">
+      <c r="A7" s="107"/>
+      <c r="B7" s="110">
         <v>43881</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91" t="s">
+      <c r="C7" s="107"/>
+      <c r="D7" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="91" t="s">
+      <c r="E7" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="91"/>
+      <c r="F7" s="107"/>
       <c r="G7" s="22" t="s">
         <v>24</v>
       </c>
@@ -3043,12 +3043,12 @@
       <c r="S7" s="73"/>
     </row>
     <row r="8" spans="1:21" s="4" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="92"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
+      <c r="A8" s="108"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
       <c r="G8" s="30" t="s">
         <v>25</v>
       </c>
@@ -3080,12 +3080,12 @@
       <c r="S8" s="73"/>
     </row>
     <row r="9" spans="1:21" s="4" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="92"/>
-      <c r="B9" s="99"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
+      <c r="A9" s="108"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
       <c r="G9" s="30" t="s">
         <v>26</v>
       </c>
@@ -3117,12 +3117,12 @@
       <c r="S9" s="73"/>
     </row>
     <row r="10" spans="1:21" s="4" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="92"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
       <c r="G10" s="30" t="s">
         <v>27</v>
       </c>
@@ -3154,12 +3154,12 @@
       <c r="S10" s="73"/>
     </row>
     <row r="11" spans="1:21" s="4" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="92"/>
-      <c r="B11" s="99"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
+      <c r="A11" s="108"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
       <c r="G11" s="41" t="s">
         <v>28</v>
       </c>
@@ -3191,18 +3191,18 @@
       <c r="S11" s="73"/>
     </row>
     <row r="12" spans="1:21" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="123"/>
-      <c r="B12" s="126">
+      <c r="A12" s="155"/>
+      <c r="B12" s="157">
         <v>44051</v>
       </c>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123" t="s">
+      <c r="C12" s="155"/>
+      <c r="D12" s="155" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="123" t="s">
+      <c r="E12" s="155" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="123"/>
+      <c r="F12" s="155"/>
       <c r="G12" s="22" t="s">
         <v>28</v>
       </c>
@@ -3233,12 +3233,12 @@
       <c r="S12" s="73"/>
     </row>
     <row r="13" spans="1:21" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="124"/>
-      <c r="B13" s="127"/>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="124"/>
+      <c r="A13" s="156"/>
+      <c r="B13" s="158"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="156"/>
       <c r="G13" s="32" t="s">
         <v>27</v>
       </c>
@@ -3269,15 +3269,15 @@
       <c r="S13" s="73"/>
     </row>
     <row r="14" spans="1:21" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="97" t="s">
+      <c r="A14" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="97"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="128"/>
       <c r="H14" s="44">
         <f>SUM(H7:H13)</f>
         <v>540</v>
@@ -3339,18 +3339,18 @@
       <c r="S17" s="73"/>
     </row>
     <row r="18" spans="2:19" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C18" s="146" t="s">
+      <c r="C18" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="147"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="148"/>
-      <c r="H18" s="129">
+      <c r="D18" s="133"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="143">
         <f>'hàng nhập'!J12+'hàng nhập'!J22+'hàng nhập'!J30</f>
         <v>620810000</v>
       </c>
-      <c r="I18" s="129"/>
+      <c r="I18" s="143"/>
       <c r="J18" s="8"/>
       <c r="K18" s="72"/>
       <c r="L18" s="8"/>
@@ -3360,18 +3360,18 @@
     </row>
     <row r="19" spans="2:19" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B19" s="73"/>
-      <c r="C19" s="142" t="s">
+      <c r="C19" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="143"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="144"/>
-      <c r="H19" s="130">
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="130"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="144">
         <f>H18/2</f>
         <v>310405000</v>
       </c>
-      <c r="I19" s="131"/>
+      <c r="I19" s="145"/>
       <c r="J19" s="8"/>
       <c r="K19" s="72"/>
       <c r="L19" s="8"/>
@@ -3384,35 +3384,35 @@
       <c r="R19" s="160"/>
     </row>
     <row r="20" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="142" t="s">
+      <c r="C20" s="129" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="132">
+      <c r="D20" s="130"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="130"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="146">
         <v>150000000</v>
       </c>
-      <c r="I20" s="132"/>
-      <c r="P20" s="161" t="s">
+      <c r="I20" s="146"/>
+      <c r="P20" s="140" t="s">
         <v>59</v>
       </c>
-      <c r="Q20" s="161"/>
+      <c r="Q20" s="140"/>
     </row>
     <row r="21" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C21" s="142" t="s">
+      <c r="C21" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="143"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="132">
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="131"/>
+      <c r="H21" s="146">
         <f>H19-H20-H22</f>
         <v>62625000</v>
       </c>
-      <c r="I21" s="132"/>
+      <c r="I21" s="146"/>
       <c r="Q21" s="85">
         <v>43659</v>
       </c>
@@ -3421,26 +3421,26 @@
       </c>
     </row>
     <row r="22" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="142" t="s">
+      <c r="C22" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="143"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="144"/>
-      <c r="H22" s="130">
+      <c r="D22" s="130"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="130"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="144">
         <v>97780000</v>
       </c>
-      <c r="I22" s="131"/>
-      <c r="J22" s="154" t="s">
+      <c r="I22" s="145"/>
+      <c r="J22" s="161" t="s">
         <v>53</v>
       </c>
-      <c r="K22" s="154"/>
-      <c r="L22" s="154"/>
-      <c r="P22" s="161" t="s">
+      <c r="K22" s="161"/>
+      <c r="L22" s="161"/>
+      <c r="P22" s="140" t="s">
         <v>60</v>
       </c>
-      <c r="Q22" s="161"/>
+      <c r="Q22" s="140"/>
     </row>
     <row r="23" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D23" s="87"/>
@@ -3466,18 +3466,18 @@
       </c>
     </row>
     <row r="25" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C25" s="142" t="s">
+      <c r="C25" s="129" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="143"/>
-      <c r="E25" s="143"/>
-      <c r="F25" s="143"/>
-      <c r="G25" s="144"/>
-      <c r="H25" s="129">
+      <c r="D25" s="130"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="130"/>
+      <c r="G25" s="131"/>
+      <c r="H25" s="143">
         <f>'hàng nhập'!J39</f>
         <v>702120000</v>
       </c>
-      <c r="I25" s="129"/>
+      <c r="I25" s="143"/>
       <c r="Q25" s="85">
         <v>44053</v>
       </c>
@@ -3486,133 +3486,155 @@
       </c>
     </row>
     <row r="26" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C26" s="142" t="s">
+      <c r="C26" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="143"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="144"/>
-      <c r="H26" s="130">
+      <c r="D26" s="130"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="130"/>
+      <c r="G26" s="131"/>
+      <c r="H26" s="144">
         <f>H25/2</f>
         <v>351060000</v>
       </c>
-      <c r="I26" s="131"/>
+      <c r="I26" s="145"/>
       <c r="R26" s="86">
         <v>200000000</v>
       </c>
     </row>
     <row r="27" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C27" s="142" t="s">
+      <c r="C27" s="129" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="143"/>
-      <c r="E27" s="143"/>
-      <c r="F27" s="143"/>
-      <c r="G27" s="144"/>
-      <c r="H27" s="132">
+      <c r="D27" s="130"/>
+      <c r="E27" s="130"/>
+      <c r="F27" s="130"/>
+      <c r="G27" s="131"/>
+      <c r="H27" s="146">
         <v>97780000</v>
       </c>
-      <c r="I27" s="132"/>
-      <c r="Q27" s="158" t="s">
+      <c r="I27" s="146"/>
+      <c r="Q27" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="R27" s="159">
+      <c r="R27" s="93">
         <f>R23+R24+R25+R26</f>
         <v>417000000</v>
       </c>
     </row>
     <row r="28" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="145" t="s">
+      <c r="C28" s="142" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="135">
+      <c r="D28" s="89">
         <v>44041</v>
       </c>
-      <c r="E28" s="133">
+      <c r="E28" s="153">
         <v>67000000</v>
       </c>
-      <c r="F28" s="134"/>
-      <c r="G28" s="128"/>
-      <c r="H28" s="136">
+      <c r="F28" s="154"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="147">
         <f>E28+E29+E30+E31</f>
         <v>417000000</v>
       </c>
-      <c r="I28" s="137"/>
+      <c r="I28" s="148"/>
     </row>
     <row r="29" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="145"/>
-      <c r="D29" s="135">
-        <v>44015</v>
-      </c>
-      <c r="E29" s="133">
+      <c r="C29" s="142"/>
+      <c r="D29" s="89">
+        <v>44046</v>
+      </c>
+      <c r="E29" s="153">
         <v>50000000</v>
       </c>
-      <c r="F29" s="134"/>
-      <c r="G29" s="128"/>
-      <c r="H29" s="138"/>
-      <c r="I29" s="139"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="150"/>
     </row>
     <row r="30" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="145"/>
-      <c r="D30" s="135">
+      <c r="C30" s="142"/>
+      <c r="D30" s="89">
         <v>44053</v>
       </c>
-      <c r="E30" s="133">
+      <c r="E30" s="153">
         <v>100000000</v>
       </c>
-      <c r="F30" s="134"/>
-      <c r="G30" s="128"/>
-      <c r="H30" s="138"/>
-      <c r="I30" s="139"/>
+      <c r="F30" s="154"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="150"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C31" s="145"/>
-      <c r="D31" s="128"/>
-      <c r="E31" s="133">
+      <c r="C31" s="142"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="153">
         <v>200000000</v>
       </c>
-      <c r="F31" s="134"/>
-      <c r="G31" s="128"/>
-      <c r="H31" s="140"/>
-      <c r="I31" s="141"/>
+      <c r="F31" s="154"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="151"/>
+      <c r="I31" s="152"/>
     </row>
     <row r="32" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C32" s="149" t="s">
+      <c r="C32" s="135" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="150"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="152">
+      <c r="D32" s="136"/>
+      <c r="E32" s="136"/>
+      <c r="F32" s="136"/>
+      <c r="G32" s="137"/>
+      <c r="H32" s="138">
         <f>L12+L13</f>
         <v>5460000</v>
       </c>
-      <c r="I32" s="153"/>
+      <c r="I32" s="139"/>
     </row>
     <row r="33" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C33" s="155" t="s">
+      <c r="C33" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="156"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="156"/>
-      <c r="G33" s="156"/>
-      <c r="H33" s="157">
+      <c r="D33" s="91"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="141">
         <f>H26+H27-H28-H32</f>
         <v>26380000</v>
       </c>
-      <c r="I33" s="157"/>
+      <c r="I33" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="C28:C31"/>
     <mergeCell ref="H25:I25"/>
@@ -3626,38 +3648,16 @@
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C27:G27"/>
-    <mergeCell ref="F7:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P22:Q22"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
     <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C20:G20"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/CHỊ TUYẾT SÀI GÒN/công nợ chị tuyết TPHCM.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/CHỊ TUYẾT SÀI GÒN/công nợ chị tuyết TPHCM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="73">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -162,9 +162,6 @@
     <t>Công nợ (Còn nợ công ty Nanomilk)</t>
   </si>
   <si>
-    <t>BẢNG TỔNG HỢP CHỊ TUYẾT NHẬP HÀNG</t>
-  </si>
-  <si>
     <t>Trước ngày 25/7 (chị Tuyết và anh Lâm đã thống nhất với nhau)</t>
   </si>
   <si>
@@ -214,6 +211,30 @@
   </si>
   <si>
     <t>Tổng cộng nhập hàng đợt 5</t>
+  </si>
+  <si>
+    <t>Tình trạng thanh toán</t>
+  </si>
+  <si>
+    <t>Biển Bảng</t>
+  </si>
+  <si>
+    <t>Kệ</t>
+  </si>
+  <si>
+    <t>Vận chuyênX2</t>
+  </si>
+  <si>
+    <t>Công ty còn nợ đại lý</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kết luận: </t>
+  </si>
+  <si>
+    <t>BẢNG TỔNG HỢP CHỊ TUYẾT NHẬP HÀNG 25/08/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Số:25082020/PKD. MST: 0108806878</t>
   </si>
 </sst>
 </file>
@@ -226,7 +247,7 @@
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,6 +374,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -380,7 +409,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -597,13 +626,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -657,16 +704,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -675,9 +713,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -780,23 +815,101 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -807,153 +920,117 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -963,56 +1040,101 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1320,20 +1442,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="62" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="58" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="4" customWidth="1"/>
     <col min="7" max="7" width="7.42578125" style="4" customWidth="1"/>
     <col min="8" max="8" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
@@ -1359,7 +1481,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="10"/>
@@ -1370,57 +1492,57 @@
       <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="101" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
+      <c r="A3" s="89" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="102"/>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="103"/>
+      <c r="A4" s="90"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="91"/>
     </row>
     <row r="5" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="104" t="s">
+      <c r="C5" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="104" t="s">
+      <c r="D5" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="106" t="s">
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
     </row>
     <row r="6" spans="1:15" s="13" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="104"/>
-      <c r="B6" s="105"/>
-      <c r="C6" s="104"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="92"/>
       <c r="D6" s="14" t="s">
         <v>10</v>
       </c>
@@ -1444,1008 +1566,1149 @@
       </c>
     </row>
     <row r="7" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="173" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="92">
+      <c r="B7" s="174">
         <v>43881</v>
       </c>
-      <c r="C7" s="111"/>
-      <c r="D7" s="20" t="s">
+      <c r="C7" s="175"/>
+      <c r="D7" s="176" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="176" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="21"/>
+      <c r="F7" s="175"/>
       <c r="G7" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="22">
-        <f>12*(8+4)</f>
-        <v>144</v>
-      </c>
-      <c r="I7" s="23">
+      <c r="H7" s="40">
+        <v>4</v>
+      </c>
+      <c r="I7" s="21">
         <v>485000</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="21">
         <f>H7*I7</f>
-        <v>69840000</v>
+        <v>1940000</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="86"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="26" t="s">
+      <c r="A8" s="177"/>
+      <c r="B8" s="178"/>
+      <c r="C8" s="179"/>
+      <c r="D8" s="180"/>
+      <c r="E8" s="180"/>
+      <c r="F8" s="179"/>
+      <c r="G8" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="22">
-        <f>12*12</f>
-        <v>144</v>
-      </c>
-      <c r="I8" s="27">
+      <c r="H8" s="45">
+        <v>4</v>
+      </c>
+      <c r="I8" s="24">
         <v>465000</v>
       </c>
       <c r="J8" s="24">
         <f>H8*I8</f>
-        <v>66960000</v>
+        <v>1860000</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="86"/>
-      <c r="B9" s="93"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="26" t="s">
+      <c r="A9" s="177"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="179"/>
+      <c r="D9" s="180"/>
+      <c r="E9" s="180"/>
+      <c r="F9" s="179"/>
+      <c r="G9" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="22">
-        <f>12*12</f>
-        <v>144</v>
-      </c>
-      <c r="I9" s="27">
+      <c r="H9" s="45">
+        <v>1</v>
+      </c>
+      <c r="I9" s="24">
         <v>475000</v>
       </c>
       <c r="J9" s="24">
         <f>H9*I9</f>
-        <v>68400000</v>
+        <v>475000</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="86"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="26" t="s">
+      <c r="A10" s="177"/>
+      <c r="B10" s="178"/>
+      <c r="C10" s="179"/>
+      <c r="D10" s="180"/>
+      <c r="E10" s="180"/>
+      <c r="F10" s="179"/>
+      <c r="G10" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="22">
-        <f>12*12</f>
-        <v>144</v>
-      </c>
-      <c r="I10" s="27">
+      <c r="H10" s="45">
+        <v>3</v>
+      </c>
+      <c r="I10" s="24">
         <v>455000</v>
       </c>
       <c r="J10" s="24">
         <f>H10*I10</f>
-        <v>65520000</v>
+        <v>1365000</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="87"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="28" t="s">
+      <c r="A11" s="181"/>
+      <c r="B11" s="182"/>
+      <c r="C11" s="183"/>
+      <c r="D11" s="184"/>
+      <c r="E11" s="184"/>
+      <c r="F11" s="183"/>
+      <c r="G11" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="22">
-        <f>12*12</f>
-        <v>144</v>
-      </c>
-      <c r="I11" s="29">
+      <c r="H11" s="60">
+        <v>5</v>
+      </c>
+      <c r="I11" s="26">
         <v>455000</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J11" s="26">
         <f>H11*I11</f>
-        <v>65520000</v>
+        <v>2275000</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="89"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="30">
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="27">
         <f>SUM(H7:H11)</f>
-        <v>720</v>
-      </c>
-      <c r="I12" s="25"/>
+        <v>17</v>
+      </c>
+      <c r="I12" s="22"/>
       <c r="J12" s="31">
         <f>SUM(J7:J11)</f>
-        <v>336240000</v>
+        <v>7915000</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="92">
+      <c r="B13" s="98">
         <v>43915</v>
       </c>
-      <c r="C13" s="95"/>
-      <c r="D13" s="20" t="s">
+      <c r="C13" s="101"/>
+      <c r="D13" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="20"/>
+      <c r="F13" s="101"/>
       <c r="G13" s="20" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="20">
-        <v>24</v>
-      </c>
-      <c r="I13" s="23">
+        <v>25</v>
+      </c>
+      <c r="I13" s="21">
         <v>265000</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="21">
         <f t="shared" ref="J13:J21" si="0">H13*I13</f>
-        <v>6360000</v>
+        <v>6625000</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="86"/>
-      <c r="B14" s="93"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26" t="s">
+      <c r="A14" s="96"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="26">
-        <v>12</v>
-      </c>
-      <c r="I14" s="27">
+      <c r="H14" s="23">
+        <v>13</v>
+      </c>
+      <c r="I14" s="24">
         <v>465000</v>
       </c>
-      <c r="J14" s="27">
+      <c r="J14" s="24">
         <f t="shared" si="0"/>
-        <v>5580000</v>
+        <v>6045000</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="86"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26" t="s">
+      <c r="A15" s="96"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="23">
         <v>36</v>
       </c>
-      <c r="I15" s="27">
+      <c r="I15" s="24">
         <v>475000</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="24">
         <f t="shared" si="0"/>
         <v>17100000</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="86"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26" t="s">
+      <c r="A16" s="96"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="23">
         <v>34</v>
       </c>
-      <c r="I16" s="27">
+      <c r="I16" s="24">
         <v>485000</v>
       </c>
-      <c r="J16" s="27">
+      <c r="J16" s="24">
         <f t="shared" si="0"/>
         <v>16490000</v>
       </c>
-      <c r="O16" s="63"/>
+      <c r="O16" s="59"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="86"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26" t="s">
+      <c r="A17" s="96"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="23">
         <v>24</v>
       </c>
-      <c r="I17" s="27">
+      <c r="I17" s="24">
         <v>485000</v>
       </c>
-      <c r="J17" s="27">
+      <c r="J17" s="24">
         <f t="shared" si="0"/>
         <v>11640000</v>
       </c>
       <c r="O17" s="7"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="86"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26" t="s">
+      <c r="A18" s="96"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="23">
         <v>72</v>
       </c>
-      <c r="I18" s="27">
+      <c r="I18" s="24">
         <v>550000</v>
       </c>
-      <c r="J18" s="27">
+      <c r="J18" s="24">
         <f t="shared" si="0"/>
         <v>39600000</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="86"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26" t="s">
+      <c r="A19" s="96"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="23">
         <v>56</v>
       </c>
-      <c r="I19" s="27">
+      <c r="I19" s="24">
         <v>450000</v>
       </c>
-      <c r="J19" s="27">
+      <c r="J19" s="24">
         <f t="shared" si="0"/>
         <v>25200000</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="86"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26" t="s">
+      <c r="A20" s="96"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="23">
         <v>36</v>
       </c>
-      <c r="I20" s="27">
+      <c r="I20" s="24">
         <v>455000</v>
       </c>
-      <c r="J20" s="27">
+      <c r="J20" s="24">
         <f t="shared" si="0"/>
         <v>16380000</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="87"/>
-      <c r="B21" s="94"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32" t="s">
+      <c r="A21" s="97"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H21" s="28">
         <v>12</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="29">
         <v>455000</v>
       </c>
-      <c r="J21" s="33">
+      <c r="J21" s="29">
         <f t="shared" si="0"/>
         <v>5460000</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="88" t="s">
+    <row r="22" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="89"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="34">
+      <c r="B22" s="111"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="30">
         <f>SUM(H13:H21)</f>
-        <v>306</v>
-      </c>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35">
+        <v>308</v>
+      </c>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31">
         <f>SUM(J13:J21)</f>
-        <v>143810000</v>
+        <v>144540000</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="114" t="s">
+      <c r="A23" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="82">
+      <c r="B23" s="107">
         <v>43916</v>
       </c>
-      <c r="C23" s="85"/>
-      <c r="D23" s="20" t="s">
+      <c r="C23" s="95"/>
+      <c r="D23" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="20"/>
+      <c r="F23" s="101"/>
       <c r="G23" s="20" t="s">
         <v>37</v>
       </c>
       <c r="H23" s="20">
         <v>36</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="21">
         <v>455000</v>
       </c>
-      <c r="J23" s="23">
+      <c r="J23" s="21">
         <f t="shared" ref="J23:J29" si="1">I23*H23</f>
         <v>16380000</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="115"/>
-      <c r="B24" s="83"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26" t="s">
+      <c r="A24" s="105"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="26">
+      <c r="H24" s="23">
         <v>36</v>
       </c>
-      <c r="I24" s="27">
+      <c r="I24" s="24">
         <v>475000</v>
       </c>
-      <c r="J24" s="27">
+      <c r="J24" s="24">
         <f t="shared" si="1"/>
         <v>17100000</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="115"/>
-      <c r="B25" s="83"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26" t="s">
+      <c r="A25" s="105"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="26">
+      <c r="H25" s="23">
         <v>36</v>
       </c>
-      <c r="I25" s="27">
+      <c r="I25" s="24">
         <v>485000</v>
       </c>
-      <c r="J25" s="27">
+      <c r="J25" s="24">
         <f t="shared" si="1"/>
         <v>17460000</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="115"/>
-      <c r="B26" s="83"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26" t="s">
+      <c r="A26" s="105"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H26" s="26">
+      <c r="H26" s="23">
         <v>36</v>
       </c>
-      <c r="I26" s="27">
+      <c r="I26" s="24">
         <v>485000</v>
       </c>
-      <c r="J26" s="27">
+      <c r="J26" s="24">
         <f t="shared" si="1"/>
         <v>17460000</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="115"/>
-      <c r="B27" s="83"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26" t="s">
+      <c r="A27" s="105"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="26">
+      <c r="H27" s="23">
         <v>72</v>
       </c>
-      <c r="I27" s="27">
+      <c r="I27" s="24">
         <v>550000</v>
       </c>
-      <c r="J27" s="27">
+      <c r="J27" s="24">
         <f t="shared" si="1"/>
         <v>39600000</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="115"/>
-      <c r="B28" s="83"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26" t="s">
+      <c r="A28" s="105"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H28" s="26">
+      <c r="H28" s="23">
         <v>36</v>
       </c>
-      <c r="I28" s="27">
+      <c r="I28" s="24">
         <v>455000</v>
       </c>
-      <c r="J28" s="27">
+      <c r="J28" s="24">
         <f t="shared" si="1"/>
         <v>16380000</v>
       </c>
-      <c r="L28" s="63"/>
+      <c r="L28" s="59"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="116"/>
-      <c r="B29" s="84"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28" t="s">
+      <c r="A29" s="106"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H29" s="28">
+      <c r="H29" s="25">
         <v>36</v>
       </c>
-      <c r="I29" s="29">
+      <c r="I29" s="26">
         <v>455000</v>
       </c>
-      <c r="J29" s="29">
+      <c r="J29" s="26">
         <f t="shared" si="1"/>
         <v>16380000</v>
       </c>
-      <c r="L29" s="63"/>
-    </row>
-    <row r="30" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="91" t="s">
+      <c r="L29" s="59"/>
+    </row>
+    <row r="30" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="91"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="34">
+      <c r="B30" s="85"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="30">
         <f>SUM(H23:H29)</f>
         <v>288</v>
       </c>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35">
+      <c r="I30" s="31"/>
+      <c r="J30" s="31">
         <f>SUM(J23:J29)</f>
         <v>140760000</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="85" t="s">
+      <c r="A31" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="92">
+      <c r="B31" s="98">
         <v>44032</v>
       </c>
-      <c r="C31" s="95"/>
-      <c r="D31" s="20" t="s">
+      <c r="C31" s="101"/>
+      <c r="D31" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="20"/>
+      <c r="F31" s="101"/>
       <c r="G31" s="20" t="s">
         <v>37</v>
       </c>
       <c r="H31" s="20">
         <v>300</v>
       </c>
-      <c r="I31" s="23">
+      <c r="I31" s="21">
         <v>455000</v>
       </c>
-      <c r="J31" s="23">
+      <c r="J31" s="21">
         <f>H31*I31</f>
         <v>136500000</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="86"/>
-      <c r="B32" s="93"/>
-      <c r="C32" s="96"/>
-      <c r="D32" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26" t="s">
+      <c r="A32" s="96"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="H32" s="26">
+      <c r="H32" s="23">
         <v>180</v>
       </c>
-      <c r="I32" s="27">
+      <c r="I32" s="24">
         <v>465000</v>
       </c>
-      <c r="J32" s="27">
+      <c r="J32" s="24">
         <f t="shared" ref="J32:J38" si="2">H32*I32</f>
         <v>83700000</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="86"/>
-      <c r="B33" s="93"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26" t="s">
+      <c r="A33" s="96"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="H33" s="26">
+      <c r="H33" s="23">
         <v>120</v>
       </c>
-      <c r="I33" s="27">
+      <c r="I33" s="24">
         <v>475000</v>
       </c>
-      <c r="J33" s="27">
+      <c r="J33" s="24">
         <f t="shared" si="2"/>
         <v>57000000</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="86"/>
-      <c r="B34" s="93"/>
-      <c r="C34" s="96"/>
-      <c r="D34" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26" t="s">
+      <c r="A34" s="96"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H34" s="26">
+      <c r="H34" s="23">
         <v>240</v>
       </c>
-      <c r="I34" s="27">
+      <c r="I34" s="24">
         <v>485000</v>
       </c>
-      <c r="J34" s="27">
+      <c r="J34" s="24">
         <f t="shared" si="2"/>
         <v>116400000</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="86"/>
-      <c r="B35" s="93"/>
-      <c r="C35" s="96"/>
-      <c r="D35" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26" t="s">
+      <c r="A35" s="96"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H35" s="26">
+      <c r="H35" s="23">
         <v>60</v>
       </c>
-      <c r="I35" s="27">
+      <c r="I35" s="24">
         <v>485000</v>
       </c>
-      <c r="J35" s="27">
+      <c r="J35" s="24">
         <f t="shared" si="2"/>
         <v>29100000</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="86"/>
-      <c r="B36" s="93"/>
-      <c r="C36" s="96"/>
-      <c r="D36" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E36" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26" t="s">
+      <c r="A36" s="96"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H36" s="26">
+      <c r="H36" s="23">
         <v>240</v>
       </c>
-      <c r="I36" s="27">
+      <c r="I36" s="24">
         <v>550000</v>
       </c>
-      <c r="J36" s="27">
+      <c r="J36" s="24">
         <f t="shared" si="2"/>
         <v>132000000</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="86"/>
-      <c r="B37" s="93"/>
-      <c r="C37" s="96"/>
-      <c r="D37" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26" t="s">
+      <c r="A37" s="96"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H37" s="26">
+      <c r="H37" s="23">
         <v>84</v>
       </c>
-      <c r="I37" s="27">
+      <c r="I37" s="24">
         <v>455000</v>
       </c>
-      <c r="J37" s="27">
+      <c r="J37" s="24">
         <f t="shared" si="2"/>
         <v>38220000</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="87"/>
-      <c r="B38" s="94"/>
-      <c r="C38" s="97"/>
-      <c r="D38" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28" t="s">
+      <c r="A38" s="97"/>
+      <c r="B38" s="100"/>
+      <c r="C38" s="103"/>
+      <c r="D38" s="106"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="103"/>
+      <c r="G38" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H38" s="28">
+      <c r="H38" s="25">
         <v>240</v>
       </c>
-      <c r="I38" s="29">
+      <c r="I38" s="26">
         <v>455000</v>
       </c>
-      <c r="J38" s="29">
+      <c r="J38" s="26">
         <f t="shared" si="2"/>
         <v>109200000</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="91" t="s">
+    <row r="39" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="91"/>
-      <c r="C39" s="91"/>
-      <c r="D39" s="91"/>
-      <c r="E39" s="91"/>
-      <c r="F39" s="91"/>
-      <c r="G39" s="91"/>
-      <c r="H39" s="34">
+      <c r="B39" s="85"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="30">
         <f>SUM(H31:H38)</f>
         <v>1464</v>
       </c>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35">
+      <c r="I39" s="31"/>
+      <c r="J39" s="31">
         <f>SUM(J31:J38)</f>
         <v>702120000</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="151" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="147">
+    <row r="40" spans="1:10" s="80" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="113">
         <v>757</v>
       </c>
-      <c r="B40" s="148">
+      <c r="B40" s="116">
         <v>44061</v>
       </c>
-      <c r="C40" s="147"/>
-      <c r="D40" s="147" t="s">
+      <c r="C40" s="113"/>
+      <c r="D40" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="147" t="s">
+      <c r="E40" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="G40" s="149" t="s">
+      <c r="F40" s="170"/>
+      <c r="G40" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="H40" s="149">
+      <c r="H40" s="78">
         <v>156</v>
       </c>
-      <c r="I40" s="150">
+      <c r="I40" s="79">
         <v>455000</v>
       </c>
-      <c r="J40" s="150">
+      <c r="J40" s="79">
         <f t="shared" ref="J40:J45" si="3">H40*I40</f>
         <v>70980000</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="151" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="152"/>
-      <c r="B41" s="153"/>
-      <c r="C41" s="152"/>
-      <c r="D41" s="152"/>
-      <c r="E41" s="152"/>
-      <c r="G41" s="154" t="s">
+    <row r="41" spans="1:10" s="80" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="114"/>
+      <c r="B41" s="117"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="171"/>
+      <c r="G41" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="H41" s="154">
+      <c r="H41" s="81">
         <v>48</v>
       </c>
-      <c r="I41" s="155">
+      <c r="I41" s="82">
         <v>465000</v>
       </c>
-      <c r="J41" s="155">
+      <c r="J41" s="82">
         <f t="shared" si="3"/>
         <v>22320000</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="151" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="152"/>
-      <c r="B42" s="153"/>
-      <c r="C42" s="152"/>
-      <c r="D42" s="152"/>
-      <c r="E42" s="152"/>
-      <c r="G42" s="154" t="s">
+    <row r="42" spans="1:10" s="80" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="114"/>
+      <c r="B42" s="117"/>
+      <c r="C42" s="114"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="114"/>
+      <c r="F42" s="171"/>
+      <c r="G42" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="H42" s="154">
+      <c r="H42" s="81">
         <v>96</v>
       </c>
-      <c r="I42" s="155">
+      <c r="I42" s="82">
         <v>475000</v>
       </c>
-      <c r="J42" s="155">
+      <c r="J42" s="82">
         <f t="shared" si="3"/>
         <v>45600000</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="151" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="152"/>
-      <c r="B43" s="153"/>
-      <c r="C43" s="152"/>
-      <c r="D43" s="152"/>
-      <c r="E43" s="152"/>
-      <c r="G43" s="154" t="s">
+    <row r="43" spans="1:10" s="80" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="114"/>
+      <c r="B43" s="117"/>
+      <c r="C43" s="114"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="114"/>
+      <c r="F43" s="171"/>
+      <c r="G43" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="H43" s="154">
+      <c r="H43" s="81">
         <v>192</v>
       </c>
-      <c r="I43" s="155">
+      <c r="I43" s="82">
         <v>485000</v>
       </c>
-      <c r="J43" s="155">
+      <c r="J43" s="82">
         <f t="shared" si="3"/>
         <v>93120000</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="151" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="152"/>
-      <c r="B44" s="153"/>
-      <c r="C44" s="152"/>
-      <c r="D44" s="152"/>
-      <c r="E44" s="152"/>
-      <c r="G44" s="154" t="s">
+    <row r="44" spans="1:10" s="80" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="114"/>
+      <c r="B44" s="117"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="171"/>
+      <c r="G44" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="H44" s="154">
+      <c r="H44" s="81">
         <v>72</v>
       </c>
-      <c r="I44" s="155">
+      <c r="I44" s="82">
         <v>455000</v>
       </c>
-      <c r="J44" s="155">
+      <c r="J44" s="82">
         <f t="shared" si="3"/>
         <v>32760000</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="151" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="156"/>
-      <c r="B45" s="157"/>
-      <c r="C45" s="156"/>
-      <c r="D45" s="156"/>
-      <c r="E45" s="156"/>
-      <c r="G45" s="158" t="s">
+    <row r="45" spans="1:10" s="80" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="115"/>
+      <c r="B45" s="118"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="115"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="172"/>
+      <c r="G45" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="H45" s="158">
+      <c r="H45" s="83">
         <v>84</v>
       </c>
-      <c r="I45" s="159">
+      <c r="I45" s="84">
         <v>455000</v>
       </c>
-      <c r="J45" s="159">
+      <c r="J45" s="84">
         <f t="shared" si="3"/>
         <v>38220000</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="B46" s="91"/>
-      <c r="C46" s="91"/>
-      <c r="D46" s="91"/>
-      <c r="E46" s="91"/>
-      <c r="F46" s="91"/>
-      <c r="G46" s="91"/>
-      <c r="H46" s="34">
+    <row r="46" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="85" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="85"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="85"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="30">
         <f>SUM(H40:H45)</f>
         <v>648</v>
       </c>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35">
+      <c r="I46" s="31"/>
+      <c r="J46" s="31">
         <f>SUM(J40:J45)</f>
         <v>303000000</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="98" t="s">
+      <c r="A47" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="99"/>
-      <c r="C47" s="99"/>
-      <c r="D47" s="99"/>
-      <c r="E47" s="99"/>
-      <c r="F47" s="99"/>
-      <c r="G47" s="100"/>
-      <c r="H47" s="37">
+      <c r="B47" s="87"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="87"/>
+      <c r="E47" s="87"/>
+      <c r="F47" s="87"/>
+      <c r="G47" s="88"/>
+      <c r="H47" s="33">
         <f>H30+H22+H12+H39+H46</f>
-        <v>3426</v>
-      </c>
-      <c r="I47" s="38"/>
-      <c r="J47" s="38">
+        <v>2725</v>
+      </c>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34">
         <f>J30+J22+J12+J39+J46</f>
-        <v>1625930000</v>
-      </c>
-    </row>
-    <row r="51" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O51" s="7"/>
+        <v>1298335000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="169" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="169"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B52" s="155" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="155"/>
+      <c r="D52" s="155"/>
+      <c r="E52" s="155"/>
+      <c r="F52" s="155"/>
+      <c r="G52" s="123">
+        <f>J47</f>
+        <v>1298335000</v>
+      </c>
+      <c r="H52" s="123"/>
+      <c r="I52" s="123"/>
+      <c r="O52" s="7"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B53" s="155" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="155"/>
+      <c r="D53" s="155"/>
+      <c r="E53" s="155"/>
+      <c r="F53" s="155"/>
+      <c r="G53" s="123">
+        <f>G52/2</f>
+        <v>649167500</v>
+      </c>
+      <c r="H53" s="123"/>
+      <c r="I53" s="123"/>
+    </row>
+    <row r="54" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="164">
+        <v>43965</v>
+      </c>
+      <c r="C54" s="156" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" s="156"/>
+      <c r="E54" s="123">
+        <v>32800000</v>
+      </c>
+      <c r="F54" s="123"/>
+      <c r="G54" s="157">
+        <f>SUM(E54:F62)</f>
+        <v>665820000</v>
+      </c>
+      <c r="H54" s="158"/>
+      <c r="I54" s="159"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B55" s="164">
+        <v>43965</v>
+      </c>
+      <c r="C55" s="156" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55" s="156"/>
+      <c r="E55" s="123">
+        <v>14500000</v>
+      </c>
+      <c r="F55" s="123"/>
+      <c r="G55" s="153"/>
+      <c r="H55" s="154"/>
+      <c r="I55" s="160"/>
+    </row>
+    <row r="56" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="164">
+        <v>43965</v>
+      </c>
+      <c r="C56" s="156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" s="156"/>
+      <c r="E56" s="123">
+        <v>1520000</v>
+      </c>
+      <c r="F56" s="123"/>
+      <c r="G56" s="153"/>
+      <c r="H56" s="154"/>
+      <c r="I56" s="160"/>
+    </row>
+    <row r="57" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="108" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="156">
+        <v>44025</v>
+      </c>
+      <c r="D57" s="156"/>
+      <c r="E57" s="123">
+        <v>150000000</v>
+      </c>
+      <c r="F57" s="123"/>
+      <c r="G57" s="153"/>
+      <c r="H57" s="154"/>
+      <c r="I57" s="160"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B58" s="108"/>
+      <c r="C58" s="156">
+        <v>44037</v>
+      </c>
+      <c r="D58" s="156"/>
+      <c r="E58" s="123">
+        <v>150000000</v>
+      </c>
+      <c r="F58" s="123"/>
+      <c r="G58" s="153"/>
+      <c r="H58" s="154"/>
+      <c r="I58" s="160"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B59" s="108"/>
+      <c r="C59" s="156">
+        <v>44041</v>
+      </c>
+      <c r="D59" s="156"/>
+      <c r="E59" s="123">
+        <v>67000000</v>
+      </c>
+      <c r="F59" s="123"/>
+      <c r="G59" s="153"/>
+      <c r="H59" s="154"/>
+      <c r="I59" s="160"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B60" s="108"/>
+      <c r="C60" s="156">
+        <v>44046</v>
+      </c>
+      <c r="D60" s="156"/>
+      <c r="E60" s="123">
+        <v>50000000</v>
+      </c>
+      <c r="F60" s="123"/>
+      <c r="G60" s="153"/>
+      <c r="H60" s="154"/>
+      <c r="I60" s="160"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B61" s="108"/>
+      <c r="C61" s="156">
+        <v>44053</v>
+      </c>
+      <c r="D61" s="156"/>
+      <c r="E61" s="123">
+        <v>100000000</v>
+      </c>
+      <c r="F61" s="123"/>
+      <c r="G61" s="153"/>
+      <c r="H61" s="154"/>
+      <c r="I61" s="160"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B62" s="109"/>
+      <c r="C62" s="156">
+        <v>44061</v>
+      </c>
+      <c r="D62" s="156"/>
+      <c r="E62" s="123">
+        <v>100000000</v>
+      </c>
+      <c r="F62" s="123"/>
+      <c r="G62" s="161"/>
+      <c r="H62" s="162"/>
+      <c r="I62" s="163"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B63" s="166" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="167"/>
+      <c r="D63" s="167"/>
+      <c r="E63" s="167"/>
+      <c r="F63" s="168"/>
+      <c r="G63" s="165">
+        <f>G54-G53</f>
+        <v>16652500</v>
+      </c>
+      <c r="H63" s="165"/>
+      <c r="I63" s="165"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="70">
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="F13:F21"/>
+    <mergeCell ref="F23:F29"/>
+    <mergeCell ref="F31:F38"/>
+    <mergeCell ref="F40:F45"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G54:I62"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="D13:D21"/>
+    <mergeCell ref="E13:E21"/>
+    <mergeCell ref="D23:D29"/>
+    <mergeCell ref="E23:E29"/>
+    <mergeCell ref="D31:D38"/>
+    <mergeCell ref="E31:E38"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="D40:D45"/>
+    <mergeCell ref="E40:E45"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A31:A38"/>
+    <mergeCell ref="B31:B38"/>
+    <mergeCell ref="C31:C38"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="B13:B21"/>
+    <mergeCell ref="A30:G30"/>
     <mergeCell ref="A46:G46"/>
     <mergeCell ref="A47:G47"/>
     <mergeCell ref="A3:J3"/>
@@ -2462,23 +2725,9 @@
     <mergeCell ref="A23:A29"/>
     <mergeCell ref="B23:B29"/>
     <mergeCell ref="C23:C29"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="A31:A38"/>
-    <mergeCell ref="B31:B38"/>
-    <mergeCell ref="C31:C38"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="B13:B21"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="D40:D45"/>
-    <mergeCell ref="E40:E45"/>
   </mergeCells>
   <pageMargins left="0.17" right="0.2" top="0.45" bottom="0.32" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2487,7 +2736,7 @@
   <dimension ref="A1:U40"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="C25" sqref="C25:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2506,97 +2755,97 @@
     <col min="15" max="15" width="17.7109375" customWidth="1"/>
     <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.140625" style="72" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" style="68" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="41" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:21" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="I1" s="42"/>
-      <c r="S1" s="69"/>
-    </row>
-    <row r="2" spans="1:21" s="41" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="B1" s="36"/>
+      <c r="I1" s="38"/>
+      <c r="S1" s="65"/>
+    </row>
+    <row r="2" spans="1:21" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="I2" s="42"/>
-      <c r="S2" s="69"/>
-    </row>
-    <row r="3" spans="1:21" s="41" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="123" t="s">
+      <c r="B2" s="36"/>
+      <c r="I2" s="38"/>
+      <c r="S2" s="65"/>
+    </row>
+    <row r="3" spans="1:21" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="142" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="123"/>
-      <c r="P3" s="123"/>
-      <c r="S3" s="69"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="142"/>
+      <c r="S3" s="65"/>
     </row>
     <row r="4" spans="1:21" s="4" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="62"/>
+      <c r="B4" s="58"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="61"/>
+      <c r="K4" s="57"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
-      <c r="S4" s="62"/>
+      <c r="S4" s="58"/>
     </row>
     <row r="5" spans="1:21" s="13" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="104" t="s">
+      <c r="C5" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="104" t="s">
+      <c r="D5" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="106" t="s">
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="108" t="s">
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="143"/>
+      <c r="L5" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="109" t="s">
+      <c r="M5" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="109"/>
-      <c r="O5" s="109"/>
-      <c r="P5" s="110" t="s">
+      <c r="N5" s="146"/>
+      <c r="O5" s="146"/>
+      <c r="P5" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="S5" s="70"/>
+      <c r="S5" s="66"/>
     </row>
     <row r="6" spans="1:21" s="13" customFormat="1" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="104"/>
-      <c r="B6" s="105"/>
-      <c r="C6" s="104"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="92"/>
       <c r="D6" s="14" t="s">
         <v>10</v>
       </c>
@@ -2621,7 +2870,7 @@
       <c r="K6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="108"/>
+      <c r="L6" s="145"/>
       <c r="M6" s="17" t="s">
         <v>18</v>
       </c>
@@ -2631,370 +2880,370 @@
       <c r="O6" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="110"/>
-      <c r="S6" s="70"/>
+      <c r="P6" s="144"/>
+      <c r="S6" s="66"/>
       <c r="U6" s="4"/>
     </row>
     <row r="7" spans="1:21" s="4" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="85"/>
-      <c r="B7" s="92">
+      <c r="A7" s="95"/>
+      <c r="B7" s="98">
         <v>43881</v>
       </c>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85" t="s">
+      <c r="C7" s="95"/>
+      <c r="D7" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="85" t="s">
+      <c r="E7" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="85"/>
+      <c r="F7" s="95"/>
       <c r="G7" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="44">
+      <c r="H7" s="40">
         <f>8*12</f>
         <v>96</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="21">
         <v>485000</v>
       </c>
-      <c r="J7" s="45">
+      <c r="J7" s="41">
         <f>H7*I7</f>
         <v>46560000</v>
       </c>
-      <c r="K7" s="46">
+      <c r="K7" s="42">
         <v>0.5</v>
       </c>
-      <c r="L7" s="45">
+      <c r="L7" s="41">
         <f>J7*(1-K7)</f>
         <v>23280000</v>
       </c>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="48">
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="44">
         <f t="shared" ref="O7:O13" si="0">L7</f>
         <v>23280000</v>
       </c>
       <c r="P7" s="20"/>
-      <c r="S7" s="62"/>
+      <c r="S7" s="58"/>
     </row>
     <row r="8" spans="1:21" s="4" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="86"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="26" t="s">
+      <c r="A8" s="96"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="49">
+      <c r="H8" s="45">
         <f>8*12</f>
         <v>96</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="24">
         <v>465000</v>
       </c>
-      <c r="J8" s="50">
+      <c r="J8" s="46">
         <f>H8*I8</f>
         <v>44640000</v>
       </c>
-      <c r="K8" s="51">
+      <c r="K8" s="47">
         <v>0.5</v>
       </c>
-      <c r="L8" s="50">
+      <c r="L8" s="46">
         <f>J8*(1-K8)</f>
         <v>22320000</v>
       </c>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="53">
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="49">
         <f t="shared" si="0"/>
         <v>22320000</v>
       </c>
-      <c r="P8" s="26"/>
-      <c r="S8" s="62"/>
+      <c r="P8" s="23"/>
+      <c r="S8" s="58"/>
     </row>
     <row r="9" spans="1:21" s="4" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="86"/>
-      <c r="B9" s="93"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="26" t="s">
+      <c r="A9" s="96"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="49">
+      <c r="H9" s="45">
         <f>11*12</f>
         <v>132</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="24">
         <v>475000</v>
       </c>
-      <c r="J9" s="50">
+      <c r="J9" s="46">
         <f>H9*I9</f>
         <v>62700000</v>
       </c>
-      <c r="K9" s="51">
+      <c r="K9" s="47">
         <v>0.5</v>
       </c>
-      <c r="L9" s="50">
+      <c r="L9" s="46">
         <f>J9*(1-K9)</f>
         <v>31350000</v>
       </c>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="53">
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="49">
         <f t="shared" si="0"/>
         <v>31350000</v>
       </c>
-      <c r="P9" s="26"/>
-      <c r="S9" s="62"/>
+      <c r="P9" s="23"/>
+      <c r="S9" s="58"/>
     </row>
     <row r="10" spans="1:21" s="4" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="86"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="26" t="s">
+      <c r="A10" s="96"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="49">
+      <c r="H10" s="45">
         <f>9*12</f>
         <v>108</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I10" s="24">
         <v>455000</v>
       </c>
-      <c r="J10" s="50">
+      <c r="J10" s="46">
         <f>H10*I10</f>
         <v>49140000</v>
       </c>
-      <c r="K10" s="51">
+      <c r="K10" s="47">
         <v>0.5</v>
       </c>
-      <c r="L10" s="50">
+      <c r="L10" s="46">
         <f>J10*(1-K10)</f>
         <v>24570000</v>
       </c>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="53">
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="49">
         <f t="shared" si="0"/>
         <v>24570000</v>
       </c>
-      <c r="P10" s="26"/>
-      <c r="S10" s="62"/>
+      <c r="P10" s="23"/>
+      <c r="S10" s="58"/>
     </row>
     <row r="11" spans="1:21" s="4" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="86"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="32" t="s">
+      <c r="A11" s="96"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="54">
+      <c r="H11" s="50">
         <f>7*12</f>
         <v>84</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="29">
         <v>455000</v>
       </c>
-      <c r="J11" s="55">
+      <c r="J11" s="51">
         <f>H11*I11</f>
         <v>38220000</v>
       </c>
-      <c r="K11" s="56">
+      <c r="K11" s="52">
         <v>0.5</v>
       </c>
-      <c r="L11" s="55">
+      <c r="L11" s="51">
         <f>J11*(1-K11)</f>
         <v>19110000</v>
       </c>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="58">
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="54">
         <f t="shared" si="0"/>
         <v>19110000</v>
       </c>
-      <c r="P11" s="32"/>
-      <c r="S11" s="62"/>
+      <c r="P11" s="28"/>
+      <c r="S11" s="58"/>
     </row>
     <row r="12" spans="1:21" s="4" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="124"/>
-      <c r="B12" s="126">
+      <c r="A12" s="138"/>
+      <c r="B12" s="140">
         <v>44051</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124" t="s">
+      <c r="C12" s="138"/>
+      <c r="D12" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="124" t="s">
+      <c r="E12" s="138" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="124"/>
+      <c r="F12" s="138"/>
       <c r="G12" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="44">
+      <c r="H12" s="40">
         <v>12</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="21">
         <v>455000</v>
       </c>
-      <c r="J12" s="45">
+      <c r="J12" s="41">
         <f t="shared" ref="J12:J13" si="1">H12*I12</f>
         <v>5460000</v>
       </c>
-      <c r="K12" s="46">
+      <c r="K12" s="42">
         <v>0.5</v>
       </c>
-      <c r="L12" s="45">
+      <c r="L12" s="41">
         <f t="shared" ref="L12:L13" si="2">J12*(1-K12)</f>
         <v>2730000</v>
       </c>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="48">
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="44">
         <f t="shared" si="0"/>
         <v>2730000</v>
       </c>
       <c r="P12" s="20"/>
-      <c r="S12" s="62"/>
+      <c r="S12" s="58"/>
     </row>
     <row r="13" spans="1:21" s="4" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="125"/>
-      <c r="B13" s="127"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="28" t="s">
+      <c r="A13" s="139"/>
+      <c r="B13" s="141"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="64">
+      <c r="H13" s="60">
         <v>12</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="26">
         <v>455000</v>
       </c>
-      <c r="J13" s="65">
+      <c r="J13" s="61">
         <f t="shared" si="1"/>
         <v>5460000</v>
       </c>
-      <c r="K13" s="66">
+      <c r="K13" s="62">
         <v>0.5</v>
       </c>
-      <c r="L13" s="65">
+      <c r="L13" s="61">
         <f t="shared" si="2"/>
         <v>2730000</v>
       </c>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="68">
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="64">
         <f t="shared" si="0"/>
         <v>2730000</v>
       </c>
-      <c r="P13" s="28"/>
-      <c r="S13" s="62"/>
-    </row>
-    <row r="14" spans="1:21" s="36" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="91" t="s">
+      <c r="P13" s="25"/>
+      <c r="S13" s="58"/>
+    </row>
+    <row r="14" spans="1:21" s="32" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="91"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="34">
+      <c r="B14" s="85"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="30">
         <f>SUM(H7:H13)</f>
         <v>540</v>
       </c>
-      <c r="I14" s="35"/>
+      <c r="I14" s="31"/>
       <c r="J14" s="18">
         <f>SUM(J7:J13)</f>
         <v>252180000</v>
       </c>
-      <c r="K14" s="59"/>
+      <c r="K14" s="55"/>
       <c r="L14" s="18">
         <f>SUM(L7:L13)</f>
         <v>126090000</v>
       </c>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
       <c r="O14" s="18">
         <f>L14</f>
         <v>126090000</v>
       </c>
-      <c r="P14" s="34"/>
-      <c r="S14" s="71"/>
+      <c r="P14" s="30"/>
+      <c r="S14" s="67"/>
     </row>
     <row r="15" spans="1:21" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="62"/>
+      <c r="B15" s="58"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="61"/>
+      <c r="K15" s="57"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
-      <c r="S15" s="62"/>
+      <c r="S15" s="58"/>
     </row>
     <row r="16" spans="1:21" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="56" t="s">
         <v>41</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="61"/>
+      <c r="K16" s="57"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
-      <c r="S16" s="62"/>
+      <c r="S16" s="58"/>
     </row>
     <row r="17" spans="2:19" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="60" t="s">
-        <v>49</v>
+      <c r="B17" s="56" t="s">
+        <v>48</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="61"/>
+      <c r="K17" s="57"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
-      <c r="S17" s="62"/>
+      <c r="S17" s="58"/>
     </row>
     <row r="18" spans="2:19" s="4" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="140" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="141"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="145">
+      <c r="C18" s="150" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="151"/>
+      <c r="E18" s="151"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="147">
         <v>795560000</v>
       </c>
-      <c r="I18" s="146"/>
+      <c r="I18" s="148"/>
       <c r="J18" s="7"/>
-      <c r="K18" s="61"/>
+      <c r="K18" s="57"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
     </row>
     <row r="19" spans="2:19" s="4" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="62"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="120" t="s">
         <v>45</v>
       </c>
@@ -3002,13 +3251,13 @@
       <c r="E19" s="121"/>
       <c r="F19" s="121"/>
       <c r="G19" s="122"/>
-      <c r="H19" s="130">
+      <c r="H19" s="124">
         <f>H18/2</f>
         <v>397780000</v>
       </c>
-      <c r="I19" s="131"/>
+      <c r="I19" s="125"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="61"/>
+      <c r="K19" s="57"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
@@ -3024,50 +3273,50 @@
       <c r="E22" s="121"/>
       <c r="F22" s="121"/>
       <c r="G22" s="122"/>
-      <c r="H22" s="130">
+      <c r="H22" s="124">
         <f>H19-H27-H28</f>
         <v>97780000</v>
       </c>
-      <c r="I22" s="131"/>
-      <c r="J22" s="119" t="s">
-        <v>51</v>
-      </c>
-      <c r="K22" s="119"/>
-      <c r="L22" s="119"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="149" t="s">
+        <v>50</v>
+      </c>
+      <c r="K22" s="149"/>
+      <c r="L22" s="149"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
     </row>
     <row r="24" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K24" s="4"/>
-      <c r="L24" s="144" t="s">
+      <c r="L24" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="M24" s="144"/>
+      <c r="M24" s="128"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C25" s="120" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25" s="121"/>
       <c r="E25" s="121"/>
       <c r="F25" s="121"/>
       <c r="G25" s="122"/>
-      <c r="H25" s="117">
+      <c r="H25" s="123">
         <f>'hàng nhập'!J39</f>
         <v>702120000</v>
       </c>
-      <c r="I25" s="117"/>
-      <c r="K25" s="143" t="s">
-        <v>55</v>
-      </c>
-      <c r="L25" s="143"/>
+      <c r="I25" s="123"/>
+      <c r="K25" s="127" t="s">
+        <v>54</v>
+      </c>
+      <c r="L25" s="127"/>
     </row>
     <row r="26" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C26" s="120" t="s">
@@ -3077,192 +3326,192 @@
       <c r="E26" s="121"/>
       <c r="F26" s="121"/>
       <c r="G26" s="122"/>
-      <c r="H26" s="130">
+      <c r="H26" s="124">
         <f>H25/2</f>
         <v>351060000</v>
       </c>
-      <c r="I26" s="131"/>
-      <c r="L26" s="73">
+      <c r="I26" s="125"/>
+      <c r="L26" s="69">
         <v>43659</v>
       </c>
-      <c r="M26" s="74">
+      <c r="M26" s="70">
         <v>150000000</v>
       </c>
     </row>
     <row r="27" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C27" s="120" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D27" s="121"/>
       <c r="E27" s="121"/>
       <c r="F27" s="121"/>
       <c r="G27" s="122"/>
-      <c r="H27" s="118">
+      <c r="H27" s="126">
         <v>150000000</v>
       </c>
-      <c r="I27" s="118"/>
-      <c r="L27" s="73">
+      <c r="I27" s="126"/>
+      <c r="L27" s="69">
         <v>44037</v>
       </c>
-      <c r="M27" s="74">
+      <c r="M27" s="70">
         <v>150000000</v>
       </c>
     </row>
     <row r="28" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C28" s="120" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D28" s="121"/>
       <c r="E28" s="121"/>
       <c r="F28" s="121"/>
       <c r="G28" s="122"/>
-      <c r="H28" s="118">
+      <c r="H28" s="126">
         <v>150000000</v>
       </c>
-      <c r="I28" s="118"/>
-      <c r="L28" s="80" t="s">
-        <v>58</v>
-      </c>
-      <c r="M28" s="81">
+      <c r="I28" s="126"/>
+      <c r="L28" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="M28" s="77">
         <v>300000000</v>
       </c>
     </row>
     <row r="29" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C29" s="120" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D29" s="121"/>
       <c r="E29" s="121"/>
       <c r="F29" s="121"/>
       <c r="G29" s="122"/>
-      <c r="H29" s="118">
+      <c r="H29" s="126">
         <v>97780000</v>
       </c>
-      <c r="I29" s="118"/>
-      <c r="K29" s="143" t="s">
-        <v>56</v>
-      </c>
-      <c r="L29" s="143"/>
+      <c r="I29" s="126"/>
+      <c r="K29" s="127" t="s">
+        <v>55</v>
+      </c>
+      <c r="L29" s="127"/>
     </row>
     <row r="30" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="77">
+      <c r="D30" s="73">
         <v>44041</v>
       </c>
-      <c r="E30" s="138">
+      <c r="E30" s="136">
         <v>67000000</v>
       </c>
-      <c r="F30" s="139"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="132">
+      <c r="F30" s="137"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="130">
         <f>E30+E31+E32+E33</f>
         <v>317000000</v>
       </c>
-      <c r="I30" s="133"/>
-      <c r="L30" s="73">
+      <c r="I30" s="131"/>
+      <c r="L30" s="69">
         <v>43675</v>
       </c>
-      <c r="M30" s="74">
+      <c r="M30" s="70">
         <v>67000000</v>
       </c>
     </row>
     <row r="31" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="129"/>
-      <c r="D31" s="77">
+      <c r="D31" s="73">
         <v>44046</v>
       </c>
-      <c r="E31" s="138">
+      <c r="E31" s="136">
         <v>50000000</v>
       </c>
-      <c r="F31" s="139"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="134"/>
-      <c r="I31" s="135"/>
-      <c r="L31" s="73">
+      <c r="F31" s="137"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="132"/>
+      <c r="I31" s="133"/>
+      <c r="L31" s="69">
         <v>44046</v>
       </c>
-      <c r="M31" s="74">
+      <c r="M31" s="70">
         <v>50000000</v>
       </c>
     </row>
     <row r="32" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="129"/>
-      <c r="D32" s="77">
+      <c r="D32" s="73">
         <v>44053</v>
       </c>
-      <c r="E32" s="138">
+      <c r="E32" s="136">
         <v>100000000</v>
       </c>
-      <c r="F32" s="139"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="134"/>
-      <c r="I32" s="135"/>
-      <c r="L32" s="73">
+      <c r="F32" s="137"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="132"/>
+      <c r="I32" s="133"/>
+      <c r="L32" s="69">
         <v>44053</v>
       </c>
-      <c r="M32" s="74">
+      <c r="M32" s="70">
         <v>100000000</v>
       </c>
     </row>
     <row r="33" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C33" s="129"/>
-      <c r="D33" s="77">
+      <c r="D33" s="73">
         <v>44061</v>
       </c>
-      <c r="E33" s="138">
+      <c r="E33" s="136">
         <v>100000000</v>
       </c>
-      <c r="F33" s="139"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="136"/>
-      <c r="I33" s="137"/>
-      <c r="L33" s="73">
+      <c r="F33" s="137"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="134"/>
+      <c r="I33" s="135"/>
+      <c r="L33" s="69">
         <v>44061</v>
       </c>
-      <c r="M33" s="74">
+      <c r="M33" s="70">
         <v>100000000</v>
       </c>
     </row>
     <row r="34" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C34" s="78" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="128">
+      <c r="C34" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="119">
         <f>-(H26+H29-H27-H28-H30)</f>
         <v>168160000</v>
       </c>
-      <c r="I34" s="128"/>
-      <c r="L34" s="80" t="s">
-        <v>57</v>
-      </c>
-      <c r="M34" s="81">
+      <c r="I34" s="119"/>
+      <c r="L34" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="M34" s="77">
         <f>M30+M31+M32+M33</f>
         <v>317000000</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C37" s="120" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D37" s="121"/>
       <c r="E37" s="121"/>
       <c r="F37" s="121"/>
       <c r="G37" s="122"/>
-      <c r="H37" s="117">
+      <c r="H37" s="123">
         <v>303000000</v>
       </c>
-      <c r="I37" s="117"/>
+      <c r="I37" s="123"/>
     </row>
     <row r="38" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C38" s="120" t="s">
@@ -3272,54 +3521,72 @@
       <c r="E38" s="121"/>
       <c r="F38" s="121"/>
       <c r="G38" s="122"/>
-      <c r="H38" s="130">
+      <c r="H38" s="124">
         <f>H37/2</f>
         <v>151500000</v>
       </c>
-      <c r="I38" s="131"/>
+      <c r="I38" s="125"/>
     </row>
     <row r="39" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C39" s="120" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D39" s="121"/>
       <c r="E39" s="121"/>
       <c r="F39" s="121"/>
       <c r="G39" s="122"/>
-      <c r="H39" s="118">
+      <c r="H39" s="126">
         <f>H34</f>
         <v>168160000</v>
       </c>
-      <c r="I39" s="118"/>
+      <c r="I39" s="126"/>
     </row>
     <row r="40" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C40" s="78" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="128">
+      <c r="C40" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="119">
         <f>-(H38-H39)</f>
         <v>16660000</v>
       </c>
-      <c r="I40" s="128"/>
+      <c r="I40" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="H34:I34"/>
     <mergeCell ref="C30:C33"/>
@@ -3334,36 +3601,18 @@
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C29:G29"/>
-    <mergeCell ref="F7:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:I39"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/CHỊ TUYẾT SÀI GÒN/công nợ chị tuyết TPHCM.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/CHỊ TUYẾT SÀI GÒN/công nợ chị tuyết TPHCM.xlsx
@@ -774,165 +774,6 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -964,24 +805,6 @@
     <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -998,57 +821,21 @@
     <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="17" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="17" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="17" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1056,86 +843,29 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="17" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="17" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="17" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="17" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1149,6 +879,276 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1455,1006 +1455,1029 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="122" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="199" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="122" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="122" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="122" customWidth="1"/>
-    <col min="6" max="6" width="9" style="122" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="173" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22" style="173" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="122"/>
-    <col min="10" max="10" width="16.7109375" style="122" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="122"/>
-    <col min="13" max="13" width="19" style="122" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="122"/>
+    <col min="1" max="1" width="6.140625" style="69" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="109" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="69" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="69" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="69" customWidth="1"/>
+    <col min="6" max="6" width="9" style="69" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="96" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" style="96" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="69"/>
+    <col min="10" max="10" width="16.7109375" style="69" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="69"/>
+    <col min="13" max="13" width="19" style="69" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="69"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="131"/>
-      <c r="B4" s="131"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="132"/>
-    </row>
-    <row r="5" spans="1:13" s="136" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="133" t="s">
+      <c r="A4" s="133"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="134"/>
+    </row>
+    <row r="5" spans="1:13" s="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="134" t="s">
+      <c r="B5" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="133" t="s">
+      <c r="C5" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="133"/>
-      <c r="E5" s="135" t="s">
+      <c r="D5" s="135"/>
+      <c r="E5" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-    </row>
-    <row r="6" spans="1:13" s="136" customFormat="1" ht="75" x14ac:dyDescent="0.3">
-      <c r="A6" s="133"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="137" t="s">
+      <c r="F5" s="137"/>
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+    </row>
+    <row r="6" spans="1:13" s="77" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="135"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="138" t="s">
+      <c r="E6" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="139" t="s">
+      <c r="F6" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="140" t="s">
+      <c r="G6" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="141" t="s">
+      <c r="H6" s="82" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="136" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="142" t="s">
+    <row r="7" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="143">
+      <c r="B7" s="138">
         <v>43881</v>
       </c>
-      <c r="C7" s="144" t="s">
+      <c r="C7" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="144" t="s">
+      <c r="D7" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="145" t="s">
+      <c r="E7" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="146">
+      <c r="F7" s="84">
         <v>4</v>
       </c>
-      <c r="G7" s="147">
+      <c r="G7" s="85">
         <v>485000</v>
       </c>
-      <c r="H7" s="147">
+      <c r="H7" s="85">
         <f>F7*G7</f>
         <v>1940000</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="136" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="148"/>
-      <c r="B8" s="149"/>
-      <c r="C8" s="150"/>
-      <c r="D8" s="150"/>
-      <c r="E8" s="151" t="s">
+    <row r="8" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="130"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="152">
+      <c r="F8" s="87">
         <v>4</v>
       </c>
-      <c r="G8" s="153">
+      <c r="G8" s="88">
         <v>465000</v>
       </c>
-      <c r="H8" s="153">
+      <c r="H8" s="88">
         <f>F8*G8</f>
         <v>1860000</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="136" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="148"/>
-      <c r="B9" s="149"/>
-      <c r="C9" s="150"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="151" t="s">
+    <row r="9" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="130"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="152">
+      <c r="F9" s="87">
         <v>1</v>
       </c>
-      <c r="G9" s="153">
+      <c r="G9" s="88">
         <v>475000</v>
       </c>
-      <c r="H9" s="153">
+      <c r="H9" s="88">
         <f>F9*G9</f>
         <v>475000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="136" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="148"/>
-      <c r="B10" s="149"/>
-      <c r="C10" s="150"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="151" t="s">
+    <row r="10" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="130"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="152">
+      <c r="F10" s="87">
         <v>3</v>
       </c>
-      <c r="G10" s="153">
+      <c r="G10" s="88">
         <v>455000</v>
       </c>
-      <c r="H10" s="153">
+      <c r="H10" s="88">
         <f>F10*G10</f>
         <v>1365000</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="136" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="154"/>
-      <c r="B11" s="155"/>
-      <c r="C11" s="156"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="157" t="s">
+    <row r="11" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="127"/>
+      <c r="B11" s="140"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="158">
+      <c r="F11" s="90">
         <v>5</v>
       </c>
-      <c r="G11" s="159">
+      <c r="G11" s="91">
         <v>455000</v>
       </c>
-      <c r="H11" s="159">
+      <c r="H11" s="91">
         <f>F11*G11</f>
         <v>2275000</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="136" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="160" t="s">
+    <row r="12" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="161"/>
-      <c r="C12" s="161"/>
-      <c r="D12" s="161"/>
-      <c r="E12" s="162"/>
-      <c r="F12" s="163">
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="92">
         <f>SUM(F7:F11)</f>
         <v>17</v>
       </c>
-      <c r="G12" s="164"/>
-      <c r="H12" s="165">
+      <c r="G12" s="93"/>
+      <c r="H12" s="94">
         <f>SUM(H7:H11)</f>
         <v>7915000</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="166" t="s">
+      <c r="A13" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="167">
+      <c r="B13" s="147">
         <v>43915</v>
       </c>
-      <c r="C13" s="168" t="s">
+      <c r="C13" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="168" t="s">
+      <c r="D13" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="145" t="s">
+      <c r="E13" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="145">
+      <c r="F13" s="83">
         <v>25</v>
       </c>
-      <c r="G13" s="147">
+      <c r="G13" s="85">
         <v>265000</v>
       </c>
-      <c r="H13" s="147">
+      <c r="H13" s="85">
         <f t="shared" ref="H13:H21" si="0">F13*G13</f>
         <v>6625000</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="169"/>
-      <c r="B14" s="170"/>
-      <c r="C14" s="171"/>
-      <c r="D14" s="171"/>
-      <c r="E14" s="151" t="s">
+      <c r="A14" s="145"/>
+      <c r="B14" s="148"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="151">
+      <c r="F14" s="86">
         <v>13</v>
       </c>
-      <c r="G14" s="153">
+      <c r="G14" s="88">
         <v>465000</v>
       </c>
-      <c r="H14" s="153">
+      <c r="H14" s="88">
         <f t="shared" si="0"/>
         <v>6045000</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="169"/>
-      <c r="B15" s="170"/>
-      <c r="C15" s="171"/>
-      <c r="D15" s="171"/>
-      <c r="E15" s="151" t="s">
+      <c r="A15" s="145"/>
+      <c r="B15" s="148"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="151">
+      <c r="F15" s="86">
         <v>36</v>
       </c>
-      <c r="G15" s="153">
+      <c r="G15" s="88">
         <v>475000</v>
       </c>
-      <c r="H15" s="153">
+      <c r="H15" s="88">
         <f t="shared" si="0"/>
         <v>17100000</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="169"/>
-      <c r="B16" s="170"/>
-      <c r="C16" s="171"/>
-      <c r="D16" s="171"/>
-      <c r="E16" s="151" t="s">
+      <c r="A16" s="145"/>
+      <c r="B16" s="148"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="151">
+      <c r="F16" s="86">
         <v>34</v>
       </c>
-      <c r="G16" s="153">
+      <c r="G16" s="88">
         <v>485000</v>
       </c>
-      <c r="H16" s="153">
+      <c r="H16" s="88">
         <f t="shared" si="0"/>
         <v>16490000</v>
       </c>
-      <c r="M16" s="172"/>
+      <c r="M16" s="95"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="169"/>
-      <c r="B17" s="170"/>
-      <c r="C17" s="171"/>
-      <c r="D17" s="171"/>
-      <c r="E17" s="151" t="s">
+      <c r="A17" s="145"/>
+      <c r="B17" s="148"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="151">
+      <c r="F17" s="86">
         <v>24</v>
       </c>
-      <c r="G17" s="153">
+      <c r="G17" s="88">
         <v>485000</v>
       </c>
-      <c r="H17" s="153">
+      <c r="H17" s="88">
         <f t="shared" si="0"/>
         <v>11640000</v>
       </c>
-      <c r="M17" s="173"/>
+      <c r="M17" s="96"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="169"/>
-      <c r="B18" s="170"/>
-      <c r="C18" s="171"/>
-      <c r="D18" s="171"/>
-      <c r="E18" s="151" t="s">
+      <c r="A18" s="145"/>
+      <c r="B18" s="148"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="151">
+      <c r="F18" s="86">
         <v>72</v>
       </c>
-      <c r="G18" s="153">
+      <c r="G18" s="88">
         <v>550000</v>
       </c>
-      <c r="H18" s="153">
+      <c r="H18" s="88">
         <f t="shared" si="0"/>
         <v>39600000</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="169"/>
-      <c r="B19" s="170"/>
-      <c r="C19" s="171"/>
-      <c r="D19" s="171"/>
-      <c r="E19" s="151" t="s">
+      <c r="A19" s="145"/>
+      <c r="B19" s="148"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="151">
+      <c r="F19" s="86">
         <v>56</v>
       </c>
-      <c r="G19" s="153">
+      <c r="G19" s="88">
         <v>450000</v>
       </c>
-      <c r="H19" s="153">
+      <c r="H19" s="88">
         <f t="shared" si="0"/>
         <v>25200000</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="169"/>
-      <c r="B20" s="170"/>
-      <c r="C20" s="171"/>
-      <c r="D20" s="171"/>
-      <c r="E20" s="151" t="s">
+      <c r="A20" s="145"/>
+      <c r="B20" s="148"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="151">
+      <c r="F20" s="86">
         <v>36</v>
       </c>
-      <c r="G20" s="153">
+      <c r="G20" s="88">
         <v>455000</v>
       </c>
-      <c r="H20" s="153">
+      <c r="H20" s="88">
         <f t="shared" si="0"/>
         <v>16380000</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="174"/>
-      <c r="B21" s="175"/>
-      <c r="C21" s="176"/>
-      <c r="D21" s="176"/>
-      <c r="E21" s="177" t="s">
+      <c r="A21" s="146"/>
+      <c r="B21" s="149"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="177">
+      <c r="F21" s="97">
         <v>12</v>
       </c>
-      <c r="G21" s="178">
+      <c r="G21" s="98">
         <v>455000</v>
       </c>
-      <c r="H21" s="178">
+      <c r="H21" s="98">
         <f t="shared" si="0"/>
         <v>5460000</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="180" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="160" t="s">
+    <row r="22" spans="1:13" s="100" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="161"/>
-      <c r="C22" s="161"/>
-      <c r="D22" s="161"/>
-      <c r="E22" s="162"/>
-      <c r="F22" s="179">
+      <c r="B22" s="117"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="99">
         <f>SUM(F13:F21)</f>
         <v>308</v>
       </c>
-      <c r="G22" s="165"/>
-      <c r="H22" s="165">
+      <c r="G22" s="94"/>
+      <c r="H22" s="94">
         <f>SUM(H13:H21)</f>
         <v>144540000</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="168" t="s">
+      <c r="A23" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="181">
+      <c r="B23" s="141">
         <v>43916</v>
       </c>
-      <c r="C23" s="168" t="s">
+      <c r="C23" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="168" t="s">
+      <c r="D23" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="145" t="s">
+      <c r="E23" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="145">
+      <c r="F23" s="83">
         <v>36</v>
       </c>
-      <c r="G23" s="147">
+      <c r="G23" s="85">
         <v>455000</v>
       </c>
-      <c r="H23" s="147">
+      <c r="H23" s="85">
         <f t="shared" ref="H23:H29" si="1">G23*F23</f>
         <v>16380000</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="171"/>
-      <c r="B24" s="182"/>
-      <c r="C24" s="171"/>
-      <c r="D24" s="171"/>
-      <c r="E24" s="151" t="s">
+      <c r="A24" s="114"/>
+      <c r="B24" s="142"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="151">
+      <c r="F24" s="86">
         <v>36</v>
       </c>
-      <c r="G24" s="153">
+      <c r="G24" s="88">
         <v>475000</v>
       </c>
-      <c r="H24" s="153">
+      <c r="H24" s="88">
         <f t="shared" si="1"/>
         <v>17100000</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="171"/>
-      <c r="B25" s="182"/>
-      <c r="C25" s="171"/>
-      <c r="D25" s="171"/>
-      <c r="E25" s="151" t="s">
+      <c r="A25" s="114"/>
+      <c r="B25" s="142"/>
+      <c r="C25" s="114"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="151">
+      <c r="F25" s="86">
         <v>36</v>
       </c>
-      <c r="G25" s="153">
+      <c r="G25" s="88">
         <v>485000</v>
       </c>
-      <c r="H25" s="153">
+      <c r="H25" s="88">
         <f t="shared" si="1"/>
         <v>17460000</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="171"/>
-      <c r="B26" s="182"/>
-      <c r="C26" s="171"/>
-      <c r="D26" s="171"/>
-      <c r="E26" s="151" t="s">
+      <c r="A26" s="114"/>
+      <c r="B26" s="142"/>
+      <c r="C26" s="114"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="151">
+      <c r="F26" s="86">
         <v>36</v>
       </c>
-      <c r="G26" s="153">
+      <c r="G26" s="88">
         <v>485000</v>
       </c>
-      <c r="H26" s="153">
+      <c r="H26" s="88">
         <f t="shared" si="1"/>
         <v>17460000</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="171"/>
-      <c r="B27" s="182"/>
-      <c r="C27" s="171"/>
-      <c r="D27" s="171"/>
-      <c r="E27" s="151" t="s">
+      <c r="A27" s="114"/>
+      <c r="B27" s="142"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="151">
+      <c r="F27" s="86">
         <v>72</v>
       </c>
-      <c r="G27" s="153">
+      <c r="G27" s="88">
         <v>550000</v>
       </c>
-      <c r="H27" s="153">
+      <c r="H27" s="88">
         <f t="shared" si="1"/>
         <v>39600000</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="171"/>
-      <c r="B28" s="182"/>
-      <c r="C28" s="171"/>
-      <c r="D28" s="171"/>
-      <c r="E28" s="151" t="s">
+      <c r="A28" s="114"/>
+      <c r="B28" s="142"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="151">
+      <c r="F28" s="86">
         <v>36</v>
       </c>
-      <c r="G28" s="153">
+      <c r="G28" s="88">
         <v>455000</v>
       </c>
-      <c r="H28" s="153">
+      <c r="H28" s="88">
         <f t="shared" si="1"/>
         <v>16380000</v>
       </c>
-      <c r="J28" s="172"/>
+      <c r="J28" s="95"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="176"/>
-      <c r="B29" s="183"/>
-      <c r="C29" s="176"/>
-      <c r="D29" s="176"/>
-      <c r="E29" s="157" t="s">
+      <c r="A29" s="115"/>
+      <c r="B29" s="143"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="157">
+      <c r="F29" s="89">
         <v>36</v>
       </c>
-      <c r="G29" s="159">
+      <c r="G29" s="91">
         <v>455000</v>
       </c>
-      <c r="H29" s="159">
+      <c r="H29" s="91">
         <f t="shared" si="1"/>
         <v>16380000</v>
       </c>
-      <c r="J29" s="172"/>
-    </row>
-    <row r="30" spans="1:13" s="180" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="184" t="s">
+      <c r="J29" s="95"/>
+    </row>
+    <row r="30" spans="1:13" s="100" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="184"/>
-      <c r="C30" s="184"/>
-      <c r="D30" s="184"/>
-      <c r="E30" s="184"/>
-      <c r="F30" s="179">
+      <c r="B30" s="122"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="99">
         <f>SUM(F23:F29)</f>
         <v>288</v>
       </c>
-      <c r="G30" s="165"/>
-      <c r="H30" s="165">
+      <c r="G30" s="94"/>
+      <c r="H30" s="94">
         <f>SUM(H23:H29)</f>
         <v>140760000</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="166" t="s">
+      <c r="A31" s="144" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="167">
+      <c r="B31" s="147">
         <v>44032</v>
       </c>
-      <c r="C31" s="168" t="s">
+      <c r="C31" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="168" t="s">
+      <c r="D31" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="145" t="s">
+      <c r="E31" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="145">
+      <c r="F31" s="83">
         <v>300</v>
       </c>
-      <c r="G31" s="147">
+      <c r="G31" s="85">
         <v>455000</v>
       </c>
-      <c r="H31" s="147">
+      <c r="H31" s="85">
         <f t="shared" ref="H31:H38" si="2">F31*G31</f>
         <v>136500000</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="169"/>
-      <c r="B32" s="170"/>
-      <c r="C32" s="171"/>
-      <c r="D32" s="171"/>
-      <c r="E32" s="151" t="s">
+      <c r="A32" s="145"/>
+      <c r="B32" s="148"/>
+      <c r="C32" s="114"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="151">
+      <c r="F32" s="86">
         <v>180</v>
       </c>
-      <c r="G32" s="153">
+      <c r="G32" s="88">
         <v>465000</v>
       </c>
-      <c r="H32" s="153">
+      <c r="H32" s="88">
         <f t="shared" si="2"/>
         <v>83700000</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="169"/>
-      <c r="B33" s="170"/>
-      <c r="C33" s="171"/>
-      <c r="D33" s="171"/>
-      <c r="E33" s="151" t="s">
+      <c r="A33" s="145"/>
+      <c r="B33" s="148"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="151">
+      <c r="F33" s="86">
         <v>120</v>
       </c>
-      <c r="G33" s="153">
+      <c r="G33" s="88">
         <v>475000</v>
       </c>
-      <c r="H33" s="153">
+      <c r="H33" s="88">
         <f t="shared" si="2"/>
         <v>57000000</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="169"/>
-      <c r="B34" s="170"/>
-      <c r="C34" s="171"/>
-      <c r="D34" s="171"/>
-      <c r="E34" s="151" t="s">
+      <c r="A34" s="145"/>
+      <c r="B34" s="148"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="151">
+      <c r="F34" s="86">
         <v>240</v>
       </c>
-      <c r="G34" s="153">
+      <c r="G34" s="88">
         <v>485000</v>
       </c>
-      <c r="H34" s="153">
+      <c r="H34" s="88">
         <f t="shared" si="2"/>
         <v>116400000</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="169"/>
-      <c r="B35" s="170"/>
-      <c r="C35" s="171"/>
-      <c r="D35" s="171"/>
-      <c r="E35" s="151" t="s">
+      <c r="A35" s="145"/>
+      <c r="B35" s="148"/>
+      <c r="C35" s="114"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="151">
+      <c r="F35" s="86">
         <v>60</v>
       </c>
-      <c r="G35" s="153">
+      <c r="G35" s="88">
         <v>485000</v>
       </c>
-      <c r="H35" s="153">
+      <c r="H35" s="88">
         <f t="shared" si="2"/>
         <v>29100000</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="169"/>
-      <c r="B36" s="170"/>
-      <c r="C36" s="171"/>
-      <c r="D36" s="171"/>
-      <c r="E36" s="151" t="s">
+      <c r="A36" s="145"/>
+      <c r="B36" s="148"/>
+      <c r="C36" s="114"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="F36" s="151">
+      <c r="F36" s="86">
         <v>240</v>
       </c>
-      <c r="G36" s="153">
+      <c r="G36" s="88">
         <v>550000</v>
       </c>
-      <c r="H36" s="153">
+      <c r="H36" s="88">
         <f t="shared" si="2"/>
         <v>132000000</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="169"/>
-      <c r="B37" s="170"/>
-      <c r="C37" s="171"/>
-      <c r="D37" s="171"/>
-      <c r="E37" s="151" t="s">
+      <c r="A37" s="145"/>
+      <c r="B37" s="148"/>
+      <c r="C37" s="114"/>
+      <c r="D37" s="114"/>
+      <c r="E37" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="151">
+      <c r="F37" s="86">
         <v>84</v>
       </c>
-      <c r="G37" s="153">
+      <c r="G37" s="88">
         <v>455000</v>
       </c>
-      <c r="H37" s="153">
+      <c r="H37" s="88">
         <f t="shared" si="2"/>
         <v>38220000</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="174"/>
-      <c r="B38" s="175"/>
-      <c r="C38" s="176"/>
-      <c r="D38" s="176"/>
-      <c r="E38" s="157" t="s">
+      <c r="A38" s="146"/>
+      <c r="B38" s="149"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="115"/>
+      <c r="E38" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="157">
+      <c r="F38" s="89">
         <v>240</v>
       </c>
-      <c r="G38" s="159">
+      <c r="G38" s="91">
         <v>455000</v>
       </c>
-      <c r="H38" s="159">
+      <c r="H38" s="91">
         <f t="shared" si="2"/>
         <v>109200000</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="180" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="184" t="s">
+    <row r="39" spans="1:8" s="100" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="184"/>
-      <c r="C39" s="184"/>
-      <c r="D39" s="184"/>
-      <c r="E39" s="184"/>
-      <c r="F39" s="179">
+      <c r="B39" s="122"/>
+      <c r="C39" s="122"/>
+      <c r="D39" s="122"/>
+      <c r="E39" s="122"/>
+      <c r="F39" s="99">
         <f>SUM(F31:F38)</f>
         <v>1464</v>
       </c>
-      <c r="G39" s="165"/>
-      <c r="H39" s="165">
+      <c r="G39" s="94"/>
+      <c r="H39" s="94">
         <f>SUM(H31:H38)</f>
         <v>702120000</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="180" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="200"/>
-      <c r="B40" s="200"/>
-      <c r="C40" s="200"/>
-      <c r="D40" s="200"/>
-      <c r="E40" s="200"/>
-      <c r="F40" s="201"/>
-      <c r="G40" s="202"/>
-      <c r="H40" s="202"/>
-    </row>
-    <row r="41" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="142">
+    <row r="40" spans="1:8" s="100" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="110"/>
+      <c r="B40" s="110"/>
+      <c r="C40" s="110"/>
+      <c r="D40" s="110"/>
+      <c r="E40" s="110"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="112"/>
+      <c r="H40" s="112"/>
+    </row>
+    <row r="41" spans="1:8" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="126">
         <v>757</v>
       </c>
-      <c r="B41" s="185">
+      <c r="B41" s="128">
         <v>44061</v>
       </c>
-      <c r="C41" s="142" t="s">
+      <c r="C41" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="142" t="s">
+      <c r="D41" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="E41" s="186" t="s">
+      <c r="E41" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="F41" s="186">
+      <c r="F41" s="101">
         <v>156</v>
       </c>
-      <c r="G41" s="187">
+      <c r="G41" s="102">
         <v>455000</v>
       </c>
-      <c r="H41" s="187">
+      <c r="H41" s="102">
         <f t="shared" ref="H41:H46" si="3">F41*G41</f>
         <v>70980000</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="148"/>
-      <c r="B42" s="188"/>
-      <c r="C42" s="148"/>
-      <c r="D42" s="148"/>
-      <c r="E42" s="189" t="s">
+    <row r="42" spans="1:8" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="130"/>
+      <c r="B42" s="131"/>
+      <c r="C42" s="130"/>
+      <c r="D42" s="130"/>
+      <c r="E42" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="F42" s="189">
+      <c r="F42" s="103">
         <v>48</v>
       </c>
-      <c r="G42" s="190">
+      <c r="G42" s="104">
         <v>465000</v>
       </c>
-      <c r="H42" s="190">
+      <c r="H42" s="104">
         <f t="shared" si="3"/>
         <v>22320000</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="128" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="148"/>
-      <c r="B43" s="188"/>
-      <c r="C43" s="148"/>
-      <c r="D43" s="148"/>
-      <c r="E43" s="189" t="s">
+    <row r="43" spans="1:8" s="75" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="130"/>
+      <c r="B43" s="131"/>
+      <c r="C43" s="130"/>
+      <c r="D43" s="130"/>
+      <c r="E43" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="F43" s="189">
+      <c r="F43" s="103">
         <v>96</v>
       </c>
-      <c r="G43" s="190">
+      <c r="G43" s="104">
         <v>475000</v>
       </c>
-      <c r="H43" s="190">
+      <c r="H43" s="104">
         <f t="shared" si="3"/>
         <v>45600000</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="148"/>
-      <c r="B44" s="188"/>
-      <c r="C44" s="148"/>
-      <c r="D44" s="148"/>
-      <c r="E44" s="189" t="s">
+    <row r="44" spans="1:8" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="130"/>
+      <c r="B44" s="131"/>
+      <c r="C44" s="130"/>
+      <c r="D44" s="130"/>
+      <c r="E44" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="F44" s="189">
+      <c r="F44" s="103">
         <v>192</v>
       </c>
-      <c r="G44" s="190">
+      <c r="G44" s="104">
         <v>485000</v>
       </c>
-      <c r="H44" s="190">
+      <c r="H44" s="104">
         <f t="shared" si="3"/>
         <v>93120000</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="128" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="148"/>
-      <c r="B45" s="188"/>
-      <c r="C45" s="148"/>
-      <c r="D45" s="148"/>
-      <c r="E45" s="189" t="s">
+    <row r="45" spans="1:8" s="75" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="130"/>
+      <c r="B45" s="131"/>
+      <c r="C45" s="130"/>
+      <c r="D45" s="130"/>
+      <c r="E45" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="F45" s="189">
+      <c r="F45" s="103">
         <v>72</v>
       </c>
-      <c r="G45" s="190">
+      <c r="G45" s="104">
         <v>455000</v>
       </c>
-      <c r="H45" s="190">
+      <c r="H45" s="104">
         <f t="shared" si="3"/>
         <v>32760000</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="128" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="154"/>
-      <c r="B46" s="191"/>
-      <c r="C46" s="154"/>
-      <c r="D46" s="154"/>
-      <c r="E46" s="192" t="s">
+    <row r="46" spans="1:8" s="75" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="127"/>
+      <c r="B46" s="129"/>
+      <c r="C46" s="127"/>
+      <c r="D46" s="127"/>
+      <c r="E46" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="192">
+      <c r="F46" s="105">
         <v>84</v>
       </c>
-      <c r="G46" s="193">
+      <c r="G46" s="106">
         <v>455000</v>
       </c>
-      <c r="H46" s="193">
+      <c r="H46" s="106">
         <f t="shared" si="3"/>
         <v>38220000</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="180" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="184" t="s">
+    <row r="47" spans="1:8" s="100" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="122" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="184"/>
-      <c r="C47" s="184"/>
-      <c r="D47" s="184"/>
-      <c r="E47" s="184"/>
-      <c r="F47" s="179">
+      <c r="B47" s="122"/>
+      <c r="C47" s="122"/>
+      <c r="D47" s="122"/>
+      <c r="E47" s="122"/>
+      <c r="F47" s="99">
         <f>SUM(F41:F46)</f>
         <v>648</v>
       </c>
-      <c r="G47" s="165"/>
-      <c r="H47" s="165">
+      <c r="G47" s="94"/>
+      <c r="H47" s="94">
         <f>SUM(H41:H46)</f>
         <v>303000000</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="142">
+    <row r="48" spans="1:8" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="126">
         <v>773</v>
       </c>
-      <c r="B48" s="185">
+      <c r="B48" s="128">
         <v>44066</v>
       </c>
-      <c r="C48" s="142" t="s">
+      <c r="C48" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="142" t="s">
+      <c r="D48" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="E48" s="186" t="s">
+      <c r="E48" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="F48" s="186">
+      <c r="F48" s="101">
         <v>600</v>
       </c>
-      <c r="G48" s="187">
+      <c r="G48" s="102">
         <v>475000</v>
       </c>
-      <c r="H48" s="187">
+      <c r="H48" s="102">
         <f>F48*G48</f>
         <v>285000000</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="154"/>
-      <c r="B49" s="191"/>
-      <c r="C49" s="154"/>
-      <c r="D49" s="154"/>
-      <c r="E49" s="192" t="s">
+      <c r="A49" s="127"/>
+      <c r="B49" s="129"/>
+      <c r="C49" s="127"/>
+      <c r="D49" s="127"/>
+      <c r="E49" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="F49" s="192">
+      <c r="F49" s="105">
         <v>120</v>
       </c>
-      <c r="G49" s="193">
+      <c r="G49" s="106">
         <v>255000</v>
       </c>
-      <c r="H49" s="193">
+      <c r="H49" s="106">
         <f>F49*G49</f>
         <v>30600000</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="180" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="184" t="s">
+    <row r="50" spans="1:8" s="100" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="122" t="s">
         <v>71</v>
       </c>
-      <c r="B50" s="184"/>
-      <c r="C50" s="184"/>
-      <c r="D50" s="184"/>
-      <c r="E50" s="184"/>
-      <c r="F50" s="179">
+      <c r="B50" s="122"/>
+      <c r="C50" s="122"/>
+      <c r="D50" s="122"/>
+      <c r="E50" s="122"/>
+      <c r="F50" s="99">
         <f>F48+F49</f>
         <v>720</v>
       </c>
-      <c r="G50" s="165"/>
-      <c r="H50" s="165">
+      <c r="G50" s="94"/>
+      <c r="H50" s="94">
         <f>SUM(H48:H49)</f>
         <v>315600000</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="194" t="s">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="123" t="s">
         <v>72</v>
       </c>
-      <c r="B51" s="195"/>
-      <c r="C51" s="195"/>
-      <c r="D51" s="195"/>
-      <c r="E51" s="196"/>
-      <c r="F51" s="197">
+      <c r="B59" s="124"/>
+      <c r="C59" s="124"/>
+      <c r="D59" s="124"/>
+      <c r="E59" s="125"/>
+      <c r="F59" s="107">
         <f>F30+F22+F12+F39+F47+F50</f>
         <v>3445</v>
       </c>
-      <c r="G51" s="198"/>
-      <c r="H51" s="198">
+      <c r="G59" s="108"/>
+      <c r="H59" s="108">
         <f>H30+H22+H12+H39+H47+H50</f>
         <v>1613935000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A31:A38"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="A50:E50"/>
     <mergeCell ref="C31:C38"/>
     <mergeCell ref="D31:D38"/>
     <mergeCell ref="A12:E12"/>
@@ -2465,29 +2488,6 @@
     <mergeCell ref="D13:D21"/>
     <mergeCell ref="C23:C29"/>
     <mergeCell ref="D23:D29"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="B41:B46"/>
-    <mergeCell ref="C41:C46"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A31:A38"/>
     <mergeCell ref="B31:B38"/>
     <mergeCell ref="A13:A21"/>
     <mergeCell ref="B13:B21"/>
@@ -2502,7 +2502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="H30" sqref="H30:I33"/>
     </sheetView>
   </sheetViews>
@@ -2516,7 +2516,7 @@
     <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.42578125" customWidth="1"/>
     <col min="11" max="11" width="6" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
     <col min="13" max="13" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" customWidth="1"/>
     <col min="15" max="15" width="17.7109375" customWidth="1"/>
@@ -2543,24 +2543,24 @@
       <c r="S2" s="50"/>
     </row>
     <row r="3" spans="1:21" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="164" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="164"/>
+      <c r="K3" s="164"/>
+      <c r="L3" s="164"/>
+      <c r="M3" s="164"/>
+      <c r="N3" s="164"/>
+      <c r="O3" s="164"/>
+      <c r="P3" s="164"/>
       <c r="S3" s="50"/>
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -2575,44 +2575,44 @@
       <c r="S4" s="44"/>
     </row>
     <row r="5" spans="1:21" s="3" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="74" t="s">
+      <c r="E5" s="165"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="103" t="s">
+      <c r="H5" s="167"/>
+      <c r="I5" s="167"/>
+      <c r="J5" s="167"/>
+      <c r="K5" s="168"/>
+      <c r="L5" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="104" t="s">
+      <c r="M5" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="102" t="s">
+      <c r="N5" s="171"/>
+      <c r="O5" s="171"/>
+      <c r="P5" s="169" t="s">
         <v>9</v>
       </c>
       <c r="S5" s="51"/>
     </row>
     <row r="6" spans="1:21" s="3" customFormat="1" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="72"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="72"/>
+      <c r="A6" s="165"/>
+      <c r="B6" s="166"/>
+      <c r="C6" s="165"/>
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
@@ -2637,7 +2637,7 @@
       <c r="K6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="103"/>
+      <c r="L6" s="170"/>
       <c r="M6" s="7" t="s">
         <v>18</v>
       </c>
@@ -2647,23 +2647,23 @@
       <c r="O6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="102"/>
+      <c r="P6" s="169"/>
       <c r="S6" s="51"/>
       <c r="U6" s="1"/>
     </row>
     <row r="7" spans="1:21" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="70"/>
-      <c r="B7" s="75">
+      <c r="A7" s="172"/>
+      <c r="B7" s="178">
         <v>43881</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70" t="s">
+      <c r="C7" s="172"/>
+      <c r="D7" s="172" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="70" t="s">
+      <c r="E7" s="172" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="70"/>
+      <c r="F7" s="172"/>
       <c r="G7" s="10" t="s">
         <v>24</v>
       </c>
@@ -2695,12 +2695,12 @@
       <c r="S7" s="44"/>
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="71"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
+      <c r="A8" s="173"/>
+      <c r="B8" s="179"/>
+      <c r="C8" s="173"/>
+      <c r="D8" s="173"/>
+      <c r="E8" s="173"/>
+      <c r="F8" s="173"/>
       <c r="G8" s="12" t="s">
         <v>25</v>
       </c>
@@ -2732,12 +2732,12 @@
       <c r="S8" s="44"/>
     </row>
     <row r="9" spans="1:21" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="71"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
+      <c r="A9" s="173"/>
+      <c r="B9" s="179"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="173"/>
+      <c r="E9" s="173"/>
+      <c r="F9" s="173"/>
       <c r="G9" s="12" t="s">
         <v>26</v>
       </c>
@@ -2769,12 +2769,12 @@
       <c r="S9" s="44"/>
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="71"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
+      <c r="A10" s="173"/>
+      <c r="B10" s="179"/>
+      <c r="C10" s="173"/>
+      <c r="D10" s="173"/>
+      <c r="E10" s="173"/>
+      <c r="F10" s="173"/>
       <c r="G10" s="12" t="s">
         <v>27</v>
       </c>
@@ -2806,12 +2806,12 @@
       <c r="S10" s="44"/>
     </row>
     <row r="11" spans="1:21" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="71"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
+      <c r="A11" s="173"/>
+      <c r="B11" s="179"/>
+      <c r="C11" s="173"/>
+      <c r="D11" s="173"/>
+      <c r="E11" s="173"/>
+      <c r="F11" s="173"/>
       <c r="G11" s="16" t="s">
         <v>28</v>
       </c>
@@ -2843,18 +2843,18 @@
       <c r="S11" s="44"/>
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="96"/>
-      <c r="B12" s="98">
+      <c r="A12" s="174"/>
+      <c r="B12" s="176">
         <v>44051</v>
       </c>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96" t="s">
+      <c r="C12" s="174"/>
+      <c r="D12" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="96" t="s">
+      <c r="E12" s="174" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="96"/>
+      <c r="F12" s="174"/>
       <c r="G12" s="10" t="s">
         <v>28</v>
       </c>
@@ -2885,12 +2885,12 @@
       <c r="S12" s="44"/>
     </row>
     <row r="13" spans="1:21" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="97"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
+      <c r="A13" s="175"/>
+      <c r="B13" s="177"/>
+      <c r="C13" s="175"/>
+      <c r="D13" s="175"/>
+      <c r="E13" s="175"/>
+      <c r="F13" s="175"/>
       <c r="G13" s="14" t="s">
         <v>27</v>
       </c>
@@ -2921,15 +2921,15 @@
       <c r="S13" s="44"/>
     </row>
     <row r="14" spans="1:21" s="20" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
+      <c r="B14" s="150"/>
+      <c r="C14" s="150"/>
+      <c r="D14" s="150"/>
+      <c r="E14" s="150"/>
+      <c r="F14" s="150"/>
+      <c r="G14" s="150"/>
       <c r="H14" s="18">
         <f>SUM(H7:H13)</f>
         <v>540</v>
@@ -2991,17 +2991,17 @@
       <c r="S17" s="44"/>
     </row>
     <row r="18" spans="2:19" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="108" t="s">
+      <c r="C18" s="158" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="109"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="105">
+      <c r="D18" s="159"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="160"/>
+      <c r="H18" s="151">
         <v>795560000</v>
       </c>
-      <c r="I18" s="106"/>
+      <c r="I18" s="152"/>
       <c r="J18" s="2"/>
       <c r="K18" s="43"/>
       <c r="L18" s="2"/>
@@ -3011,18 +3011,18 @@
     </row>
     <row r="19" spans="2:19" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="44"/>
-      <c r="C19" s="77" t="s">
+      <c r="C19" s="155" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="81">
+      <c r="D19" s="156"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="157"/>
+      <c r="H19" s="161">
         <f>H18/2</f>
         <v>397780000</v>
       </c>
-      <c r="I19" s="82"/>
+      <c r="I19" s="162"/>
       <c r="J19" s="2"/>
       <c r="K19" s="43"/>
       <c r="L19" s="2"/>
@@ -3033,23 +3033,23 @@
     <row r="20" spans="2:19" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:19" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="77" t="s">
+      <c r="C22" s="155" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="81">
+      <c r="D22" s="156"/>
+      <c r="E22" s="156"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="157"/>
+      <c r="H22" s="161">
         <f>H19-H27-H28</f>
         <v>97780000</v>
       </c>
-      <c r="I22" s="82"/>
-      <c r="J22" s="107" t="s">
+      <c r="I22" s="162"/>
+      <c r="J22" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="K22" s="107"/>
-      <c r="L22" s="107"/>
+      <c r="K22" s="154"/>
+      <c r="L22" s="154"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D23" s="56"/>
@@ -3062,42 +3062,42 @@
         <v>50</v>
       </c>
       <c r="K24" s="1"/>
-      <c r="L24" s="85" t="s">
+      <c r="L24" s="190" t="s">
         <v>45</v>
       </c>
-      <c r="M24" s="85"/>
+      <c r="M24" s="190"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C25" s="77" t="s">
+      <c r="C25" s="155" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="80">
+      <c r="D25" s="156"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="157"/>
+      <c r="H25" s="181">
         <f>'hàng nhập'!H39</f>
         <v>702120000</v>
       </c>
-      <c r="I25" s="80"/>
-      <c r="K25" s="84" t="s">
+      <c r="I25" s="181"/>
+      <c r="K25" s="163" t="s">
         <v>53</v>
       </c>
-      <c r="L25" s="84"/>
+      <c r="L25" s="163"/>
     </row>
     <row r="26" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C26" s="77" t="s">
+      <c r="C26" s="155" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="81">
+      <c r="D26" s="156"/>
+      <c r="E26" s="156"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="157"/>
+      <c r="H26" s="161">
         <f>H25/2</f>
         <v>351060000</v>
       </c>
-      <c r="I26" s="82"/>
+      <c r="I26" s="162"/>
       <c r="L26" s="54">
         <v>43659</v>
       </c>
@@ -3106,17 +3106,17 @@
       </c>
     </row>
     <row r="27" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C27" s="77" t="s">
+      <c r="C27" s="155" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="83">
+      <c r="D27" s="156"/>
+      <c r="E27" s="156"/>
+      <c r="F27" s="156"/>
+      <c r="G27" s="157"/>
+      <c r="H27" s="153">
         <v>150000000</v>
       </c>
-      <c r="I27" s="83"/>
+      <c r="I27" s="153"/>
       <c r="L27" s="54">
         <v>44037</v>
       </c>
@@ -3125,17 +3125,17 @@
       </c>
     </row>
     <row r="28" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C28" s="77" t="s">
+      <c r="C28" s="155" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="83">
+      <c r="D28" s="156"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="157"/>
+      <c r="H28" s="153">
         <v>150000000</v>
       </c>
-      <c r="I28" s="83"/>
+      <c r="I28" s="153"/>
       <c r="L28" s="61" t="s">
         <v>56</v>
       </c>
@@ -3144,39 +3144,39 @@
       </c>
     </row>
     <row r="29" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="77" t="s">
+      <c r="C29" s="155" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="83">
+      <c r="D29" s="156"/>
+      <c r="E29" s="156"/>
+      <c r="F29" s="156"/>
+      <c r="G29" s="157"/>
+      <c r="H29" s="153">
         <v>97780000</v>
       </c>
-      <c r="I29" s="83"/>
-      <c r="K29" s="84" t="s">
+      <c r="I29" s="153"/>
+      <c r="K29" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="L29" s="84"/>
+      <c r="L29" s="163"/>
     </row>
     <row r="30" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="87" t="s">
+      <c r="C30" s="180" t="s">
         <v>45</v>
       </c>
       <c r="D30" s="58">
         <v>44041</v>
       </c>
-      <c r="E30" s="94">
+      <c r="E30" s="188">
         <v>67000000</v>
       </c>
-      <c r="F30" s="95"/>
+      <c r="F30" s="189"/>
       <c r="G30" s="57"/>
-      <c r="H30" s="88">
+      <c r="H30" s="182">
         <f>E30+E31+E32+E33</f>
         <v>317000000</v>
       </c>
-      <c r="I30" s="89"/>
+      <c r="I30" s="183"/>
       <c r="L30" s="54">
         <v>43675</v>
       </c>
@@ -3185,17 +3185,17 @@
       </c>
     </row>
     <row r="31" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="87"/>
+      <c r="C31" s="180"/>
       <c r="D31" s="58">
         <v>44046</v>
       </c>
-      <c r="E31" s="94">
+      <c r="E31" s="188">
         <v>50000000</v>
       </c>
-      <c r="F31" s="95"/>
+      <c r="F31" s="189"/>
       <c r="G31" s="57"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="91"/>
+      <c r="H31" s="184"/>
+      <c r="I31" s="185"/>
       <c r="L31" s="54">
         <v>44046</v>
       </c>
@@ -3204,17 +3204,17 @@
       </c>
     </row>
     <row r="32" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="87"/>
+      <c r="C32" s="180"/>
       <c r="D32" s="58">
         <v>44053</v>
       </c>
-      <c r="E32" s="94">
+      <c r="E32" s="188">
         <v>100000000</v>
       </c>
-      <c r="F32" s="95"/>
+      <c r="F32" s="189"/>
       <c r="G32" s="57"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="91"/>
+      <c r="H32" s="184"/>
+      <c r="I32" s="185"/>
       <c r="L32" s="54">
         <v>44053</v>
       </c>
@@ -3223,17 +3223,17 @@
       </c>
     </row>
     <row r="33" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C33" s="87"/>
+      <c r="C33" s="180"/>
       <c r="D33" s="58">
         <v>44061</v>
       </c>
-      <c r="E33" s="94">
+      <c r="E33" s="188">
         <v>100000000</v>
       </c>
-      <c r="F33" s="95"/>
+      <c r="F33" s="189"/>
       <c r="G33" s="57"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="93"/>
+      <c r="H33" s="186"/>
+      <c r="I33" s="187"/>
       <c r="L33" s="54">
         <v>44061</v>
       </c>
@@ -3249,11 +3249,11 @@
       <c r="E34" s="60"/>
       <c r="F34" s="60"/>
       <c r="G34" s="60"/>
-      <c r="H34" s="86">
+      <c r="H34" s="191">
         <f>-(H26+H29-H27-H28-H30)</f>
         <v>168160000</v>
       </c>
-      <c r="I34" s="86"/>
+      <c r="I34" s="191"/>
       <c r="L34" s="61" t="s">
         <v>55</v>
       </c>
@@ -3268,45 +3268,45 @@
       </c>
     </row>
     <row r="37" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C37" s="77" t="s">
+      <c r="C37" s="155" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="78"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="80">
+      <c r="D37" s="156"/>
+      <c r="E37" s="156"/>
+      <c r="F37" s="156"/>
+      <c r="G37" s="157"/>
+      <c r="H37" s="181">
         <v>303000000</v>
       </c>
-      <c r="I37" s="80"/>
+      <c r="I37" s="181"/>
     </row>
     <row r="38" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C38" s="77" t="s">
+      <c r="C38" s="155" t="s">
         <v>44</v>
       </c>
-      <c r="D38" s="78"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="81">
+      <c r="D38" s="156"/>
+      <c r="E38" s="156"/>
+      <c r="F38" s="156"/>
+      <c r="G38" s="157"/>
+      <c r="H38" s="161">
         <f>H37/2</f>
         <v>151500000</v>
       </c>
-      <c r="I38" s="82"/>
+      <c r="I38" s="162"/>
     </row>
     <row r="39" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C39" s="77" t="s">
+      <c r="C39" s="155" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="78"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="83">
+      <c r="D39" s="156"/>
+      <c r="E39" s="156"/>
+      <c r="F39" s="156"/>
+      <c r="G39" s="157"/>
+      <c r="H39" s="153">
         <f>H34</f>
         <v>168160000</v>
       </c>
-      <c r="I39" s="83"/>
+      <c r="I39" s="153"/>
     </row>
     <row r="40" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C40" s="59" t="s">
@@ -3316,34 +3316,38 @@
       <c r="E40" s="60"/>
       <c r="F40" s="60"/>
       <c r="G40" s="60"/>
-      <c r="H40" s="86">
+      <c r="H40" s="191">
         <f>-(H38-H39)</f>
         <v>16660000</v>
       </c>
-      <c r="I40" s="86"/>
+      <c r="I40" s="191"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I33"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C29:G29"/>
     <mergeCell ref="F7:F11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
@@ -3356,30 +3360,26 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I33"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="K25:L25"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -3402,33 +3402,33 @@
   </cols>
   <sheetData>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="111" t="s">
+      <c r="A8" s="196" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="111"/>
+      <c r="B8" s="196"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="118" t="s">
+      <c r="B9" s="195" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="118"/>
-      <c r="D9" s="118"/>
-      <c r="E9" s="118"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="195"/>
+      <c r="E9" s="195"/>
       <c r="F9" s="65">
-        <f>'hàng nhập'!H51</f>
+        <f>'hàng nhập'!H59</f>
         <v>1613935000</v>
       </c>
       <c r="G9" s="2"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="118" t="s">
+      <c r="B10" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="118"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="118"/>
+      <c r="C10" s="195"/>
+      <c r="D10" s="195"/>
+      <c r="E10" s="195"/>
       <c r="F10" s="65">
         <f>F9/2</f>
         <v>806967500</v>
@@ -3442,11 +3442,11 @@
       <c r="C11" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="80">
+      <c r="D11" s="181">
         <v>32800000</v>
       </c>
-      <c r="E11" s="80"/>
-      <c r="F11" s="112">
+      <c r="E11" s="181"/>
+      <c r="F11" s="200">
         <f>SUM(D11:E20)</f>
         <v>765820000</v>
       </c>
@@ -3459,11 +3459,11 @@
       <c r="C12" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="80">
+      <c r="D12" s="181">
         <v>14500000</v>
       </c>
-      <c r="E12" s="80"/>
-      <c r="F12" s="113"/>
+      <c r="E12" s="181"/>
+      <c r="F12" s="201"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3473,106 +3473,106 @@
       <c r="C13" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="80">
+      <c r="D13" s="181">
         <v>1520000</v>
       </c>
-      <c r="E13" s="80"/>
-      <c r="F13" s="113"/>
+      <c r="E13" s="181"/>
+      <c r="F13" s="201"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="197" t="s">
         <v>64</v>
       </c>
       <c r="C14" s="64">
         <v>44025</v>
       </c>
-      <c r="D14" s="80">
+      <c r="D14" s="181">
         <v>150000000</v>
       </c>
-      <c r="E14" s="80"/>
-      <c r="F14" s="113"/>
+      <c r="E14" s="181"/>
+      <c r="F14" s="201"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="68"/>
+      <c r="B15" s="198"/>
       <c r="C15" s="64">
         <v>44037</v>
       </c>
-      <c r="D15" s="80">
+      <c r="D15" s="181">
         <v>150000000</v>
       </c>
-      <c r="E15" s="80"/>
-      <c r="F15" s="113"/>
+      <c r="E15" s="181"/>
+      <c r="F15" s="201"/>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="68"/>
+      <c r="B16" s="198"/>
       <c r="C16" s="64">
         <v>44041</v>
       </c>
-      <c r="D16" s="80">
+      <c r="D16" s="181">
         <v>67000000</v>
       </c>
-      <c r="E16" s="80"/>
-      <c r="F16" s="113"/>
+      <c r="E16" s="181"/>
+      <c r="F16" s="201"/>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="2:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="68"/>
+      <c r="B17" s="198"/>
       <c r="C17" s="64">
         <v>44046</v>
       </c>
-      <c r="D17" s="80">
+      <c r="D17" s="181">
         <v>50000000</v>
       </c>
-      <c r="E17" s="80"/>
-      <c r="F17" s="113"/>
+      <c r="E17" s="181"/>
+      <c r="F17" s="201"/>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="2:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="68"/>
+      <c r="B18" s="198"/>
       <c r="C18" s="64">
         <v>44053</v>
       </c>
-      <c r="D18" s="80">
+      <c r="D18" s="181">
         <v>100000000</v>
       </c>
-      <c r="E18" s="80"/>
-      <c r="F18" s="113"/>
+      <c r="E18" s="181"/>
+      <c r="F18" s="201"/>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="2:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="68"/>
+      <c r="B19" s="198"/>
       <c r="C19" s="64">
         <v>44061</v>
       </c>
-      <c r="D19" s="80">
+      <c r="D19" s="181">
         <v>100000000</v>
       </c>
-      <c r="E19" s="80"/>
-      <c r="F19" s="113"/>
+      <c r="E19" s="181"/>
+      <c r="F19" s="201"/>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="2:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="69"/>
+      <c r="B20" s="199"/>
       <c r="C20" s="64">
         <v>44075</v>
       </c>
-      <c r="D20" s="80">
+      <c r="D20" s="181">
         <v>100000000</v>
       </c>
-      <c r="E20" s="80"/>
-      <c r="F20" s="114"/>
+      <c r="E20" s="181"/>
+      <c r="F20" s="202"/>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="2:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="115" t="s">
+      <c r="B21" s="192" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="116"/>
-      <c r="D21" s="116"/>
-      <c r="E21" s="117"/>
+      <c r="C21" s="193"/>
+      <c r="D21" s="193"/>
+      <c r="E21" s="194"/>
       <c r="F21" s="65">
         <f>F10-F11</f>
         <v>41147500</v>
@@ -3581,13 +3581,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="B14:B20"/>
-    <mergeCell ref="D20:E20"/>
     <mergeCell ref="F11:F20"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
@@ -3597,6 +3590,13 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="D20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/CHỊ TUYẾT SÀI GÒN/công nợ chị tuyết TPHCM.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/CHỊ TUYẾT SÀI GÒN/công nợ chị tuyết TPHCM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="hàng nhập" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="78">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -234,13 +234,22 @@
     <t>Tổng cộng nhập hàng đợt 6</t>
   </si>
   <si>
-    <t>Tổng sau 6 đợt nhập hàng</t>
-  </si>
-  <si>
     <t>BẢNG TỔNG HỢP CHỊ TUYẾT NHẬP HÀNG 16/09/2020</t>
   </si>
   <si>
     <t xml:space="preserve"> Số:16092020/PKD. MST: 0108806878</t>
+  </si>
+  <si>
+    <t>Chị Dung</t>
+  </si>
+  <si>
+    <t>Hà Nội</t>
+  </si>
+  <si>
+    <t>Tổng sau 7 đợt nhập hàng</t>
+  </si>
+  <si>
+    <t>Tổng cộng nhập hàng đợt 7</t>
   </si>
 </sst>
 </file>
@@ -879,6 +888,51 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -887,6 +941,36 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -906,81 +990,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -990,6 +999,111 @@
     <xf numFmtId="14" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -999,21 +1113,9 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1023,98 +1125,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1139,15 +1157,6 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1455,10 +1464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M59"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1491,7 +1500,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="73"/>
       <c r="C2" s="74"/>
@@ -1501,48 +1510,48 @@
       <c r="H2" s="76"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="132" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="132"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
+      <c r="A3" s="119" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="133"/>
-      <c r="B4" s="133"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="134"/>
+      <c r="A4" s="120"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="121"/>
     </row>
     <row r="5" spans="1:13" s="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="135" t="s">
+      <c r="A5" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="136" t="s">
+      <c r="B5" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="135" t="s">
+      <c r="C5" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="135"/>
-      <c r="E5" s="137" t="s">
+      <c r="D5" s="122"/>
+      <c r="E5" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="137"/>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
     </row>
     <row r="6" spans="1:13" s="77" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="135"/>
-      <c r="B6" s="136"/>
+      <c r="A6" s="122"/>
+      <c r="B6" s="123"/>
       <c r="C6" s="78" t="s">
         <v>10</v>
       </c>
@@ -1563,16 +1572,16 @@
       </c>
     </row>
     <row r="7" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="138">
+      <c r="B7" s="125">
         <v>43881</v>
       </c>
-      <c r="C7" s="119" t="s">
+      <c r="C7" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="119" t="s">
+      <c r="D7" s="144" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="83" t="s">
@@ -1590,10 +1599,10 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="130"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
+      <c r="A8" s="114"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="145"/>
+      <c r="D8" s="145"/>
       <c r="E8" s="86" t="s">
         <v>25</v>
       </c>
@@ -1609,10 +1618,10 @@
       </c>
     </row>
     <row r="9" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="130"/>
-      <c r="B9" s="139"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
+      <c r="A9" s="114"/>
+      <c r="B9" s="126"/>
+      <c r="C9" s="145"/>
+      <c r="D9" s="145"/>
       <c r="E9" s="86" t="s">
         <v>26</v>
       </c>
@@ -1628,10 +1637,10 @@
       </c>
     </row>
     <row r="10" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="130"/>
-      <c r="B10" s="139"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
+      <c r="A10" s="114"/>
+      <c r="B10" s="126"/>
+      <c r="C10" s="145"/>
+      <c r="D10" s="145"/>
       <c r="E10" s="86" t="s">
         <v>27</v>
       </c>
@@ -1647,10 +1656,10 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="127"/>
-      <c r="B11" s="140"/>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
+      <c r="A11" s="115"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="146"/>
+      <c r="D11" s="146"/>
       <c r="E11" s="89" t="s">
         <v>28</v>
       </c>
@@ -1666,13 +1675,13 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="116" t="s">
+      <c r="A12" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="118"/>
+      <c r="B12" s="142"/>
+      <c r="C12" s="142"/>
+      <c r="D12" s="142"/>
+      <c r="E12" s="143"/>
       <c r="F12" s="92">
         <f>SUM(F7:F11)</f>
         <v>17</v>
@@ -1684,16 +1693,16 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="144" t="s">
+      <c r="A13" s="135" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="147">
         <v>43915</v>
       </c>
-      <c r="C13" s="113" t="s">
+      <c r="C13" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="113" t="s">
+      <c r="D13" s="128" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="83" t="s">
@@ -1711,10 +1720,10 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="145"/>
+      <c r="A14" s="136"/>
       <c r="B14" s="148"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
       <c r="E14" s="86" t="s">
         <v>25</v>
       </c>
@@ -1730,10 +1739,10 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="145"/>
+      <c r="A15" s="136"/>
       <c r="B15" s="148"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
       <c r="E15" s="86" t="s">
         <v>26</v>
       </c>
@@ -1749,10 +1758,10 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="145"/>
+      <c r="A16" s="136"/>
       <c r="B16" s="148"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
       <c r="E16" s="86" t="s">
         <v>24</v>
       </c>
@@ -1769,10 +1778,10 @@
       <c r="M16" s="95"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="145"/>
+      <c r="A17" s="136"/>
       <c r="B17" s="148"/>
-      <c r="C17" s="114"/>
-      <c r="D17" s="114"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
       <c r="E17" s="86" t="s">
         <v>32</v>
       </c>
@@ -1789,10 +1798,10 @@
       <c r="M17" s="96"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="145"/>
+      <c r="A18" s="136"/>
       <c r="B18" s="148"/>
-      <c r="C18" s="114"/>
-      <c r="D18" s="114"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="129"/>
       <c r="E18" s="86" t="s">
         <v>33</v>
       </c>
@@ -1808,10 +1817,10 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="145"/>
+      <c r="A19" s="136"/>
       <c r="B19" s="148"/>
-      <c r="C19" s="114"/>
-      <c r="D19" s="114"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="129"/>
       <c r="E19" s="86" t="s">
         <v>34</v>
       </c>
@@ -1827,10 +1836,10 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="145"/>
+      <c r="A20" s="136"/>
       <c r="B20" s="148"/>
-      <c r="C20" s="114"/>
-      <c r="D20" s="114"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="129"/>
       <c r="E20" s="86" t="s">
         <v>28</v>
       </c>
@@ -1846,10 +1855,10 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="146"/>
+      <c r="A21" s="137"/>
       <c r="B21" s="149"/>
-      <c r="C21" s="115"/>
-      <c r="D21" s="115"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="130"/>
       <c r="E21" s="97" t="s">
         <v>27</v>
       </c>
@@ -1865,13 +1874,13 @@
       </c>
     </row>
     <row r="22" spans="1:13" s="100" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="116" t="s">
+      <c r="A22" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="117"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="117"/>
-      <c r="E22" s="118"/>
+      <c r="B22" s="142"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="143"/>
       <c r="F22" s="99">
         <f>SUM(F13:F21)</f>
         <v>308</v>
@@ -1883,16 +1892,16 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="113" t="s">
+      <c r="A23" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="141">
+      <c r="B23" s="131">
         <v>43916</v>
       </c>
-      <c r="C23" s="113" t="s">
+      <c r="C23" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="113" t="s">
+      <c r="D23" s="128" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="83" t="s">
@@ -1910,10 +1919,10 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="114"/>
-      <c r="B24" s="142"/>
-      <c r="C24" s="114"/>
-      <c r="D24" s="114"/>
+      <c r="A24" s="129"/>
+      <c r="B24" s="132"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="129"/>
       <c r="E24" s="86" t="s">
         <v>26</v>
       </c>
@@ -1929,10 +1938,10 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="114"/>
-      <c r="B25" s="142"/>
-      <c r="C25" s="114"/>
-      <c r="D25" s="114"/>
+      <c r="A25" s="129"/>
+      <c r="B25" s="132"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="129"/>
       <c r="E25" s="86" t="s">
         <v>24</v>
       </c>
@@ -1948,10 +1957,10 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="114"/>
-      <c r="B26" s="142"/>
-      <c r="C26" s="114"/>
-      <c r="D26" s="114"/>
+      <c r="A26" s="129"/>
+      <c r="B26" s="132"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="129"/>
       <c r="E26" s="86" t="s">
         <v>32</v>
       </c>
@@ -1967,10 +1976,10 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="114"/>
-      <c r="B27" s="142"/>
-      <c r="C27" s="114"/>
-      <c r="D27" s="114"/>
+      <c r="A27" s="129"/>
+      <c r="B27" s="132"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="129"/>
       <c r="E27" s="86" t="s">
         <v>33</v>
       </c>
@@ -1986,10 +1995,10 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="114"/>
-      <c r="B28" s="142"/>
-      <c r="C28" s="114"/>
-      <c r="D28" s="114"/>
+      <c r="A28" s="129"/>
+      <c r="B28" s="132"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="129"/>
       <c r="E28" s="86" t="s">
         <v>28</v>
       </c>
@@ -2006,10 +2015,10 @@
       <c r="J28" s="95"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="115"/>
-      <c r="B29" s="143"/>
-      <c r="C29" s="115"/>
-      <c r="D29" s="115"/>
+      <c r="A29" s="130"/>
+      <c r="B29" s="133"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="130"/>
       <c r="E29" s="89" t="s">
         <v>27</v>
       </c>
@@ -2026,13 +2035,13 @@
       <c r="J29" s="95"/>
     </row>
     <row r="30" spans="1:13" s="100" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="122" t="s">
+      <c r="A30" s="134" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="122"/>
-      <c r="C30" s="122"/>
-      <c r="D30" s="122"/>
-      <c r="E30" s="122"/>
+      <c r="B30" s="134"/>
+      <c r="C30" s="134"/>
+      <c r="D30" s="134"/>
+      <c r="E30" s="134"/>
       <c r="F30" s="99">
         <f>SUM(F23:F29)</f>
         <v>288</v>
@@ -2044,16 +2053,16 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="144" t="s">
+      <c r="A31" s="135" t="s">
         <v>42</v>
       </c>
       <c r="B31" s="147">
         <v>44032</v>
       </c>
-      <c r="C31" s="113" t="s">
+      <c r="C31" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="113" t="s">
+      <c r="D31" s="128" t="s">
         <v>23</v>
       </c>
       <c r="E31" s="83" t="s">
@@ -2071,10 +2080,10 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="145"/>
+      <c r="A32" s="136"/>
       <c r="B32" s="148"/>
-      <c r="C32" s="114"/>
-      <c r="D32" s="114"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="129"/>
       <c r="E32" s="86" t="s">
         <v>25</v>
       </c>
@@ -2090,10 +2099,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="145"/>
+      <c r="A33" s="136"/>
       <c r="B33" s="148"/>
-      <c r="C33" s="114"/>
-      <c r="D33" s="114"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="129"/>
       <c r="E33" s="86" t="s">
         <v>26</v>
       </c>
@@ -2109,10 +2118,10 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="145"/>
+      <c r="A34" s="136"/>
       <c r="B34" s="148"/>
-      <c r="C34" s="114"/>
-      <c r="D34" s="114"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="129"/>
       <c r="E34" s="86" t="s">
         <v>24</v>
       </c>
@@ -2128,10 +2137,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="145"/>
+      <c r="A35" s="136"/>
       <c r="B35" s="148"/>
-      <c r="C35" s="114"/>
-      <c r="D35" s="114"/>
+      <c r="C35" s="129"/>
+      <c r="D35" s="129"/>
       <c r="E35" s="86" t="s">
         <v>32</v>
       </c>
@@ -2147,10 +2156,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="145"/>
+      <c r="A36" s="136"/>
       <c r="B36" s="148"/>
-      <c r="C36" s="114"/>
-      <c r="D36" s="114"/>
+      <c r="C36" s="129"/>
+      <c r="D36" s="129"/>
       <c r="E36" s="86" t="s">
         <v>33</v>
       </c>
@@ -2166,10 +2175,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="145"/>
+      <c r="A37" s="136"/>
       <c r="B37" s="148"/>
-      <c r="C37" s="114"/>
-      <c r="D37" s="114"/>
+      <c r="C37" s="129"/>
+      <c r="D37" s="129"/>
       <c r="E37" s="86" t="s">
         <v>28</v>
       </c>
@@ -2185,10 +2194,10 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="146"/>
+      <c r="A38" s="137"/>
       <c r="B38" s="149"/>
-      <c r="C38" s="115"/>
-      <c r="D38" s="115"/>
+      <c r="C38" s="130"/>
+      <c r="D38" s="130"/>
       <c r="E38" s="89" t="s">
         <v>27</v>
       </c>
@@ -2204,13 +2213,13 @@
       </c>
     </row>
     <row r="39" spans="1:8" s="100" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="122" t="s">
+      <c r="A39" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="122"/>
-      <c r="C39" s="122"/>
-      <c r="D39" s="122"/>
-      <c r="E39" s="122"/>
+      <c r="B39" s="134"/>
+      <c r="C39" s="134"/>
+      <c r="D39" s="134"/>
+      <c r="E39" s="134"/>
       <c r="F39" s="99">
         <f>SUM(F31:F38)</f>
         <v>1464</v>
@@ -2232,16 +2241,16 @@
       <c r="H40" s="112"/>
     </row>
     <row r="41" spans="1:8" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="126">
+      <c r="A41" s="113">
         <v>757</v>
       </c>
-      <c r="B41" s="128">
+      <c r="B41" s="116">
         <v>44061</v>
       </c>
-      <c r="C41" s="126" t="s">
+      <c r="C41" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="126" t="s">
+      <c r="D41" s="113" t="s">
         <v>23</v>
       </c>
       <c r="E41" s="101" t="s">
@@ -2259,10 +2268,10 @@
       </c>
     </row>
     <row r="42" spans="1:8" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="130"/>
-      <c r="B42" s="131"/>
-      <c r="C42" s="130"/>
-      <c r="D42" s="130"/>
+      <c r="A42" s="114"/>
+      <c r="B42" s="117"/>
+      <c r="C42" s="114"/>
+      <c r="D42" s="114"/>
       <c r="E42" s="103" t="s">
         <v>25</v>
       </c>
@@ -2278,10 +2287,10 @@
       </c>
     </row>
     <row r="43" spans="1:8" s="75" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="130"/>
-      <c r="B43" s="131"/>
-      <c r="C43" s="130"/>
-      <c r="D43" s="130"/>
+      <c r="A43" s="114"/>
+      <c r="B43" s="117"/>
+      <c r="C43" s="114"/>
+      <c r="D43" s="114"/>
       <c r="E43" s="103" t="s">
         <v>26</v>
       </c>
@@ -2297,10 +2306,10 @@
       </c>
     </row>
     <row r="44" spans="1:8" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="130"/>
-      <c r="B44" s="131"/>
-      <c r="C44" s="130"/>
-      <c r="D44" s="130"/>
+      <c r="A44" s="114"/>
+      <c r="B44" s="117"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
       <c r="E44" s="103" t="s">
         <v>24</v>
       </c>
@@ -2316,10 +2325,10 @@
       </c>
     </row>
     <row r="45" spans="1:8" s="75" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="130"/>
-      <c r="B45" s="131"/>
-      <c r="C45" s="130"/>
-      <c r="D45" s="130"/>
+      <c r="A45" s="114"/>
+      <c r="B45" s="117"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="114"/>
       <c r="E45" s="103" t="s">
         <v>28</v>
       </c>
@@ -2335,10 +2344,10 @@
       </c>
     </row>
     <row r="46" spans="1:8" s="75" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="127"/>
-      <c r="B46" s="129"/>
-      <c r="C46" s="127"/>
-      <c r="D46" s="127"/>
+      <c r="A46" s="115"/>
+      <c r="B46" s="118"/>
+      <c r="C46" s="115"/>
+      <c r="D46" s="115"/>
       <c r="E46" s="105" t="s">
         <v>27</v>
       </c>
@@ -2354,13 +2363,13 @@
       </c>
     </row>
     <row r="47" spans="1:8" s="100" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="122" t="s">
+      <c r="A47" s="134" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="122"/>
-      <c r="C47" s="122"/>
-      <c r="D47" s="122"/>
-      <c r="E47" s="122"/>
+      <c r="B47" s="134"/>
+      <c r="C47" s="134"/>
+      <c r="D47" s="134"/>
+      <c r="E47" s="134"/>
       <c r="F47" s="99">
         <f>SUM(F41:F46)</f>
         <v>648</v>
@@ -2372,16 +2381,16 @@
       </c>
     </row>
     <row r="48" spans="1:8" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="126">
+      <c r="A48" s="113">
         <v>773</v>
       </c>
-      <c r="B48" s="128">
+      <c r="B48" s="116">
         <v>44066</v>
       </c>
-      <c r="C48" s="126" t="s">
+      <c r="C48" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="126" t="s">
+      <c r="D48" s="113" t="s">
         <v>23</v>
       </c>
       <c r="E48" s="101" t="s">
@@ -2399,10 +2408,10 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="127"/>
-      <c r="B49" s="129"/>
-      <c r="C49" s="127"/>
-      <c r="D49" s="127"/>
+      <c r="A49" s="115"/>
+      <c r="B49" s="118"/>
+      <c r="C49" s="115"/>
+      <c r="D49" s="115"/>
       <c r="E49" s="105" t="s">
         <v>69</v>
       </c>
@@ -2418,13 +2427,13 @@
       </c>
     </row>
     <row r="50" spans="1:8" s="100" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="122" t="s">
+      <c r="A50" s="134" t="s">
         <v>71</v>
       </c>
-      <c r="B50" s="122"/>
-      <c r="C50" s="122"/>
-      <c r="D50" s="122"/>
-      <c r="E50" s="122"/>
+      <c r="B50" s="134"/>
+      <c r="C50" s="134"/>
+      <c r="D50" s="134"/>
+      <c r="E50" s="134"/>
       <c r="F50" s="99">
         <f>F48+F49</f>
         <v>720</v>
@@ -2435,26 +2444,230 @@
         <v>315600000</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="123" t="s">
-        <v>72</v>
-      </c>
-      <c r="B59" s="124"/>
-      <c r="C59" s="124"/>
-      <c r="D59" s="124"/>
-      <c r="E59" s="125"/>
-      <c r="F59" s="107">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="113">
+        <v>1402</v>
+      </c>
+      <c r="B51" s="125">
+        <v>44186</v>
+      </c>
+      <c r="C51" s="113" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" s="113" t="s">
+        <v>75</v>
+      </c>
+      <c r="E51" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="F51" s="83">
+        <v>1</v>
+      </c>
+      <c r="G51" s="85">
+        <v>455000</v>
+      </c>
+      <c r="H51" s="85">
+        <f>F51*G51</f>
+        <v>455000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="114"/>
+      <c r="B52" s="126"/>
+      <c r="C52" s="114"/>
+      <c r="D52" s="114"/>
+      <c r="E52" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" s="86">
+        <v>1</v>
+      </c>
+      <c r="G52" s="88">
+        <v>465000</v>
+      </c>
+      <c r="H52" s="88">
+        <f t="shared" ref="H52:H58" si="4">F52*G52</f>
+        <v>465000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="114"/>
+      <c r="B53" s="126"/>
+      <c r="C53" s="114"/>
+      <c r="D53" s="114"/>
+      <c r="E53" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53" s="86">
+        <v>3</v>
+      </c>
+      <c r="G53" s="88">
+        <v>475000</v>
+      </c>
+      <c r="H53" s="88">
+        <f t="shared" si="4"/>
+        <v>1425000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="114"/>
+      <c r="B54" s="126"/>
+      <c r="C54" s="114"/>
+      <c r="D54" s="114"/>
+      <c r="E54" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="F54" s="86">
+        <v>7</v>
+      </c>
+      <c r="G54" s="88">
+        <v>485000</v>
+      </c>
+      <c r="H54" s="88">
+        <f t="shared" si="4"/>
+        <v>3395000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="114"/>
+      <c r="B55" s="126"/>
+      <c r="C55" s="114"/>
+      <c r="D55" s="114"/>
+      <c r="E55" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55" s="86">
+        <v>1</v>
+      </c>
+      <c r="G55" s="88">
+        <v>485000</v>
+      </c>
+      <c r="H55" s="88">
+        <f t="shared" si="4"/>
+        <v>485000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="114"/>
+      <c r="B56" s="126"/>
+      <c r="C56" s="114"/>
+      <c r="D56" s="114"/>
+      <c r="E56" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="F56" s="86">
+        <v>1</v>
+      </c>
+      <c r="G56" s="88">
+        <v>550000</v>
+      </c>
+      <c r="H56" s="88">
+        <f t="shared" si="4"/>
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="114"/>
+      <c r="B57" s="126"/>
+      <c r="C57" s="114"/>
+      <c r="D57" s="114"/>
+      <c r="E57" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57" s="86">
+        <v>1</v>
+      </c>
+      <c r="G57" s="88">
+        <v>455000</v>
+      </c>
+      <c r="H57" s="88">
+        <f t="shared" si="4"/>
+        <v>455000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="115"/>
+      <c r="B58" s="127"/>
+      <c r="C58" s="115"/>
+      <c r="D58" s="115"/>
+      <c r="E58" s="89" t="s">
+        <v>27</v>
+      </c>
+      <c r="F58" s="89">
+        <v>5</v>
+      </c>
+      <c r="G58" s="91">
+        <v>455000</v>
+      </c>
+      <c r="H58" s="91">
+        <f t="shared" si="4"/>
+        <v>2275000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="100" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="134" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" s="134"/>
+      <c r="C59" s="134"/>
+      <c r="D59" s="134"/>
+      <c r="E59" s="134"/>
+      <c r="F59" s="99">
+        <f>SUM(F51:F58)</f>
+        <v>20</v>
+      </c>
+      <c r="G59" s="94"/>
+      <c r="H59" s="94">
+        <f>SUM(H51:H58)</f>
+        <v>9505000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="138" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" s="139"/>
+      <c r="C60" s="139"/>
+      <c r="D60" s="139"/>
+      <c r="E60" s="140"/>
+      <c r="F60" s="107">
         <f>F30+F22+F12+F39+F47+F50</f>
         <v>3445</v>
       </c>
-      <c r="G59" s="108"/>
-      <c r="H59" s="108">
-        <f>H30+H22+H12+H39+H47+H50</f>
-        <v>1613935000</v>
+      <c r="G60" s="108"/>
+      <c r="H60" s="108">
+        <f>H30+H22+H12+H39+H47+H50+H59</f>
+        <v>1623440000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="42">
+    <mergeCell ref="C31:C38"/>
+    <mergeCell ref="D31:D38"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="C13:C21"/>
+    <mergeCell ref="D13:D21"/>
+    <mergeCell ref="C23:C29"/>
+    <mergeCell ref="D23:D29"/>
+    <mergeCell ref="B31:B38"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="B13:B21"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A51:A58"/>
+    <mergeCell ref="B51:B58"/>
+    <mergeCell ref="C51:C58"/>
+    <mergeCell ref="D51:D58"/>
     <mergeCell ref="A41:A46"/>
     <mergeCell ref="B41:B46"/>
     <mergeCell ref="C41:C46"/>
@@ -2471,27 +2684,6 @@
     <mergeCell ref="B23:B29"/>
     <mergeCell ref="A39:E39"/>
     <mergeCell ref="A31:A38"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="C31:C38"/>
-    <mergeCell ref="D31:D38"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="C13:C21"/>
-    <mergeCell ref="D13:D21"/>
-    <mergeCell ref="C23:C29"/>
-    <mergeCell ref="D23:D29"/>
-    <mergeCell ref="B31:B38"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="B13:B21"/>
-    <mergeCell ref="A30:E30"/>
   </mergeCells>
   <pageMargins left="0.34" right="0.2" top="0.45" bottom="0.32" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -2543,24 +2735,24 @@
       <c r="S2" s="50"/>
     </row>
     <row r="3" spans="1:21" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="164" t="s">
+      <c r="A3" s="177" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="164"/>
-      <c r="C3" s="164"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="164"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="164"/>
-      <c r="J3" s="164"/>
-      <c r="K3" s="164"/>
-      <c r="L3" s="164"/>
-      <c r="M3" s="164"/>
-      <c r="N3" s="164"/>
-      <c r="O3" s="164"/>
-      <c r="P3" s="164"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="177"/>
+      <c r="I3" s="177"/>
+      <c r="J3" s="177"/>
+      <c r="K3" s="177"/>
+      <c r="L3" s="177"/>
+      <c r="M3" s="177"/>
+      <c r="N3" s="177"/>
+      <c r="O3" s="177"/>
+      <c r="P3" s="177"/>
       <c r="S3" s="50"/>
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -2575,44 +2767,44 @@
       <c r="S4" s="44"/>
     </row>
     <row r="5" spans="1:21" s="3" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="165" t="s">
+      <c r="A5" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="166" t="s">
+      <c r="B5" s="179" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="165" t="s">
+      <c r="C5" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="165" t="s">
+      <c r="D5" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="165"/>
-      <c r="F5" s="165"/>
-      <c r="G5" s="167" t="s">
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="180" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="167"/>
-      <c r="I5" s="167"/>
-      <c r="J5" s="167"/>
-      <c r="K5" s="168"/>
-      <c r="L5" s="170" t="s">
+      <c r="H5" s="180"/>
+      <c r="I5" s="180"/>
+      <c r="J5" s="180"/>
+      <c r="K5" s="181"/>
+      <c r="L5" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="171" t="s">
+      <c r="M5" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="171"/>
-      <c r="O5" s="171"/>
-      <c r="P5" s="169" t="s">
+      <c r="N5" s="184"/>
+      <c r="O5" s="184"/>
+      <c r="P5" s="182" t="s">
         <v>9</v>
       </c>
       <c r="S5" s="51"/>
     </row>
     <row r="6" spans="1:21" s="3" customFormat="1" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="165"/>
-      <c r="B6" s="166"/>
-      <c r="C6" s="165"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="179"/>
+      <c r="C6" s="178"/>
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
@@ -2637,7 +2829,7 @@
       <c r="K6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="170"/>
+      <c r="L6" s="183"/>
       <c r="M6" s="7" t="s">
         <v>18</v>
       </c>
@@ -2647,23 +2839,23 @@
       <c r="O6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="169"/>
+      <c r="P6" s="182"/>
       <c r="S6" s="51"/>
       <c r="U6" s="1"/>
     </row>
     <row r="7" spans="1:21" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="172"/>
-      <c r="B7" s="178">
+      <c r="A7" s="169"/>
+      <c r="B7" s="175">
         <v>43881</v>
       </c>
-      <c r="C7" s="172"/>
-      <c r="D7" s="172" t="s">
+      <c r="C7" s="169"/>
+      <c r="D7" s="169" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="172" t="s">
+      <c r="E7" s="169" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="172"/>
+      <c r="F7" s="169"/>
       <c r="G7" s="10" t="s">
         <v>24</v>
       </c>
@@ -2695,12 +2887,12 @@
       <c r="S7" s="44"/>
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="173"/>
-      <c r="B8" s="179"/>
-      <c r="C8" s="173"/>
-      <c r="D8" s="173"/>
-      <c r="E8" s="173"/>
-      <c r="F8" s="173"/>
+      <c r="A8" s="170"/>
+      <c r="B8" s="176"/>
+      <c r="C8" s="170"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="170"/>
       <c r="G8" s="12" t="s">
         <v>25</v>
       </c>
@@ -2732,12 +2924,12 @@
       <c r="S8" s="44"/>
     </row>
     <row r="9" spans="1:21" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="173"/>
-      <c r="B9" s="179"/>
-      <c r="C9" s="173"/>
-      <c r="D9" s="173"/>
-      <c r="E9" s="173"/>
-      <c r="F9" s="173"/>
+      <c r="A9" s="170"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="170"/>
+      <c r="D9" s="170"/>
+      <c r="E9" s="170"/>
+      <c r="F9" s="170"/>
       <c r="G9" s="12" t="s">
         <v>26</v>
       </c>
@@ -2769,12 +2961,12 @@
       <c r="S9" s="44"/>
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="173"/>
-      <c r="B10" s="179"/>
-      <c r="C10" s="173"/>
-      <c r="D10" s="173"/>
-      <c r="E10" s="173"/>
-      <c r="F10" s="173"/>
+      <c r="A10" s="170"/>
+      <c r="B10" s="176"/>
+      <c r="C10" s="170"/>
+      <c r="D10" s="170"/>
+      <c r="E10" s="170"/>
+      <c r="F10" s="170"/>
       <c r="G10" s="12" t="s">
         <v>27</v>
       </c>
@@ -2806,12 +2998,12 @@
       <c r="S10" s="44"/>
     </row>
     <row r="11" spans="1:21" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="173"/>
-      <c r="B11" s="179"/>
-      <c r="C11" s="173"/>
-      <c r="D11" s="173"/>
-      <c r="E11" s="173"/>
-      <c r="F11" s="173"/>
+      <c r="A11" s="170"/>
+      <c r="B11" s="176"/>
+      <c r="C11" s="170"/>
+      <c r="D11" s="170"/>
+      <c r="E11" s="170"/>
+      <c r="F11" s="170"/>
       <c r="G11" s="16" t="s">
         <v>28</v>
       </c>
@@ -2843,18 +3035,18 @@
       <c r="S11" s="44"/>
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="174"/>
-      <c r="B12" s="176">
+      <c r="A12" s="171"/>
+      <c r="B12" s="173">
         <v>44051</v>
       </c>
-      <c r="C12" s="174"/>
-      <c r="D12" s="174" t="s">
+      <c r="C12" s="171"/>
+      <c r="D12" s="171" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="174" t="s">
+      <c r="E12" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="174"/>
+      <c r="F12" s="171"/>
       <c r="G12" s="10" t="s">
         <v>28</v>
       </c>
@@ -2885,12 +3077,12 @@
       <c r="S12" s="44"/>
     </row>
     <row r="13" spans="1:21" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="175"/>
-      <c r="B13" s="177"/>
-      <c r="C13" s="175"/>
-      <c r="D13" s="175"/>
-      <c r="E13" s="175"/>
-      <c r="F13" s="175"/>
+      <c r="A13" s="172"/>
+      <c r="B13" s="174"/>
+      <c r="C13" s="172"/>
+      <c r="D13" s="172"/>
+      <c r="E13" s="172"/>
+      <c r="F13" s="172"/>
       <c r="G13" s="14" t="s">
         <v>27</v>
       </c>
@@ -2921,15 +3113,15 @@
       <c r="S13" s="44"/>
     </row>
     <row r="14" spans="1:21" s="20" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="150" t="s">
+      <c r="A14" s="185" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="150"/>
-      <c r="C14" s="150"/>
-      <c r="D14" s="150"/>
-      <c r="E14" s="150"/>
-      <c r="F14" s="150"/>
-      <c r="G14" s="150"/>
+      <c r="B14" s="185"/>
+      <c r="C14" s="185"/>
+      <c r="D14" s="185"/>
+      <c r="E14" s="185"/>
+      <c r="F14" s="185"/>
+      <c r="G14" s="185"/>
       <c r="H14" s="18">
         <f>SUM(H7:H13)</f>
         <v>540</v>
@@ -2991,17 +3183,17 @@
       <c r="S17" s="44"/>
     </row>
     <row r="18" spans="2:19" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="158" t="s">
+      <c r="C18" s="189" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="159"/>
-      <c r="E18" s="159"/>
-      <c r="F18" s="159"/>
-      <c r="G18" s="160"/>
-      <c r="H18" s="151">
+      <c r="D18" s="190"/>
+      <c r="E18" s="190"/>
+      <c r="F18" s="190"/>
+      <c r="G18" s="191"/>
+      <c r="H18" s="186">
         <v>795560000</v>
       </c>
-      <c r="I18" s="152"/>
+      <c r="I18" s="187"/>
       <c r="J18" s="2"/>
       <c r="K18" s="43"/>
       <c r="L18" s="2"/>
@@ -3011,18 +3203,18 @@
     </row>
     <row r="19" spans="2:19" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="44"/>
-      <c r="C19" s="155" t="s">
+      <c r="C19" s="150" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="156"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="157"/>
-      <c r="H19" s="161">
+      <c r="D19" s="151"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="154">
         <f>H18/2</f>
         <v>397780000</v>
       </c>
-      <c r="I19" s="162"/>
+      <c r="I19" s="155"/>
       <c r="J19" s="2"/>
       <c r="K19" s="43"/>
       <c r="L19" s="2"/>
@@ -3033,23 +3225,23 @@
     <row r="20" spans="2:19" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:19" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="155" t="s">
+      <c r="C22" s="150" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="156"/>
-      <c r="E22" s="156"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="157"/>
-      <c r="H22" s="161">
+      <c r="D22" s="151"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="154">
         <f>H19-H27-H28</f>
         <v>97780000</v>
       </c>
-      <c r="I22" s="162"/>
-      <c r="J22" s="154" t="s">
+      <c r="I22" s="155"/>
+      <c r="J22" s="188" t="s">
         <v>49</v>
       </c>
-      <c r="K22" s="154"/>
-      <c r="L22" s="154"/>
+      <c r="K22" s="188"/>
+      <c r="L22" s="188"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D23" s="56"/>
@@ -3062,42 +3254,42 @@
         <v>50</v>
       </c>
       <c r="K24" s="1"/>
-      <c r="L24" s="190" t="s">
+      <c r="L24" s="158" t="s">
         <v>45</v>
       </c>
-      <c r="M24" s="190"/>
+      <c r="M24" s="158"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C25" s="155" t="s">
+      <c r="C25" s="150" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="156"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="156"/>
-      <c r="G25" s="157"/>
-      <c r="H25" s="181">
+      <c r="D25" s="151"/>
+      <c r="E25" s="151"/>
+      <c r="F25" s="151"/>
+      <c r="G25" s="152"/>
+      <c r="H25" s="153">
         <f>'hàng nhập'!H39</f>
         <v>702120000</v>
       </c>
-      <c r="I25" s="181"/>
-      <c r="K25" s="163" t="s">
+      <c r="I25" s="153"/>
+      <c r="K25" s="157" t="s">
         <v>53</v>
       </c>
-      <c r="L25" s="163"/>
+      <c r="L25" s="157"/>
     </row>
     <row r="26" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C26" s="155" t="s">
+      <c r="C26" s="150" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="156"/>
-      <c r="E26" s="156"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="157"/>
-      <c r="H26" s="161">
+      <c r="D26" s="151"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="151"/>
+      <c r="G26" s="152"/>
+      <c r="H26" s="154">
         <f>H25/2</f>
         <v>351060000</v>
       </c>
-      <c r="I26" s="162"/>
+      <c r="I26" s="155"/>
       <c r="L26" s="54">
         <v>43659</v>
       </c>
@@ -3106,17 +3298,17 @@
       </c>
     </row>
     <row r="27" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C27" s="155" t="s">
+      <c r="C27" s="150" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="156"/>
-      <c r="E27" s="156"/>
-      <c r="F27" s="156"/>
-      <c r="G27" s="157"/>
-      <c r="H27" s="153">
+      <c r="D27" s="151"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="151"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="156">
         <v>150000000</v>
       </c>
-      <c r="I27" s="153"/>
+      <c r="I27" s="156"/>
       <c r="L27" s="54">
         <v>44037</v>
       </c>
@@ -3125,17 +3317,17 @@
       </c>
     </row>
     <row r="28" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C28" s="155" t="s">
+      <c r="C28" s="150" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="156"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="156"/>
-      <c r="G28" s="157"/>
-      <c r="H28" s="153">
+      <c r="D28" s="151"/>
+      <c r="E28" s="151"/>
+      <c r="F28" s="151"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="156">
         <v>150000000</v>
       </c>
-      <c r="I28" s="153"/>
+      <c r="I28" s="156"/>
       <c r="L28" s="61" t="s">
         <v>56</v>
       </c>
@@ -3144,39 +3336,39 @@
       </c>
     </row>
     <row r="29" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="155" t="s">
+      <c r="C29" s="150" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="156"/>
-      <c r="E29" s="156"/>
-      <c r="F29" s="156"/>
-      <c r="G29" s="157"/>
-      <c r="H29" s="153">
+      <c r="D29" s="151"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="151"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="156">
         <v>97780000</v>
       </c>
-      <c r="I29" s="153"/>
-      <c r="K29" s="163" t="s">
+      <c r="I29" s="156"/>
+      <c r="K29" s="157" t="s">
         <v>54</v>
       </c>
-      <c r="L29" s="163"/>
+      <c r="L29" s="157"/>
     </row>
     <row r="30" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="180" t="s">
+      <c r="C30" s="160" t="s">
         <v>45</v>
       </c>
       <c r="D30" s="58">
         <v>44041</v>
       </c>
-      <c r="E30" s="188">
+      <c r="E30" s="167">
         <v>67000000</v>
       </c>
-      <c r="F30" s="189"/>
+      <c r="F30" s="168"/>
       <c r="G30" s="57"/>
-      <c r="H30" s="182">
+      <c r="H30" s="161">
         <f>E30+E31+E32+E33</f>
         <v>317000000</v>
       </c>
-      <c r="I30" s="183"/>
+      <c r="I30" s="162"/>
       <c r="L30" s="54">
         <v>43675</v>
       </c>
@@ -3185,17 +3377,17 @@
       </c>
     </row>
     <row r="31" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="180"/>
+      <c r="C31" s="160"/>
       <c r="D31" s="58">
         <v>44046</v>
       </c>
-      <c r="E31" s="188">
+      <c r="E31" s="167">
         <v>50000000</v>
       </c>
-      <c r="F31" s="189"/>
+      <c r="F31" s="168"/>
       <c r="G31" s="57"/>
-      <c r="H31" s="184"/>
-      <c r="I31" s="185"/>
+      <c r="H31" s="163"/>
+      <c r="I31" s="164"/>
       <c r="L31" s="54">
         <v>44046</v>
       </c>
@@ -3204,17 +3396,17 @@
       </c>
     </row>
     <row r="32" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="180"/>
+      <c r="C32" s="160"/>
       <c r="D32" s="58">
         <v>44053</v>
       </c>
-      <c r="E32" s="188">
+      <c r="E32" s="167">
         <v>100000000</v>
       </c>
-      <c r="F32" s="189"/>
+      <c r="F32" s="168"/>
       <c r="G32" s="57"/>
-      <c r="H32" s="184"/>
-      <c r="I32" s="185"/>
+      <c r="H32" s="163"/>
+      <c r="I32" s="164"/>
       <c r="L32" s="54">
         <v>44053</v>
       </c>
@@ -3223,17 +3415,17 @@
       </c>
     </row>
     <row r="33" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C33" s="180"/>
+      <c r="C33" s="160"/>
       <c r="D33" s="58">
         <v>44061</v>
       </c>
-      <c r="E33" s="188">
+      <c r="E33" s="167">
         <v>100000000</v>
       </c>
-      <c r="F33" s="189"/>
+      <c r="F33" s="168"/>
       <c r="G33" s="57"/>
-      <c r="H33" s="186"/>
-      <c r="I33" s="187"/>
+      <c r="H33" s="165"/>
+      <c r="I33" s="166"/>
       <c r="L33" s="54">
         <v>44061</v>
       </c>
@@ -3249,11 +3441,11 @@
       <c r="E34" s="60"/>
       <c r="F34" s="60"/>
       <c r="G34" s="60"/>
-      <c r="H34" s="191">
+      <c r="H34" s="159">
         <f>-(H26+H29-H27-H28-H30)</f>
         <v>168160000</v>
       </c>
-      <c r="I34" s="191"/>
+      <c r="I34" s="159"/>
       <c r="L34" s="61" t="s">
         <v>55</v>
       </c>
@@ -3268,45 +3460,45 @@
       </c>
     </row>
     <row r="37" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C37" s="155" t="s">
+      <c r="C37" s="150" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="156"/>
-      <c r="E37" s="156"/>
-      <c r="F37" s="156"/>
-      <c r="G37" s="157"/>
-      <c r="H37" s="181">
+      <c r="D37" s="151"/>
+      <c r="E37" s="151"/>
+      <c r="F37" s="151"/>
+      <c r="G37" s="152"/>
+      <c r="H37" s="153">
         <v>303000000</v>
       </c>
-      <c r="I37" s="181"/>
+      <c r="I37" s="153"/>
     </row>
     <row r="38" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C38" s="155" t="s">
+      <c r="C38" s="150" t="s">
         <v>44</v>
       </c>
-      <c r="D38" s="156"/>
-      <c r="E38" s="156"/>
-      <c r="F38" s="156"/>
-      <c r="G38" s="157"/>
-      <c r="H38" s="161">
+      <c r="D38" s="151"/>
+      <c r="E38" s="151"/>
+      <c r="F38" s="151"/>
+      <c r="G38" s="152"/>
+      <c r="H38" s="154">
         <f>H37/2</f>
         <v>151500000</v>
       </c>
-      <c r="I38" s="162"/>
+      <c r="I38" s="155"/>
     </row>
     <row r="39" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C39" s="155" t="s">
+      <c r="C39" s="150" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="156"/>
-      <c r="E39" s="156"/>
-      <c r="F39" s="156"/>
-      <c r="G39" s="157"/>
-      <c r="H39" s="153">
+      <c r="D39" s="151"/>
+      <c r="E39" s="151"/>
+      <c r="F39" s="151"/>
+      <c r="G39" s="152"/>
+      <c r="H39" s="156">
         <f>H34</f>
         <v>168160000</v>
       </c>
-      <c r="I39" s="153"/>
+      <c r="I39" s="156"/>
     </row>
     <row r="40" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C40" s="59" t="s">
@@ -3316,26 +3508,46 @@
       <c r="E40" s="60"/>
       <c r="F40" s="60"/>
       <c r="G40" s="60"/>
-      <c r="H40" s="191">
+      <c r="H40" s="159">
         <f>-(H38-H39)</f>
         <v>16660000</v>
       </c>
-      <c r="I40" s="191"/>
+      <c r="I40" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="C30:C33"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="H26:I26"/>
@@ -3348,38 +3560,18 @@
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="C29:G29"/>
-    <mergeCell ref="F7:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:I39"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -3390,8 +3582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3402,36 +3594,36 @@
   </cols>
   <sheetData>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="196" t="s">
+      <c r="A8" s="199" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="196"/>
+      <c r="B8" s="199"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="195" t="s">
+      <c r="B9" s="198" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="195"/>
-      <c r="D9" s="195"/>
-      <c r="E9" s="195"/>
+      <c r="C9" s="198"/>
+      <c r="D9" s="198"/>
+      <c r="E9" s="198"/>
       <c r="F9" s="65">
-        <f>'hàng nhập'!H59</f>
-        <v>1613935000</v>
+        <f>'hàng nhập'!H60</f>
+        <v>1623440000</v>
       </c>
       <c r="G9" s="2"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="195" t="s">
+      <c r="B10" s="198" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="195"/>
-      <c r="D10" s="195"/>
-      <c r="E10" s="195"/>
+      <c r="C10" s="198"/>
+      <c r="D10" s="198"/>
+      <c r="E10" s="198"/>
       <c r="F10" s="65">
         <f>F9/2</f>
-        <v>806967500</v>
+        <v>811720000</v>
       </c>
       <c r="G10" s="2"/>
     </row>
@@ -3442,11 +3634,11 @@
       <c r="C11" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="181">
+      <c r="D11" s="153">
         <v>32800000</v>
       </c>
-      <c r="E11" s="181"/>
-      <c r="F11" s="200">
+      <c r="E11" s="153"/>
+      <c r="F11" s="192">
         <f>SUM(D11:E20)</f>
         <v>765820000</v>
       </c>
@@ -3459,11 +3651,11 @@
       <c r="C12" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="181">
+      <c r="D12" s="153">
         <v>14500000</v>
       </c>
-      <c r="E12" s="181"/>
-      <c r="F12" s="201"/>
+      <c r="E12" s="153"/>
+      <c r="F12" s="193"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3473,114 +3665,121 @@
       <c r="C13" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="181">
+      <c r="D13" s="153">
         <v>1520000</v>
       </c>
-      <c r="E13" s="181"/>
-      <c r="F13" s="201"/>
+      <c r="E13" s="153"/>
+      <c r="F13" s="193"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="197" t="s">
+      <c r="B14" s="200" t="s">
         <v>64</v>
       </c>
       <c r="C14" s="64">
         <v>44025</v>
       </c>
-      <c r="D14" s="181">
+      <c r="D14" s="153">
         <v>150000000</v>
       </c>
-      <c r="E14" s="181"/>
-      <c r="F14" s="201"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="193"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="198"/>
+      <c r="B15" s="201"/>
       <c r="C15" s="64">
         <v>44037</v>
       </c>
-      <c r="D15" s="181">
+      <c r="D15" s="153">
         <v>150000000</v>
       </c>
-      <c r="E15" s="181"/>
-      <c r="F15" s="201"/>
+      <c r="E15" s="153"/>
+      <c r="F15" s="193"/>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="198"/>
+      <c r="B16" s="201"/>
       <c r="C16" s="64">
         <v>44041</v>
       </c>
-      <c r="D16" s="181">
+      <c r="D16" s="153">
         <v>67000000</v>
       </c>
-      <c r="E16" s="181"/>
-      <c r="F16" s="201"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="193"/>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="2:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="198"/>
+      <c r="B17" s="201"/>
       <c r="C17" s="64">
         <v>44046</v>
       </c>
-      <c r="D17" s="181">
+      <c r="D17" s="153">
         <v>50000000</v>
       </c>
-      <c r="E17" s="181"/>
-      <c r="F17" s="201"/>
+      <c r="E17" s="153"/>
+      <c r="F17" s="193"/>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="2:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="198"/>
+      <c r="B18" s="201"/>
       <c r="C18" s="64">
         <v>44053</v>
       </c>
-      <c r="D18" s="181">
+      <c r="D18" s="153">
         <v>100000000</v>
       </c>
-      <c r="E18" s="181"/>
-      <c r="F18" s="201"/>
+      <c r="E18" s="153"/>
+      <c r="F18" s="193"/>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="2:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="198"/>
+      <c r="B19" s="201"/>
       <c r="C19" s="64">
         <v>44061</v>
       </c>
-      <c r="D19" s="181">
+      <c r="D19" s="153">
         <v>100000000</v>
       </c>
-      <c r="E19" s="181"/>
-      <c r="F19" s="201"/>
+      <c r="E19" s="153"/>
+      <c r="F19" s="193"/>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="2:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="199"/>
+      <c r="B20" s="202"/>
       <c r="C20" s="64">
         <v>44075</v>
       </c>
-      <c r="D20" s="181">
+      <c r="D20" s="153">
         <v>100000000</v>
       </c>
-      <c r="E20" s="181"/>
-      <c r="F20" s="202"/>
+      <c r="E20" s="153"/>
+      <c r="F20" s="194"/>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="2:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="192" t="s">
+      <c r="B21" s="195" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="193"/>
-      <c r="D21" s="193"/>
-      <c r="E21" s="194"/>
+      <c r="C21" s="196"/>
+      <c r="D21" s="196"/>
+      <c r="E21" s="197"/>
       <c r="F21" s="65">
         <f>F10-F11</f>
-        <v>41147500</v>
+        <v>45900000</v>
       </c>
       <c r="G21" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="D20:E20"/>
     <mergeCell ref="F11:F20"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
@@ -3590,13 +3789,6 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="B14:B20"/>
-    <mergeCell ref="D20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/CHỊ TUYẾT SÀI GÒN/công nợ chị tuyết TPHCM.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/CHỊ TUYẾT SÀI GÒN/công nợ chị tuyết TPHCM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="hàng nhập" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="79">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t>Tổng cộng nhập hàng đợt 7</t>
+  </si>
+  <si>
+    <t>Chưa tính đơn hàng xuất cho đại Lý Nam Định</t>
   </si>
 </sst>
 </file>
@@ -888,24 +891,90 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="17" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -924,24 +993,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -951,53 +1002,20 @@
     <xf numFmtId="14" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1008,19 +1026,100 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1029,101 +1128,29 @@
     <xf numFmtId="165" fontId="12" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1133,30 +1160,6 @@
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1466,8 +1469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1510,48 +1513,48 @@
       <c r="H2" s="76"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="141" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="120"/>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="121"/>
+      <c r="A4" s="142"/>
+      <c r="B4" s="142"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="142"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="143"/>
     </row>
     <row r="5" spans="1:13" s="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="122" t="s">
+      <c r="C5" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="122"/>
-      <c r="E5" s="124" t="s">
+      <c r="D5" s="144"/>
+      <c r="E5" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
+      <c r="F5" s="146"/>
+      <c r="G5" s="146"/>
+      <c r="H5" s="146"/>
     </row>
     <row r="6" spans="1:13" s="77" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="122"/>
-      <c r="B6" s="123"/>
+      <c r="A6" s="144"/>
+      <c r="B6" s="145"/>
       <c r="C6" s="78" t="s">
         <v>10</v>
       </c>
@@ -1572,16 +1575,16 @@
       </c>
     </row>
     <row r="7" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="125">
+      <c r="B7" s="137">
         <v>43881</v>
       </c>
-      <c r="C7" s="144" t="s">
+      <c r="C7" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="144" t="s">
+      <c r="D7" s="119" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="83" t="s">
@@ -1599,10 +1602,10 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="114"/>
-      <c r="B8" s="126"/>
-      <c r="C8" s="145"/>
-      <c r="D8" s="145"/>
+      <c r="A8" s="136"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
       <c r="E8" s="86" t="s">
         <v>25</v>
       </c>
@@ -1618,10 +1621,10 @@
       </c>
     </row>
     <row r="9" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="114"/>
-      <c r="B9" s="126"/>
-      <c r="C9" s="145"/>
-      <c r="D9" s="145"/>
+      <c r="A9" s="136"/>
+      <c r="B9" s="138"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
       <c r="E9" s="86" t="s">
         <v>26</v>
       </c>
@@ -1637,10 +1640,10 @@
       </c>
     </row>
     <row r="10" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="114"/>
-      <c r="B10" s="126"/>
-      <c r="C10" s="145"/>
-      <c r="D10" s="145"/>
+      <c r="A10" s="136"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
       <c r="E10" s="86" t="s">
         <v>27</v>
       </c>
@@ -1656,10 +1659,10 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="115"/>
-      <c r="B11" s="127"/>
-      <c r="C11" s="146"/>
-      <c r="D11" s="146"/>
+      <c r="A11" s="133"/>
+      <c r="B11" s="139"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
       <c r="E11" s="89" t="s">
         <v>28</v>
       </c>
@@ -1675,13 +1678,13 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="141" t="s">
+      <c r="A12" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="142"/>
-      <c r="C12" s="142"/>
-      <c r="D12" s="142"/>
-      <c r="E12" s="143"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="118"/>
       <c r="F12" s="92">
         <f>SUM(F7:F11)</f>
         <v>17</v>
@@ -1693,16 +1696,16 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="135" t="s">
+      <c r="A13" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="147">
+      <c r="B13" s="122">
         <v>43915</v>
       </c>
-      <c r="C13" s="128" t="s">
+      <c r="C13" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="128" t="s">
+      <c r="D13" s="113" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="83" t="s">
@@ -1720,10 +1723,10 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="136"/>
-      <c r="B14" s="148"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="129"/>
+      <c r="A14" s="126"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="114"/>
       <c r="E14" s="86" t="s">
         <v>25</v>
       </c>
@@ -1739,10 +1742,10 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="136"/>
-      <c r="B15" s="148"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
+      <c r="A15" s="126"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
       <c r="E15" s="86" t="s">
         <v>26</v>
       </c>
@@ -1758,10 +1761,10 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="136"/>
-      <c r="B16" s="148"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
+      <c r="A16" s="126"/>
+      <c r="B16" s="123"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
       <c r="E16" s="86" t="s">
         <v>24</v>
       </c>
@@ -1778,10 +1781,10 @@
       <c r="M16" s="95"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="136"/>
-      <c r="B17" s="148"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="129"/>
+      <c r="A17" s="126"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="114"/>
       <c r="E17" s="86" t="s">
         <v>32</v>
       </c>
@@ -1798,10 +1801,10 @@
       <c r="M17" s="96"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="136"/>
-      <c r="B18" s="148"/>
-      <c r="C18" s="129"/>
-      <c r="D18" s="129"/>
+      <c r="A18" s="126"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="114"/>
       <c r="E18" s="86" t="s">
         <v>33</v>
       </c>
@@ -1817,10 +1820,10 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="136"/>
-      <c r="B19" s="148"/>
-      <c r="C19" s="129"/>
-      <c r="D19" s="129"/>
+      <c r="A19" s="126"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="114"/>
       <c r="E19" s="86" t="s">
         <v>34</v>
       </c>
@@ -1836,10 +1839,10 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="136"/>
-      <c r="B20" s="148"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="129"/>
+      <c r="A20" s="126"/>
+      <c r="B20" s="123"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="114"/>
       <c r="E20" s="86" t="s">
         <v>28</v>
       </c>
@@ -1855,10 +1858,10 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="137"/>
-      <c r="B21" s="149"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="130"/>
+      <c r="A21" s="127"/>
+      <c r="B21" s="124"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="115"/>
       <c r="E21" s="97" t="s">
         <v>27</v>
       </c>
@@ -1874,13 +1877,13 @@
       </c>
     </row>
     <row r="22" spans="1:13" s="100" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="141" t="s">
+      <c r="A22" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="142"/>
-      <c r="C22" s="142"/>
-      <c r="D22" s="142"/>
-      <c r="E22" s="143"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="118"/>
       <c r="F22" s="99">
         <f>SUM(F13:F21)</f>
         <v>308</v>
@@ -1892,16 +1895,16 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="128" t="s">
+      <c r="A23" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="131">
+      <c r="B23" s="147">
         <v>43916</v>
       </c>
-      <c r="C23" s="128" t="s">
+      <c r="C23" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="128" t="s">
+      <c r="D23" s="113" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="83" t="s">
@@ -1919,10 +1922,10 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="129"/>
-      <c r="B24" s="132"/>
-      <c r="C24" s="129"/>
-      <c r="D24" s="129"/>
+      <c r="A24" s="114"/>
+      <c r="B24" s="148"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="114"/>
       <c r="E24" s="86" t="s">
         <v>26</v>
       </c>
@@ -1938,10 +1941,10 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="129"/>
-      <c r="B25" s="132"/>
-      <c r="C25" s="129"/>
-      <c r="D25" s="129"/>
+      <c r="A25" s="114"/>
+      <c r="B25" s="148"/>
+      <c r="C25" s="114"/>
+      <c r="D25" s="114"/>
       <c r="E25" s="86" t="s">
         <v>24</v>
       </c>
@@ -1957,10 +1960,10 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="129"/>
-      <c r="B26" s="132"/>
-      <c r="C26" s="129"/>
-      <c r="D26" s="129"/>
+      <c r="A26" s="114"/>
+      <c r="B26" s="148"/>
+      <c r="C26" s="114"/>
+      <c r="D26" s="114"/>
       <c r="E26" s="86" t="s">
         <v>32</v>
       </c>
@@ -1976,10 +1979,10 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="129"/>
-      <c r="B27" s="132"/>
-      <c r="C27" s="129"/>
-      <c r="D27" s="129"/>
+      <c r="A27" s="114"/>
+      <c r="B27" s="148"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="114"/>
       <c r="E27" s="86" t="s">
         <v>33</v>
       </c>
@@ -1995,10 +1998,10 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="129"/>
-      <c r="B28" s="132"/>
-      <c r="C28" s="129"/>
-      <c r="D28" s="129"/>
+      <c r="A28" s="114"/>
+      <c r="B28" s="148"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="114"/>
       <c r="E28" s="86" t="s">
         <v>28</v>
       </c>
@@ -2015,10 +2018,10 @@
       <c r="J28" s="95"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="130"/>
-      <c r="B29" s="133"/>
-      <c r="C29" s="130"/>
-      <c r="D29" s="130"/>
+      <c r="A29" s="115"/>
+      <c r="B29" s="149"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="115"/>
       <c r="E29" s="89" t="s">
         <v>27</v>
       </c>
@@ -2035,13 +2038,13 @@
       <c r="J29" s="95"/>
     </row>
     <row r="30" spans="1:13" s="100" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="134" t="s">
+      <c r="A30" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="134"/>
-      <c r="C30" s="134"/>
-      <c r="D30" s="134"/>
-      <c r="E30" s="134"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
       <c r="F30" s="99">
         <f>SUM(F23:F29)</f>
         <v>288</v>
@@ -2053,16 +2056,16 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="135" t="s">
+      <c r="A31" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="147">
+      <c r="B31" s="122">
         <v>44032</v>
       </c>
-      <c r="C31" s="128" t="s">
+      <c r="C31" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="128" t="s">
+      <c r="D31" s="113" t="s">
         <v>23</v>
       </c>
       <c r="E31" s="83" t="s">
@@ -2080,10 +2083,10 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="136"/>
-      <c r="B32" s="148"/>
-      <c r="C32" s="129"/>
-      <c r="D32" s="129"/>
+      <c r="A32" s="126"/>
+      <c r="B32" s="123"/>
+      <c r="C32" s="114"/>
+      <c r="D32" s="114"/>
       <c r="E32" s="86" t="s">
         <v>25</v>
       </c>
@@ -2099,10 +2102,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="136"/>
-      <c r="B33" s="148"/>
-      <c r="C33" s="129"/>
-      <c r="D33" s="129"/>
+      <c r="A33" s="126"/>
+      <c r="B33" s="123"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="114"/>
       <c r="E33" s="86" t="s">
         <v>26</v>
       </c>
@@ -2118,10 +2121,10 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="136"/>
-      <c r="B34" s="148"/>
-      <c r="C34" s="129"/>
-      <c r="D34" s="129"/>
+      <c r="A34" s="126"/>
+      <c r="B34" s="123"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
       <c r="E34" s="86" t="s">
         <v>24</v>
       </c>
@@ -2137,10 +2140,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="136"/>
-      <c r="B35" s="148"/>
-      <c r="C35" s="129"/>
-      <c r="D35" s="129"/>
+      <c r="A35" s="126"/>
+      <c r="B35" s="123"/>
+      <c r="C35" s="114"/>
+      <c r="D35" s="114"/>
       <c r="E35" s="86" t="s">
         <v>32</v>
       </c>
@@ -2156,10 +2159,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="136"/>
-      <c r="B36" s="148"/>
-      <c r="C36" s="129"/>
-      <c r="D36" s="129"/>
+      <c r="A36" s="126"/>
+      <c r="B36" s="123"/>
+      <c r="C36" s="114"/>
+      <c r="D36" s="114"/>
       <c r="E36" s="86" t="s">
         <v>33</v>
       </c>
@@ -2175,10 +2178,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="136"/>
-      <c r="B37" s="148"/>
-      <c r="C37" s="129"/>
-      <c r="D37" s="129"/>
+      <c r="A37" s="126"/>
+      <c r="B37" s="123"/>
+      <c r="C37" s="114"/>
+      <c r="D37" s="114"/>
       <c r="E37" s="86" t="s">
         <v>28</v>
       </c>
@@ -2194,10 +2197,10 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="137"/>
-      <c r="B38" s="149"/>
-      <c r="C38" s="130"/>
-      <c r="D38" s="130"/>
+      <c r="A38" s="127"/>
+      <c r="B38" s="124"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="115"/>
       <c r="E38" s="89" t="s">
         <v>27</v>
       </c>
@@ -2213,13 +2216,13 @@
       </c>
     </row>
     <row r="39" spans="1:8" s="100" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="134" t="s">
+      <c r="A39" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="134"/>
-      <c r="C39" s="134"/>
-      <c r="D39" s="134"/>
-      <c r="E39" s="134"/>
+      <c r="B39" s="128"/>
+      <c r="C39" s="128"/>
+      <c r="D39" s="128"/>
+      <c r="E39" s="128"/>
       <c r="F39" s="99">
         <f>SUM(F31:F38)</f>
         <v>1464</v>
@@ -2241,16 +2244,16 @@
       <c r="H40" s="112"/>
     </row>
     <row r="41" spans="1:8" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="113">
+      <c r="A41" s="132">
         <v>757</v>
       </c>
-      <c r="B41" s="116">
+      <c r="B41" s="134">
         <v>44061</v>
       </c>
-      <c r="C41" s="113" t="s">
+      <c r="C41" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="113" t="s">
+      <c r="D41" s="132" t="s">
         <v>23</v>
       </c>
       <c r="E41" s="101" t="s">
@@ -2268,10 +2271,10 @@
       </c>
     </row>
     <row r="42" spans="1:8" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="114"/>
-      <c r="B42" s="117"/>
-      <c r="C42" s="114"/>
-      <c r="D42" s="114"/>
+      <c r="A42" s="136"/>
+      <c r="B42" s="140"/>
+      <c r="C42" s="136"/>
+      <c r="D42" s="136"/>
       <c r="E42" s="103" t="s">
         <v>25</v>
       </c>
@@ -2287,10 +2290,10 @@
       </c>
     </row>
     <row r="43" spans="1:8" s="75" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="114"/>
-      <c r="B43" s="117"/>
-      <c r="C43" s="114"/>
-      <c r="D43" s="114"/>
+      <c r="A43" s="136"/>
+      <c r="B43" s="140"/>
+      <c r="C43" s="136"/>
+      <c r="D43" s="136"/>
       <c r="E43" s="103" t="s">
         <v>26</v>
       </c>
@@ -2306,10 +2309,10 @@
       </c>
     </row>
     <row r="44" spans="1:8" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="114"/>
-      <c r="B44" s="117"/>
-      <c r="C44" s="114"/>
-      <c r="D44" s="114"/>
+      <c r="A44" s="136"/>
+      <c r="B44" s="140"/>
+      <c r="C44" s="136"/>
+      <c r="D44" s="136"/>
       <c r="E44" s="103" t="s">
         <v>24</v>
       </c>
@@ -2325,10 +2328,10 @@
       </c>
     </row>
     <row r="45" spans="1:8" s="75" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="114"/>
-      <c r="B45" s="117"/>
-      <c r="C45" s="114"/>
-      <c r="D45" s="114"/>
+      <c r="A45" s="136"/>
+      <c r="B45" s="140"/>
+      <c r="C45" s="136"/>
+      <c r="D45" s="136"/>
       <c r="E45" s="103" t="s">
         <v>28</v>
       </c>
@@ -2344,10 +2347,10 @@
       </c>
     </row>
     <row r="46" spans="1:8" s="75" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="115"/>
-      <c r="B46" s="118"/>
-      <c r="C46" s="115"/>
-      <c r="D46" s="115"/>
+      <c r="A46" s="133"/>
+      <c r="B46" s="135"/>
+      <c r="C46" s="133"/>
+      <c r="D46" s="133"/>
       <c r="E46" s="105" t="s">
         <v>27</v>
       </c>
@@ -2363,13 +2366,13 @@
       </c>
     </row>
     <row r="47" spans="1:8" s="100" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="134" t="s">
+      <c r="A47" s="128" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="134"/>
-      <c r="C47" s="134"/>
-      <c r="D47" s="134"/>
-      <c r="E47" s="134"/>
+      <c r="B47" s="128"/>
+      <c r="C47" s="128"/>
+      <c r="D47" s="128"/>
+      <c r="E47" s="128"/>
       <c r="F47" s="99">
         <f>SUM(F41:F46)</f>
         <v>648</v>
@@ -2381,16 +2384,16 @@
       </c>
     </row>
     <row r="48" spans="1:8" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="113">
+      <c r="A48" s="132">
         <v>773</v>
       </c>
-      <c r="B48" s="116">
+      <c r="B48" s="134">
         <v>44066</v>
       </c>
-      <c r="C48" s="113" t="s">
+      <c r="C48" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="113" t="s">
+      <c r="D48" s="132" t="s">
         <v>23</v>
       </c>
       <c r="E48" s="101" t="s">
@@ -2408,10 +2411,10 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="115"/>
-      <c r="B49" s="118"/>
-      <c r="C49" s="115"/>
-      <c r="D49" s="115"/>
+      <c r="A49" s="133"/>
+      <c r="B49" s="135"/>
+      <c r="C49" s="133"/>
+      <c r="D49" s="133"/>
       <c r="E49" s="105" t="s">
         <v>69</v>
       </c>
@@ -2427,13 +2430,13 @@
       </c>
     </row>
     <row r="50" spans="1:8" s="100" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="134" t="s">
+      <c r="A50" s="128" t="s">
         <v>71</v>
       </c>
-      <c r="B50" s="134"/>
-      <c r="C50" s="134"/>
-      <c r="D50" s="134"/>
-      <c r="E50" s="134"/>
+      <c r="B50" s="128"/>
+      <c r="C50" s="128"/>
+      <c r="D50" s="128"/>
+      <c r="E50" s="128"/>
       <c r="F50" s="99">
         <f>F48+F49</f>
         <v>720</v>
@@ -2445,16 +2448,16 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="113">
+      <c r="A51" s="132">
         <v>1402</v>
       </c>
-      <c r="B51" s="125">
+      <c r="B51" s="137">
         <v>44186</v>
       </c>
-      <c r="C51" s="113" t="s">
+      <c r="C51" s="132" t="s">
         <v>74</v>
       </c>
-      <c r="D51" s="113" t="s">
+      <c r="D51" s="132" t="s">
         <v>75</v>
       </c>
       <c r="E51" s="83" t="s">
@@ -2472,10 +2475,10 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="114"/>
-      <c r="B52" s="126"/>
-      <c r="C52" s="114"/>
-      <c r="D52" s="114"/>
+      <c r="A52" s="136"/>
+      <c r="B52" s="138"/>
+      <c r="C52" s="136"/>
+      <c r="D52" s="136"/>
       <c r="E52" s="86" t="s">
         <v>25</v>
       </c>
@@ -2491,10 +2494,10 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="114"/>
-      <c r="B53" s="126"/>
-      <c r="C53" s="114"/>
-      <c r="D53" s="114"/>
+      <c r="A53" s="136"/>
+      <c r="B53" s="138"/>
+      <c r="C53" s="136"/>
+      <c r="D53" s="136"/>
       <c r="E53" s="86" t="s">
         <v>26</v>
       </c>
@@ -2510,10 +2513,10 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="114"/>
-      <c r="B54" s="126"/>
-      <c r="C54" s="114"/>
-      <c r="D54" s="114"/>
+      <c r="A54" s="136"/>
+      <c r="B54" s="138"/>
+      <c r="C54" s="136"/>
+      <c r="D54" s="136"/>
       <c r="E54" s="86" t="s">
         <v>24</v>
       </c>
@@ -2529,10 +2532,10 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="114"/>
-      <c r="B55" s="126"/>
-      <c r="C55" s="114"/>
-      <c r="D55" s="114"/>
+      <c r="A55" s="136"/>
+      <c r="B55" s="138"/>
+      <c r="C55" s="136"/>
+      <c r="D55" s="136"/>
       <c r="E55" s="86" t="s">
         <v>32</v>
       </c>
@@ -2548,10 +2551,10 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="114"/>
-      <c r="B56" s="126"/>
-      <c r="C56" s="114"/>
-      <c r="D56" s="114"/>
+      <c r="A56" s="136"/>
+      <c r="B56" s="138"/>
+      <c r="C56" s="136"/>
+      <c r="D56" s="136"/>
       <c r="E56" s="86" t="s">
         <v>33</v>
       </c>
@@ -2567,10 +2570,10 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="114"/>
-      <c r="B57" s="126"/>
-      <c r="C57" s="114"/>
-      <c r="D57" s="114"/>
+      <c r="A57" s="136"/>
+      <c r="B57" s="138"/>
+      <c r="C57" s="136"/>
+      <c r="D57" s="136"/>
       <c r="E57" s="86" t="s">
         <v>28</v>
       </c>
@@ -2586,10 +2589,10 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="115"/>
-      <c r="B58" s="127"/>
-      <c r="C58" s="115"/>
-      <c r="D58" s="115"/>
+      <c r="A58" s="133"/>
+      <c r="B58" s="139"/>
+      <c r="C58" s="133"/>
+      <c r="D58" s="133"/>
       <c r="E58" s="89" t="s">
         <v>27</v>
       </c>
@@ -2605,13 +2608,13 @@
       </c>
     </row>
     <row r="59" spans="1:8" s="100" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="134" t="s">
+      <c r="A59" s="128" t="s">
         <v>77</v>
       </c>
-      <c r="B59" s="134"/>
-      <c r="C59" s="134"/>
-      <c r="D59" s="134"/>
-      <c r="E59" s="134"/>
+      <c r="B59" s="128"/>
+      <c r="C59" s="128"/>
+      <c r="D59" s="128"/>
+      <c r="E59" s="128"/>
       <c r="F59" s="99">
         <f>SUM(F51:F58)</f>
         <v>20</v>
@@ -2623,13 +2626,13 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="138" t="s">
+      <c r="A60" s="129" t="s">
         <v>76</v>
       </c>
-      <c r="B60" s="139"/>
-      <c r="C60" s="139"/>
-      <c r="D60" s="139"/>
-      <c r="E60" s="140"/>
+      <c r="B60" s="130"/>
+      <c r="C60" s="130"/>
+      <c r="D60" s="130"/>
+      <c r="E60" s="131"/>
       <c r="F60" s="107">
         <f>F30+F22+F12+F39+F47+F50</f>
         <v>3445</v>
@@ -2642,32 +2645,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C31:C38"/>
-    <mergeCell ref="D31:D38"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="C13:C21"/>
-    <mergeCell ref="D13:D21"/>
-    <mergeCell ref="C23:C29"/>
-    <mergeCell ref="D23:D29"/>
-    <mergeCell ref="B31:B38"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="B13:B21"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A51:A58"/>
-    <mergeCell ref="B51:B58"/>
-    <mergeCell ref="C51:C58"/>
-    <mergeCell ref="D51:D58"/>
     <mergeCell ref="A41:A46"/>
     <mergeCell ref="B41:B46"/>
     <mergeCell ref="C41:C46"/>
@@ -2684,6 +2661,32 @@
     <mergeCell ref="B23:B29"/>
     <mergeCell ref="A39:E39"/>
     <mergeCell ref="A31:A38"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A51:A58"/>
+    <mergeCell ref="B51:B58"/>
+    <mergeCell ref="C51:C58"/>
+    <mergeCell ref="D51:D58"/>
+    <mergeCell ref="C31:C38"/>
+    <mergeCell ref="D31:D38"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="C13:C21"/>
+    <mergeCell ref="D13:D21"/>
+    <mergeCell ref="C23:C29"/>
+    <mergeCell ref="D23:D29"/>
+    <mergeCell ref="B31:B38"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="B13:B21"/>
+    <mergeCell ref="A30:E30"/>
   </mergeCells>
   <pageMargins left="0.34" right="0.2" top="0.45" bottom="0.32" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -2694,7 +2697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="H30" sqref="H30:I33"/>
     </sheetView>
   </sheetViews>
@@ -2735,24 +2738,24 @@
       <c r="S2" s="50"/>
     </row>
     <row r="3" spans="1:21" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="177" t="s">
+      <c r="A3" s="164" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="177"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="177"/>
-      <c r="I3" s="177"/>
-      <c r="J3" s="177"/>
-      <c r="K3" s="177"/>
-      <c r="L3" s="177"/>
-      <c r="M3" s="177"/>
-      <c r="N3" s="177"/>
-      <c r="O3" s="177"/>
-      <c r="P3" s="177"/>
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="164"/>
+      <c r="K3" s="164"/>
+      <c r="L3" s="164"/>
+      <c r="M3" s="164"/>
+      <c r="N3" s="164"/>
+      <c r="O3" s="164"/>
+      <c r="P3" s="164"/>
       <c r="S3" s="50"/>
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -2767,44 +2770,44 @@
       <c r="S4" s="44"/>
     </row>
     <row r="5" spans="1:21" s="3" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="178" t="s">
+      <c r="A5" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="179" t="s">
+      <c r="B5" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="178" t="s">
+      <c r="C5" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="178" t="s">
+      <c r="D5" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="180" t="s">
+      <c r="E5" s="165"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="180"/>
-      <c r="I5" s="180"/>
-      <c r="J5" s="180"/>
-      <c r="K5" s="181"/>
-      <c r="L5" s="183" t="s">
+      <c r="H5" s="167"/>
+      <c r="I5" s="167"/>
+      <c r="J5" s="167"/>
+      <c r="K5" s="168"/>
+      <c r="L5" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="184" t="s">
+      <c r="M5" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="184"/>
-      <c r="O5" s="184"/>
-      <c r="P5" s="182" t="s">
+      <c r="N5" s="171"/>
+      <c r="O5" s="171"/>
+      <c r="P5" s="169" t="s">
         <v>9</v>
       </c>
       <c r="S5" s="51"/>
     </row>
     <row r="6" spans="1:21" s="3" customFormat="1" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="178"/>
-      <c r="B6" s="179"/>
-      <c r="C6" s="178"/>
+      <c r="A6" s="165"/>
+      <c r="B6" s="166"/>
+      <c r="C6" s="165"/>
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
@@ -2829,7 +2832,7 @@
       <c r="K6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="183"/>
+      <c r="L6" s="170"/>
       <c r="M6" s="7" t="s">
         <v>18</v>
       </c>
@@ -2839,23 +2842,23 @@
       <c r="O6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="182"/>
+      <c r="P6" s="169"/>
       <c r="S6" s="51"/>
       <c r="U6" s="1"/>
     </row>
     <row r="7" spans="1:21" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="169"/>
-      <c r="B7" s="175">
+      <c r="A7" s="172"/>
+      <c r="B7" s="178">
         <v>43881</v>
       </c>
-      <c r="C7" s="169"/>
-      <c r="D7" s="169" t="s">
+      <c r="C7" s="172"/>
+      <c r="D7" s="172" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="169" t="s">
+      <c r="E7" s="172" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="169"/>
+      <c r="F7" s="172"/>
       <c r="G7" s="10" t="s">
         <v>24</v>
       </c>
@@ -2887,12 +2890,12 @@
       <c r="S7" s="44"/>
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="170"/>
-      <c r="B8" s="176"/>
-      <c r="C8" s="170"/>
-      <c r="D8" s="170"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="170"/>
+      <c r="A8" s="173"/>
+      <c r="B8" s="179"/>
+      <c r="C8" s="173"/>
+      <c r="D8" s="173"/>
+      <c r="E8" s="173"/>
+      <c r="F8" s="173"/>
       <c r="G8" s="12" t="s">
         <v>25</v>
       </c>
@@ -2924,12 +2927,12 @@
       <c r="S8" s="44"/>
     </row>
     <row r="9" spans="1:21" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="170"/>
-      <c r="B9" s="176"/>
-      <c r="C9" s="170"/>
-      <c r="D9" s="170"/>
-      <c r="E9" s="170"/>
-      <c r="F9" s="170"/>
+      <c r="A9" s="173"/>
+      <c r="B9" s="179"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="173"/>
+      <c r="E9" s="173"/>
+      <c r="F9" s="173"/>
       <c r="G9" s="12" t="s">
         <v>26</v>
       </c>
@@ -2961,12 +2964,12 @@
       <c r="S9" s="44"/>
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="170"/>
-      <c r="B10" s="176"/>
-      <c r="C10" s="170"/>
-      <c r="D10" s="170"/>
-      <c r="E10" s="170"/>
-      <c r="F10" s="170"/>
+      <c r="A10" s="173"/>
+      <c r="B10" s="179"/>
+      <c r="C10" s="173"/>
+      <c r="D10" s="173"/>
+      <c r="E10" s="173"/>
+      <c r="F10" s="173"/>
       <c r="G10" s="12" t="s">
         <v>27</v>
       </c>
@@ -2998,12 +3001,12 @@
       <c r="S10" s="44"/>
     </row>
     <row r="11" spans="1:21" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="170"/>
-      <c r="B11" s="176"/>
-      <c r="C11" s="170"/>
-      <c r="D11" s="170"/>
-      <c r="E11" s="170"/>
-      <c r="F11" s="170"/>
+      <c r="A11" s="173"/>
+      <c r="B11" s="179"/>
+      <c r="C11" s="173"/>
+      <c r="D11" s="173"/>
+      <c r="E11" s="173"/>
+      <c r="F11" s="173"/>
       <c r="G11" s="16" t="s">
         <v>28</v>
       </c>
@@ -3035,18 +3038,18 @@
       <c r="S11" s="44"/>
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="171"/>
-      <c r="B12" s="173">
+      <c r="A12" s="174"/>
+      <c r="B12" s="176">
         <v>44051</v>
       </c>
-      <c r="C12" s="171"/>
-      <c r="D12" s="171" t="s">
+      <c r="C12" s="174"/>
+      <c r="D12" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="171" t="s">
+      <c r="E12" s="174" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="171"/>
+      <c r="F12" s="174"/>
       <c r="G12" s="10" t="s">
         <v>28</v>
       </c>
@@ -3077,12 +3080,12 @@
       <c r="S12" s="44"/>
     </row>
     <row r="13" spans="1:21" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="172"/>
-      <c r="B13" s="174"/>
-      <c r="C13" s="172"/>
-      <c r="D13" s="172"/>
-      <c r="E13" s="172"/>
-      <c r="F13" s="172"/>
+      <c r="A13" s="175"/>
+      <c r="B13" s="177"/>
+      <c r="C13" s="175"/>
+      <c r="D13" s="175"/>
+      <c r="E13" s="175"/>
+      <c r="F13" s="175"/>
       <c r="G13" s="14" t="s">
         <v>27</v>
       </c>
@@ -3113,15 +3116,15 @@
       <c r="S13" s="44"/>
     </row>
     <row r="14" spans="1:21" s="20" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="185" t="s">
+      <c r="A14" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="185"/>
-      <c r="C14" s="185"/>
-      <c r="D14" s="185"/>
-      <c r="E14" s="185"/>
-      <c r="F14" s="185"/>
-      <c r="G14" s="185"/>
+      <c r="B14" s="150"/>
+      <c r="C14" s="150"/>
+      <c r="D14" s="150"/>
+      <c r="E14" s="150"/>
+      <c r="F14" s="150"/>
+      <c r="G14" s="150"/>
       <c r="H14" s="18">
         <f>SUM(H7:H13)</f>
         <v>540</v>
@@ -3183,17 +3186,17 @@
       <c r="S17" s="44"/>
     </row>
     <row r="18" spans="2:19" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="189" t="s">
+      <c r="C18" s="158" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="190"/>
-      <c r="E18" s="190"/>
-      <c r="F18" s="190"/>
-      <c r="G18" s="191"/>
-      <c r="H18" s="186">
+      <c r="D18" s="159"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="160"/>
+      <c r="H18" s="151">
         <v>795560000</v>
       </c>
-      <c r="I18" s="187"/>
+      <c r="I18" s="152"/>
       <c r="J18" s="2"/>
       <c r="K18" s="43"/>
       <c r="L18" s="2"/>
@@ -3203,18 +3206,18 @@
     </row>
     <row r="19" spans="2:19" s="1" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="44"/>
-      <c r="C19" s="150" t="s">
+      <c r="C19" s="155" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="151"/>
-      <c r="E19" s="151"/>
-      <c r="F19" s="151"/>
-      <c r="G19" s="152"/>
-      <c r="H19" s="154">
+      <c r="D19" s="156"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="157"/>
+      <c r="H19" s="161">
         <f>H18/2</f>
         <v>397780000</v>
       </c>
-      <c r="I19" s="155"/>
+      <c r="I19" s="162"/>
       <c r="J19" s="2"/>
       <c r="K19" s="43"/>
       <c r="L19" s="2"/>
@@ -3225,23 +3228,23 @@
     <row r="20" spans="2:19" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:19" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="150" t="s">
+      <c r="C22" s="155" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="151"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="154">
+      <c r="D22" s="156"/>
+      <c r="E22" s="156"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="157"/>
+      <c r="H22" s="161">
         <f>H19-H27-H28</f>
         <v>97780000</v>
       </c>
-      <c r="I22" s="155"/>
-      <c r="J22" s="188" t="s">
+      <c r="I22" s="162"/>
+      <c r="J22" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="K22" s="188"/>
-      <c r="L22" s="188"/>
+      <c r="K22" s="154"/>
+      <c r="L22" s="154"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D23" s="56"/>
@@ -3254,42 +3257,42 @@
         <v>50</v>
       </c>
       <c r="K24" s="1"/>
-      <c r="L24" s="158" t="s">
+      <c r="L24" s="190" t="s">
         <v>45</v>
       </c>
-      <c r="M24" s="158"/>
+      <c r="M24" s="190"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C25" s="150" t="s">
+      <c r="C25" s="155" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="151"/>
-      <c r="E25" s="151"/>
-      <c r="F25" s="151"/>
-      <c r="G25" s="152"/>
-      <c r="H25" s="153">
+      <c r="D25" s="156"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="157"/>
+      <c r="H25" s="181">
         <f>'hàng nhập'!H39</f>
         <v>702120000</v>
       </c>
-      <c r="I25" s="153"/>
-      <c r="K25" s="157" t="s">
+      <c r="I25" s="181"/>
+      <c r="K25" s="163" t="s">
         <v>53</v>
       </c>
-      <c r="L25" s="157"/>
+      <c r="L25" s="163"/>
     </row>
     <row r="26" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C26" s="150" t="s">
+      <c r="C26" s="155" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="151"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="152"/>
-      <c r="H26" s="154">
+      <c r="D26" s="156"/>
+      <c r="E26" s="156"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="157"/>
+      <c r="H26" s="161">
         <f>H25/2</f>
         <v>351060000</v>
       </c>
-      <c r="I26" s="155"/>
+      <c r="I26" s="162"/>
       <c r="L26" s="54">
         <v>43659</v>
       </c>
@@ -3298,17 +3301,17 @@
       </c>
     </row>
     <row r="27" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C27" s="150" t="s">
+      <c r="C27" s="155" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="151"/>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="152"/>
-      <c r="H27" s="156">
+      <c r="D27" s="156"/>
+      <c r="E27" s="156"/>
+      <c r="F27" s="156"/>
+      <c r="G27" s="157"/>
+      <c r="H27" s="153">
         <v>150000000</v>
       </c>
-      <c r="I27" s="156"/>
+      <c r="I27" s="153"/>
       <c r="L27" s="54">
         <v>44037</v>
       </c>
@@ -3317,17 +3320,17 @@
       </c>
     </row>
     <row r="28" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C28" s="150" t="s">
+      <c r="C28" s="155" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="151"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="152"/>
-      <c r="H28" s="156">
+      <c r="D28" s="156"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="157"/>
+      <c r="H28" s="153">
         <v>150000000</v>
       </c>
-      <c r="I28" s="156"/>
+      <c r="I28" s="153"/>
       <c r="L28" s="61" t="s">
         <v>56</v>
       </c>
@@ -3336,39 +3339,39 @@
       </c>
     </row>
     <row r="29" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="150" t="s">
+      <c r="C29" s="155" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="151"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="152"/>
-      <c r="H29" s="156">
+      <c r="D29" s="156"/>
+      <c r="E29" s="156"/>
+      <c r="F29" s="156"/>
+      <c r="G29" s="157"/>
+      <c r="H29" s="153">
         <v>97780000</v>
       </c>
-      <c r="I29" s="156"/>
-      <c r="K29" s="157" t="s">
+      <c r="I29" s="153"/>
+      <c r="K29" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="L29" s="157"/>
+      <c r="L29" s="163"/>
     </row>
     <row r="30" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="160" t="s">
+      <c r="C30" s="180" t="s">
         <v>45</v>
       </c>
       <c r="D30" s="58">
         <v>44041</v>
       </c>
-      <c r="E30" s="167">
+      <c r="E30" s="188">
         <v>67000000</v>
       </c>
-      <c r="F30" s="168"/>
+      <c r="F30" s="189"/>
       <c r="G30" s="57"/>
-      <c r="H30" s="161">
+      <c r="H30" s="182">
         <f>E30+E31+E32+E33</f>
         <v>317000000</v>
       </c>
-      <c r="I30" s="162"/>
+      <c r="I30" s="183"/>
       <c r="L30" s="54">
         <v>43675</v>
       </c>
@@ -3377,17 +3380,17 @@
       </c>
     </row>
     <row r="31" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="160"/>
+      <c r="C31" s="180"/>
       <c r="D31" s="58">
         <v>44046</v>
       </c>
-      <c r="E31" s="167">
+      <c r="E31" s="188">
         <v>50000000</v>
       </c>
-      <c r="F31" s="168"/>
+      <c r="F31" s="189"/>
       <c r="G31" s="57"/>
-      <c r="H31" s="163"/>
-      <c r="I31" s="164"/>
+      <c r="H31" s="184"/>
+      <c r="I31" s="185"/>
       <c r="L31" s="54">
         <v>44046</v>
       </c>
@@ -3396,17 +3399,17 @@
       </c>
     </row>
     <row r="32" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="160"/>
+      <c r="C32" s="180"/>
       <c r="D32" s="58">
         <v>44053</v>
       </c>
-      <c r="E32" s="167">
+      <c r="E32" s="188">
         <v>100000000</v>
       </c>
-      <c r="F32" s="168"/>
+      <c r="F32" s="189"/>
       <c r="G32" s="57"/>
-      <c r="H32" s="163"/>
-      <c r="I32" s="164"/>
+      <c r="H32" s="184"/>
+      <c r="I32" s="185"/>
       <c r="L32" s="54">
         <v>44053</v>
       </c>
@@ -3415,17 +3418,17 @@
       </c>
     </row>
     <row r="33" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C33" s="160"/>
+      <c r="C33" s="180"/>
       <c r="D33" s="58">
         <v>44061</v>
       </c>
-      <c r="E33" s="167">
+      <c r="E33" s="188">
         <v>100000000</v>
       </c>
-      <c r="F33" s="168"/>
+      <c r="F33" s="189"/>
       <c r="G33" s="57"/>
-      <c r="H33" s="165"/>
-      <c r="I33" s="166"/>
+      <c r="H33" s="186"/>
+      <c r="I33" s="187"/>
       <c r="L33" s="54">
         <v>44061</v>
       </c>
@@ -3441,11 +3444,11 @@
       <c r="E34" s="60"/>
       <c r="F34" s="60"/>
       <c r="G34" s="60"/>
-      <c r="H34" s="159">
+      <c r="H34" s="191">
         <f>-(H26+H29-H27-H28-H30)</f>
         <v>168160000</v>
       </c>
-      <c r="I34" s="159"/>
+      <c r="I34" s="191"/>
       <c r="L34" s="61" t="s">
         <v>55</v>
       </c>
@@ -3460,45 +3463,45 @@
       </c>
     </row>
     <row r="37" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C37" s="150" t="s">
+      <c r="C37" s="155" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="151"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="152"/>
-      <c r="H37" s="153">
+      <c r="D37" s="156"/>
+      <c r="E37" s="156"/>
+      <c r="F37" s="156"/>
+      <c r="G37" s="157"/>
+      <c r="H37" s="181">
         <v>303000000</v>
       </c>
-      <c r="I37" s="153"/>
+      <c r="I37" s="181"/>
     </row>
     <row r="38" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C38" s="150" t="s">
+      <c r="C38" s="155" t="s">
         <v>44</v>
       </c>
-      <c r="D38" s="151"/>
-      <c r="E38" s="151"/>
-      <c r="F38" s="151"/>
-      <c r="G38" s="152"/>
-      <c r="H38" s="154">
+      <c r="D38" s="156"/>
+      <c r="E38" s="156"/>
+      <c r="F38" s="156"/>
+      <c r="G38" s="157"/>
+      <c r="H38" s="161">
         <f>H37/2</f>
         <v>151500000</v>
       </c>
-      <c r="I38" s="155"/>
+      <c r="I38" s="162"/>
     </row>
     <row r="39" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C39" s="150" t="s">
+      <c r="C39" s="155" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="151"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="152"/>
-      <c r="H39" s="156">
+      <c r="D39" s="156"/>
+      <c r="E39" s="156"/>
+      <c r="F39" s="156"/>
+      <c r="G39" s="157"/>
+      <c r="H39" s="153">
         <f>H34</f>
         <v>168160000</v>
       </c>
-      <c r="I39" s="156"/>
+      <c r="I39" s="153"/>
     </row>
     <row r="40" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C40" s="59" t="s">
@@ -3508,34 +3511,38 @@
       <c r="E40" s="60"/>
       <c r="F40" s="60"/>
       <c r="G40" s="60"/>
-      <c r="H40" s="159">
+      <c r="H40" s="191">
         <f>-(H38-H39)</f>
         <v>16660000</v>
       </c>
-      <c r="I40" s="159"/>
+      <c r="I40" s="191"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I33"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C29:G29"/>
     <mergeCell ref="F7:F11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
@@ -3548,30 +3555,26 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I33"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="K25:L25"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -3580,10 +3583,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A8:L21"/>
+  <dimension ref="A8:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3594,19 +3597,19 @@
   </cols>
   <sheetData>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="199" t="s">
+      <c r="A8" s="196" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="199"/>
+      <c r="B8" s="196"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="198" t="s">
+      <c r="B9" s="195" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="198"/>
-      <c r="D9" s="198"/>
-      <c r="E9" s="198"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="195"/>
+      <c r="E9" s="195"/>
       <c r="F9" s="65">
         <f>'hàng nhập'!H60</f>
         <v>1623440000</v>
@@ -3615,12 +3618,12 @@
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="198" t="s">
+      <c r="B10" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="198"/>
-      <c r="D10" s="198"/>
-      <c r="E10" s="198"/>
+      <c r="C10" s="195"/>
+      <c r="D10" s="195"/>
+      <c r="E10" s="195"/>
       <c r="F10" s="65">
         <f>F9/2</f>
         <v>811720000</v>
@@ -3634,11 +3637,11 @@
       <c r="C11" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="153">
+      <c r="D11" s="181">
         <v>32800000</v>
       </c>
-      <c r="E11" s="153"/>
-      <c r="F11" s="192">
+      <c r="E11" s="181"/>
+      <c r="F11" s="200">
         <f>SUM(D11:E20)</f>
         <v>765820000</v>
       </c>
@@ -3651,11 +3654,11 @@
       <c r="C12" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="153">
+      <c r="D12" s="181">
         <v>14500000</v>
       </c>
-      <c r="E12" s="153"/>
-      <c r="F12" s="193"/>
+      <c r="E12" s="181"/>
+      <c r="F12" s="201"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3665,121 +3668,119 @@
       <c r="C13" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="153">
+      <c r="D13" s="181">
         <v>1520000</v>
       </c>
-      <c r="E13" s="153"/>
-      <c r="F13" s="193"/>
+      <c r="E13" s="181"/>
+      <c r="F13" s="201"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="200" t="s">
+      <c r="B14" s="197" t="s">
         <v>64</v>
       </c>
       <c r="C14" s="64">
         <v>44025</v>
       </c>
-      <c r="D14" s="153">
+      <c r="D14" s="181">
         <v>150000000</v>
       </c>
-      <c r="E14" s="153"/>
-      <c r="F14" s="193"/>
+      <c r="E14" s="181"/>
+      <c r="F14" s="201"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="201"/>
+      <c r="B15" s="198"/>
       <c r="C15" s="64">
         <v>44037</v>
       </c>
-      <c r="D15" s="153">
+      <c r="D15" s="181">
         <v>150000000</v>
       </c>
-      <c r="E15" s="153"/>
-      <c r="F15" s="193"/>
+      <c r="E15" s="181"/>
+      <c r="F15" s="201"/>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="201"/>
+      <c r="B16" s="198"/>
       <c r="C16" s="64">
         <v>44041</v>
       </c>
-      <c r="D16" s="153">
+      <c r="D16" s="181">
         <v>67000000</v>
       </c>
-      <c r="E16" s="153"/>
-      <c r="F16" s="193"/>
+      <c r="E16" s="181"/>
+      <c r="F16" s="201"/>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="2:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="201"/>
+      <c r="B17" s="198"/>
       <c r="C17" s="64">
         <v>44046</v>
       </c>
-      <c r="D17" s="153">
+      <c r="D17" s="181">
         <v>50000000</v>
       </c>
-      <c r="E17" s="153"/>
-      <c r="F17" s="193"/>
+      <c r="E17" s="181"/>
+      <c r="F17" s="201"/>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="2:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="201"/>
+      <c r="B18" s="198"/>
       <c r="C18" s="64">
         <v>44053</v>
       </c>
-      <c r="D18" s="153">
+      <c r="D18" s="181">
         <v>100000000</v>
       </c>
-      <c r="E18" s="153"/>
-      <c r="F18" s="193"/>
+      <c r="E18" s="181"/>
+      <c r="F18" s="201"/>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="2:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="201"/>
+      <c r="B19" s="198"/>
       <c r="C19" s="64">
         <v>44061</v>
       </c>
-      <c r="D19" s="153">
+      <c r="D19" s="181">
         <v>100000000</v>
       </c>
-      <c r="E19" s="153"/>
-      <c r="F19" s="193"/>
+      <c r="E19" s="181"/>
+      <c r="F19" s="201"/>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="2:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="202"/>
+      <c r="B20" s="199"/>
       <c r="C20" s="64">
         <v>44075</v>
       </c>
-      <c r="D20" s="153">
+      <c r="D20" s="181">
         <v>100000000</v>
       </c>
-      <c r="E20" s="153"/>
-      <c r="F20" s="194"/>
+      <c r="E20" s="181"/>
+      <c r="F20" s="202"/>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="2:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="195" t="s">
+      <c r="B21" s="192" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="196"/>
-      <c r="D21" s="196"/>
-      <c r="E21" s="197"/>
+      <c r="C21" s="193"/>
+      <c r="D21" s="193"/>
+      <c r="E21" s="194"/>
       <c r="F21" s="65">
         <f>F10-F11</f>
         <v>45900000</v>
       </c>
       <c r="G21" s="2"/>
     </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="B14:B20"/>
-    <mergeCell ref="D20:E20"/>
     <mergeCell ref="F11:F20"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
@@ -3789,6 +3790,13 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="D20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
